--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9403" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9642" uniqueCount="478">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -491,6 +491,9 @@
     <t>X2021.09.21</t>
   </si>
   <si>
+    <t>X2021.10.09</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -566,6 +569,9 @@
     <t>X2021.08.24</t>
   </si>
   <si>
+    <t>X2021.10.08</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -644,6 +650,12 @@
     <t>X2021.08.31</t>
   </si>
   <si>
+    <t>X2021.10.05</t>
+  </si>
+  <si>
+    <t>X2021.10.12</t>
+  </si>
+  <si>
     <t>Aldershot</t>
   </si>
   <si>
@@ -1323,6 +1335,12 @@
   </si>
   <si>
     <t>X2021.10.04</t>
+  </si>
+  <si>
+    <t>X2021.10.10</t>
+  </si>
+  <si>
+    <t>X2021.10.11</t>
   </si>
   <si>
     <t>Alcorcon</t>
@@ -3549,25 +3567,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>120</v>
@@ -3579,7 +3597,7 @@
         <v>97</v>
       </c>
       <c r="M1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3614,7 +3632,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -3685,7 +3703,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -3756,7 +3774,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>53</v>
@@ -3827,7 +3845,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -3898,7 +3916,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -3969,7 +3987,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -4040,7 +4058,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -4111,7 +4129,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -4182,7 +4200,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -4253,7 +4271,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -4324,7 +4342,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -4395,7 +4413,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -4466,7 +4484,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -4537,7 +4555,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -4608,7 +4626,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -4679,7 +4697,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -4750,7 +4768,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -4821,7 +4839,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -4892,7 +4910,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -4963,7 +4981,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -5086,7 +5104,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -5127,7 +5145,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -5168,7 +5186,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5209,7 +5227,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -5250,7 +5268,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -5291,7 +5309,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -5332,7 +5350,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -5373,7 +5391,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -5414,7 +5432,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -5455,7 +5473,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -5496,7 +5514,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -5537,7 +5555,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B13" t="s">
         <v>54</v>
@@ -5578,7 +5596,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -5619,7 +5637,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -5710,7 +5728,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s">
         <v>151</v>
@@ -5742,7 +5760,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -5813,7 +5831,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -5884,7 +5902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -5955,7 +5973,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -6026,7 +6044,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -6097,7 +6115,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -6168,7 +6186,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -6239,7 +6257,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -6310,7 +6328,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>53</v>
@@ -6381,7 +6399,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -6452,7 +6470,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -6523,7 +6541,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -6594,7 +6612,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -6665,7 +6683,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -6736,7 +6754,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -6807,7 +6825,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -6878,7 +6896,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -6949,7 +6967,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -7020,7 +7038,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -7091,7 +7109,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -7212,7 +7230,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s">
         <v>151</v>
@@ -7238,7 +7256,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -7303,7 +7321,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -7368,7 +7386,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -7433,7 +7451,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -7498,7 +7516,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -7563,7 +7581,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -7628,7 +7646,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -7693,7 +7711,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -7758,7 +7776,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -7823,7 +7841,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -7888,7 +7906,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -7953,7 +7971,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -8018,7 +8036,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -8083,7 +8101,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -8148,7 +8166,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -8213,7 +8231,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -8278,7 +8296,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -8343,7 +8361,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -8408,7 +8426,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -8473,7 +8491,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -8620,7 +8638,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -8691,7 +8709,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -8762,7 +8780,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -8801,7 +8819,7 @@
         <v>52</v>
       </c>
       <c r="N4" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="O4" t="s">
         <v>52</v>
@@ -8833,7 +8851,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -8904,7 +8922,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -8975,7 +8993,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -9046,7 +9064,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -9117,7 +9135,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -9188,7 +9206,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -9259,7 +9277,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -9330,7 +9348,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -9401,7 +9419,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -9472,7 +9490,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -9543,7 +9561,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -9614,7 +9632,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -9685,7 +9703,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -9756,7 +9774,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -9827,7 +9845,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -9921,7 +9939,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -9933,7 +9951,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -9975,7 +9993,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10001,7 +10019,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -10093,7 +10111,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -10185,7 +10203,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -10277,7 +10295,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -10369,7 +10387,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -10461,7 +10479,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -10553,7 +10571,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -10645,7 +10663,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -10737,7 +10755,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -10829,7 +10847,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -10921,7 +10939,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -11013,7 +11031,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -11105,7 +11123,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -11197,7 +11215,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -11289,7 +11307,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -11381,7 +11399,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -11473,7 +11491,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -11565,7 +11583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -11721,7 +11739,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -11774,7 +11792,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -11827,7 +11845,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -11880,7 +11898,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -11933,7 +11951,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -11986,7 +12004,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12039,7 +12057,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -12092,7 +12110,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -12145,7 +12163,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -12198,7 +12216,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -12251,7 +12269,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>54</v>
@@ -12304,7 +12322,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -12374,7 +12392,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -12386,7 +12404,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -12412,7 +12430,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -12456,7 +12474,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -12500,7 +12518,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -12544,7 +12562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -12588,7 +12606,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -12632,7 +12650,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -12676,7 +12694,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -12720,7 +12738,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -12764,7 +12782,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -12808,7 +12826,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -12901,7 +12919,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12939,7 +12957,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -12977,7 +12995,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -13015,7 +13033,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s">
         <v>53</v>
@@ -13053,7 +13071,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -13091,7 +13109,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -13129,7 +13147,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -13167,7 +13185,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
@@ -13205,7 +13223,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13243,7 +13261,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -13316,7 +13334,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -13339,7 +13357,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s">
         <v>54</v>
@@ -13386,7 +13404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -13433,7 +13451,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -13480,7 +13498,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13527,7 +13545,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -13574,7 +13592,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -13621,7 +13639,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -13668,7 +13686,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -13715,7 +13733,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -13762,7 +13780,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -15078,7 +15096,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -15120,7 +15138,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="T1" t="s">
         <v>151</v>
@@ -15152,7 +15170,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -15238,7 +15256,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -15324,7 +15342,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -15410,7 +15428,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -15496,7 +15514,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -15582,7 +15600,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -15668,7 +15686,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -15754,7 +15772,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -15840,7 +15858,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -15926,7 +15944,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -16012,7 +16030,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -16098,7 +16116,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -16184,7 +16202,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -16270,7 +16288,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -16356,7 +16374,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -16442,7 +16460,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -16528,7 +16546,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -16614,7 +16632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -16700,7 +16718,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -16786,7 +16804,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -16895,7 +16913,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16919,16 +16937,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="O1" t="s">
         <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q1" t="s">
         <v>150</v>
@@ -16955,7 +16973,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -16979,12 +16997,24 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>429</v>
+        <v>433</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>178</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>434</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -17082,10 +17112,22 @@
       <c r="AG2" t="s">
         <v>52</v>
       </c>
+      <c r="AH2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -17182,11 +17224,23 @@
       </c>
       <c r="AG3" t="s">
         <v>53</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -17282,12 +17336,24 @@
         <v>52</v>
       </c>
       <c r="AG4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -17383,12 +17449,24 @@
         <v>54</v>
       </c>
       <c r="AG5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -17486,10 +17564,22 @@
       <c r="AG6" t="s">
         <v>52</v>
       </c>
+      <c r="AH6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -17585,12 +17675,24 @@
         <v>53</v>
       </c>
       <c r="AG7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -17686,12 +17788,24 @@
         <v>53</v>
       </c>
       <c r="AG8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK8" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -17788,11 +17902,23 @@
       </c>
       <c r="AG9" t="s">
         <v>56</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>54</v>
@@ -17889,11 +18015,23 @@
       </c>
       <c r="AG10" t="s">
         <v>52</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -17989,12 +18127,24 @@
         <v>55</v>
       </c>
       <c r="AG11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -18092,10 +18242,22 @@
       <c r="AG12" t="s">
         <v>52</v>
       </c>
+      <c r="AH12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -18191,12 +18353,24 @@
         <v>53</v>
       </c>
       <c r="AG13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK13" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -18292,12 +18466,24 @@
         <v>53</v>
       </c>
       <c r="AG14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -18395,10 +18581,22 @@
       <c r="AG15" t="s">
         <v>52</v>
       </c>
+      <c r="AH15" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -18494,12 +18692,24 @@
         <v>53</v>
       </c>
       <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK16" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -18595,12 +18805,24 @@
         <v>52</v>
       </c>
       <c r="AG17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -18696,12 +18918,24 @@
         <v>52</v>
       </c>
       <c r="AG18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK18" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -18797,12 +19031,24 @@
         <v>52</v>
       </c>
       <c r="AG19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK19" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -18898,12 +19144,24 @@
         <v>52</v>
       </c>
       <c r="AG20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK20" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -18999,12 +19257,24 @@
         <v>52</v>
       </c>
       <c r="AG21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK21" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B22" t="s">
         <v>52</v>
@@ -19100,12 +19370,24 @@
         <v>52</v>
       </c>
       <c r="AG22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>53</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B23" t="s">
         <v>54</v>
@@ -19202,6 +19484,18 @@
       </c>
       <c r="AG23" t="s">
         <v>52</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -19229,7 +19523,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19303,7 +19597,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -19389,7 +19683,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -19475,7 +19769,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -19561,7 +19855,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -19647,7 +19941,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -19733,7 +20027,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -19819,7 +20113,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -19905,7 +20199,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -19991,7 +20285,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -20077,7 +20371,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -20163,7 +20457,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s">
         <v>52</v>
@@ -20249,7 +20543,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -20335,7 +20629,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s">
         <v>52</v>
@@ -20421,7 +20715,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -20507,7 +20801,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -20593,7 +20887,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -20679,7 +20973,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20765,7 +21059,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -20851,7 +21145,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -20937,7 +21231,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>
@@ -25693,10 +25987,13 @@
       <c r="P1" t="s">
         <v>32</v>
       </c>
+      <c r="Q1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -25743,10 +26040,13 @@
       <c r="P2" t="s">
         <v>53</v>
       </c>
+      <c r="Q2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -25792,11 +26092,14 @@
       </c>
       <c r="P3" t="s">
         <v>53</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -25841,12 +26144,15 @@
         <v>53</v>
       </c>
       <c r="P4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -25892,11 +26198,14 @@
       </c>
       <c r="P5" t="s">
         <v>53</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -25943,10 +26252,13 @@
       <c r="P6" t="s">
         <v>56</v>
       </c>
+      <c r="Q6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -25993,10 +26305,13 @@
       <c r="P7" t="s">
         <v>53</v>
       </c>
+      <c r="Q7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -26043,10 +26358,13 @@
       <c r="P8" t="s">
         <v>56</v>
       </c>
+      <c r="Q8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -26092,11 +26410,14 @@
       </c>
       <c r="P9" t="s">
         <v>56</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -26143,10 +26464,13 @@
       <c r="P10" t="s">
         <v>53</v>
       </c>
+      <c r="Q10" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
         <v>53</v>
@@ -26192,11 +26516,14 @@
       </c>
       <c r="P11" t="s">
         <v>56</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -26243,10 +26570,13 @@
       <c r="P12" t="s">
         <v>56</v>
       </c>
+      <c r="Q12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -26293,10 +26623,13 @@
       <c r="P13" t="s">
         <v>56</v>
       </c>
+      <c r="Q13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -26342,11 +26675,14 @@
       </c>
       <c r="P14" t="s">
         <v>56</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -26392,11 +26728,14 @@
       </c>
       <c r="P15" t="s">
         <v>56</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -26443,10 +26782,13 @@
       <c r="P16" t="s">
         <v>57</v>
       </c>
+      <c r="Q16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -26492,11 +26834,14 @@
       </c>
       <c r="P17" t="s">
         <v>53</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
@@ -26542,11 +26887,14 @@
       </c>
       <c r="P18" t="s">
         <v>56</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B19" t="s">
         <v>54</v>
@@ -26592,11 +26940,14 @@
       </c>
       <c r="P19" t="s">
         <v>54</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B20" t="s">
         <v>54</v>
@@ -26643,10 +26994,13 @@
       <c r="P20" t="s">
         <v>54</v>
       </c>
+      <c r="Q20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -26692,11 +27046,14 @@
       </c>
       <c r="P21" t="s">
         <v>56</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -26741,12 +27098,15 @@
         <v>56</v>
       </c>
       <c r="P22" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -26793,10 +27153,13 @@
       <c r="P23" t="s">
         <v>57</v>
       </c>
+      <c r="Q23" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -26842,11 +27205,14 @@
       </c>
       <c r="P24" t="s">
         <v>54</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -26892,6 +27258,9 @@
       </c>
       <c r="P25" t="s">
         <v>55</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +27291,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -26957,10 +27326,16 @@
       <c r="Q1" t="s">
         <v>32</v>
       </c>
+      <c r="R1" t="s">
+        <v>178</v>
+      </c>
+      <c r="S1" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
@@ -27009,11 +27384,17 @@
       </c>
       <c r="Q2" t="s">
         <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -27061,12 +27442,18 @@
         <v>56</v>
       </c>
       <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -27116,10 +27503,16 @@
       <c r="Q4" t="s">
         <v>55</v>
       </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -27169,10 +27562,16 @@
       <c r="Q5" t="s">
         <v>56</v>
       </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -27221,11 +27620,17 @@
       </c>
       <c r="Q6" t="s">
         <v>56</v>
+      </c>
+      <c r="R6" t="s">
+        <v>56</v>
+      </c>
+      <c r="S6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -27275,10 +27680,16 @@
       <c r="Q7" t="s">
         <v>56</v>
       </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>54</v>
@@ -27326,12 +27737,18 @@
         <v>53</v>
       </c>
       <c r="Q8" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>53</v>
@@ -27380,11 +27797,17 @@
       </c>
       <c r="Q9" t="s">
         <v>54</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -27432,12 +27855,18 @@
         <v>54</v>
       </c>
       <c r="Q10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" t="s">
+        <v>52</v>
+      </c>
+      <c r="S10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>54</v>
@@ -27486,11 +27915,17 @@
       </c>
       <c r="Q11" t="s">
         <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S11" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -27539,11 +27974,17 @@
       </c>
       <c r="Q12" t="s">
         <v>55</v>
+      </c>
+      <c r="R12" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -27592,11 +28033,17 @@
       </c>
       <c r="Q13" t="s">
         <v>53</v>
+      </c>
+      <c r="R13" t="s">
+        <v>52</v>
+      </c>
+      <c r="S13" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
@@ -27644,12 +28091,18 @@
         <v>52</v>
       </c>
       <c r="Q14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R14" t="s">
+        <v>52</v>
+      </c>
+      <c r="S14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -27697,12 +28150,18 @@
         <v>56</v>
       </c>
       <c r="Q15" t="s">
+        <v>56</v>
+      </c>
+      <c r="R15" t="s">
+        <v>52</v>
+      </c>
+      <c r="S15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>53</v>
@@ -27752,10 +28211,16 @@
       <c r="Q16" t="s">
         <v>56</v>
       </c>
+      <c r="R16" t="s">
+        <v>52</v>
+      </c>
+      <c r="S16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>53</v>
@@ -27804,11 +28269,17 @@
       </c>
       <c r="Q17" t="s">
         <v>56</v>
+      </c>
+      <c r="R17" t="s">
+        <v>52</v>
+      </c>
+      <c r="S17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27857,11 +28328,17 @@
       </c>
       <c r="Q18" t="s">
         <v>56</v>
+      </c>
+      <c r="R18" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>53</v>
@@ -27910,11 +28387,17 @@
       </c>
       <c r="Q19" t="s">
         <v>54</v>
+      </c>
+      <c r="R19" t="s">
+        <v>52</v>
+      </c>
+      <c r="S19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27964,10 +28447,16 @@
       <c r="Q20" t="s">
         <v>55</v>
       </c>
+      <c r="R20" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>54</v>
@@ -28017,10 +28506,16 @@
       <c r="Q21" t="s">
         <v>54</v>
       </c>
+      <c r="R21" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -28069,11 +28564,17 @@
       </c>
       <c r="Q22" t="s">
         <v>54</v>
+      </c>
+      <c r="R22" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>53</v>
@@ -28122,11 +28623,17 @@
       </c>
       <c r="Q23" t="s">
         <v>53</v>
+      </c>
+      <c r="R23" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>54</v>
@@ -28175,11 +28682,17 @@
       </c>
       <c r="Q24" t="s">
         <v>53</v>
+      </c>
+      <c r="R24" t="s">
+        <v>54</v>
+      </c>
+      <c r="S24" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>53</v>
@@ -28228,6 +28741,12 @@
       </c>
       <c r="Q25" t="s">
         <v>56</v>
+      </c>
+      <c r="R25" t="s">
+        <v>52</v>
+      </c>
+      <c r="S25" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -28252,10 +28771,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F1" t="s">
         <v>149</v>
@@ -28281,10 +28800,19 @@
       <c r="M1" t="s">
         <v>32</v>
       </c>
+      <c r="N1" t="s">
+        <v>205</v>
+      </c>
+      <c r="O1" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -28320,12 +28848,21 @@
         <v>52</v>
       </c>
       <c r="M2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>53</v>
@@ -28362,11 +28899,20 @@
       </c>
       <c r="M3" t="s">
         <v>56</v>
+      </c>
+      <c r="N3" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -28404,10 +28950,19 @@
       <c r="M4" t="s">
         <v>54</v>
       </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>54</v>
@@ -28444,11 +28999,20 @@
       </c>
       <c r="M5" t="s">
         <v>53</v>
+      </c>
+      <c r="N5" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -28486,10 +29050,19 @@
       <c r="M6" t="s">
         <v>52</v>
       </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -28525,12 +29098,21 @@
         <v>55</v>
       </c>
       <c r="M7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>53</v>
@@ -28567,11 +29149,20 @@
       </c>
       <c r="M8" t="s">
         <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O8" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -28609,10 +29200,19 @@
       <c r="M9" t="s">
         <v>59</v>
       </c>
+      <c r="N9" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -28649,11 +29249,20 @@
       </c>
       <c r="M10" t="s">
         <v>53</v>
+      </c>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -28690,11 +29299,20 @@
       </c>
       <c r="M11" t="s">
         <v>54</v>
+      </c>
+      <c r="N11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28731,11 +29349,20 @@
       </c>
       <c r="M12" t="s">
         <v>54</v>
+      </c>
+      <c r="N12" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
@@ -28773,10 +29400,19 @@
       <c r="M13" t="s">
         <v>56</v>
       </c>
+      <c r="N13" t="s">
+        <v>53</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -28814,10 +29450,19 @@
       <c r="M14" t="s">
         <v>55</v>
       </c>
+      <c r="N14" t="s">
+        <v>54</v>
+      </c>
+      <c r="O14" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
@@ -28855,10 +29500,19 @@
       <c r="M15" t="s">
         <v>57</v>
       </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="O15" t="s">
+        <v>54</v>
+      </c>
+      <c r="P15" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -28896,10 +29550,19 @@
       <c r="M16" t="s">
         <v>54</v>
       </c>
+      <c r="N16" t="s">
+        <v>54</v>
+      </c>
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+      <c r="P16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>54</v>
@@ -28936,11 +29599,20 @@
       </c>
       <c r="M17" t="s">
         <v>56</v>
+      </c>
+      <c r="N17" t="s">
+        <v>54</v>
+      </c>
+      <c r="O17" t="s">
+        <v>57</v>
+      </c>
+      <c r="P17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -28977,11 +29649,20 @@
       </c>
       <c r="M18" t="s">
         <v>53</v>
+      </c>
+      <c r="N18" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" t="s">
+        <v>54</v>
+      </c>
+      <c r="P18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -29019,10 +29700,19 @@
       <c r="M19" t="s">
         <v>54</v>
       </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19" t="s">
+        <v>56</v>
+      </c>
+      <c r="P19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -29060,10 +29750,19 @@
       <c r="M20" t="s">
         <v>58</v>
       </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20" t="s">
+        <v>56</v>
+      </c>
+      <c r="P20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>56</v>
@@ -29101,10 +29800,19 @@
       <c r="M21" t="s">
         <v>56</v>
       </c>
+      <c r="N21" t="s">
+        <v>55</v>
+      </c>
+      <c r="O21" t="s">
+        <v>56</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>53</v>
@@ -29141,11 +29849,20 @@
       </c>
       <c r="M22" t="s">
         <v>53</v>
+      </c>
+      <c r="N22" t="s">
+        <v>54</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -29181,12 +29898,21 @@
         <v>52</v>
       </c>
       <c r="M23" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -29223,6 +29949,15 @@
       </c>
       <c r="M24" t="s">
         <v>52</v>
+      </c>
+      <c r="N24" t="s">
+        <v>54</v>
+      </c>
+      <c r="O24" t="s">
+        <v>56</v>
+      </c>
+      <c r="P24" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -29315,7 +30050,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>52</v>
@@ -29392,7 +30127,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B3" t="s">
         <v>52</v>
@@ -29469,7 +30204,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>52</v>
@@ -29546,7 +30281,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -29623,7 +30358,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s">
         <v>52</v>
@@ -29700,7 +30435,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B7" t="s">
         <v>52</v>
@@ -29777,7 +30512,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
@@ -29854,7 +30589,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
@@ -29931,7 +30666,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B10" t="s">
         <v>52</v>
@@ -30008,7 +30743,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B11" t="s">
         <v>52</v>
@@ -30085,7 +30820,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B12" t="s">
         <v>53</v>
@@ -30162,7 +30897,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B13" t="s">
         <v>52</v>
@@ -30239,7 +30974,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B14" t="s">
         <v>53</v>
@@ -30316,7 +31051,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B15" t="s">
         <v>52</v>
@@ -30393,7 +31128,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
@@ -30470,7 +31205,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>52</v>
@@ -30547,7 +31282,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B18" t="s">
         <v>52</v>
@@ -30624,7 +31359,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B19" t="s">
         <v>52</v>
@@ -30701,7 +31436,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s">
         <v>52</v>
@@ -30778,7 +31513,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s">
         <v>52</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10483" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10749" uniqueCount="484">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -341,6 +341,9 @@
     <t>X2021.09.27</t>
   </si>
   <si>
+    <t>X2021.10.18</t>
+  </si>
+  <si>
     <t>Arsenal</t>
   </si>
   <si>
@@ -417,6 +420,12 @@
   </si>
   <si>
     <t>X2021.09.29</t>
+  </si>
+  <si>
+    <t>X2021.10.19</t>
+  </si>
+  <si>
+    <t>X2021.10.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -3747,28 +3756,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -3777,7 +3786,7 @@
         <v>100</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -3789,13 +3798,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -3812,10 +3821,13 @@
       <c r="X1" t="s">
         <v>35</v>
       </c>
+      <c r="Y1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -3885,11 +3897,14 @@
       </c>
       <c r="X2" t="s">
         <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -3959,11 +3974,14 @@
       </c>
       <c r="X3" t="s">
         <v>56</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -4034,10 +4052,13 @@
       <c r="X4" t="s">
         <v>62</v>
       </c>
+      <c r="Y4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -4107,11 +4128,14 @@
       </c>
       <c r="X5" t="s">
         <v>57</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -4181,11 +4205,14 @@
       </c>
       <c r="X6" t="s">
         <v>59</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4256,10 +4283,13 @@
       <c r="X7" t="s">
         <v>57</v>
       </c>
+      <c r="Y7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -4329,11 +4359,14 @@
       </c>
       <c r="X8" t="s">
         <v>56</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -4404,10 +4437,13 @@
       <c r="X9" t="s">
         <v>57</v>
       </c>
+      <c r="Y9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -4477,11 +4513,14 @@
       </c>
       <c r="X10" t="s">
         <v>59</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -4551,11 +4590,14 @@
       </c>
       <c r="X11" t="s">
         <v>59</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -4626,10 +4668,13 @@
       <c r="X12" t="s">
         <v>56</v>
       </c>
+      <c r="Y12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -4699,11 +4744,14 @@
       </c>
       <c r="X13" t="s">
         <v>55</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -4774,10 +4822,13 @@
       <c r="X14" t="s">
         <v>57</v>
       </c>
+      <c r="Y14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -4848,10 +4899,13 @@
       <c r="X15" t="s">
         <v>56</v>
       </c>
+      <c r="Y15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -4921,11 +4975,14 @@
       </c>
       <c r="X16" t="s">
         <v>57</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -4995,11 +5052,14 @@
       </c>
       <c r="X17" t="s">
         <v>58</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B18" t="s">
         <v>60</v>
@@ -5070,10 +5130,13 @@
       <c r="X18" t="s">
         <v>56</v>
       </c>
+      <c r="Y18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -5143,11 +5206,14 @@
       </c>
       <c r="X19" t="s">
         <v>57</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -5217,11 +5283,14 @@
       </c>
       <c r="X20" t="s">
         <v>57</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -5291,6 +5360,9 @@
       </c>
       <c r="X21" t="s">
         <v>58</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5350,10 +5422,13 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -5396,11 +5471,14 @@
       </c>
       <c r="O2" t="s">
         <v>57</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -5444,10 +5522,13 @@
       <c r="O3" t="s">
         <v>55</v>
       </c>
+      <c r="P3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -5490,11 +5571,14 @@
       </c>
       <c r="O4" t="s">
         <v>55</v>
+      </c>
+      <c r="P4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -5536,12 +5620,15 @@
         <v>57</v>
       </c>
       <c r="O5" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -5584,11 +5671,14 @@
       </c>
       <c r="O6" t="s">
         <v>58</v>
+      </c>
+      <c r="P6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -5631,11 +5721,14 @@
       </c>
       <c r="O7" t="s">
         <v>59</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -5679,10 +5772,13 @@
       <c r="O8" t="s">
         <v>55</v>
       </c>
+      <c r="P8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -5725,11 +5821,14 @@
       </c>
       <c r="O9" t="s">
         <v>55</v>
+      </c>
+      <c r="P9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -5772,11 +5871,14 @@
       </c>
       <c r="O10" t="s">
         <v>56</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -5819,11 +5921,14 @@
       </c>
       <c r="O11" t="s">
         <v>56</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -5865,12 +5970,15 @@
         <v>56</v>
       </c>
       <c r="O12" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
         <v>57</v>
@@ -5913,11 +6021,14 @@
       </c>
       <c r="O13" t="s">
         <v>59</v>
+      </c>
+      <c r="P13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -5961,10 +6072,13 @@
       <c r="O14" t="s">
         <v>60</v>
       </c>
+      <c r="P14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -6007,6 +6121,9 @@
       </c>
       <c r="O15" t="s">
         <v>60</v>
+      </c>
+      <c r="P15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -6061,10 +6178,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -6096,10 +6213,13 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -6172,11 +6292,14 @@
       </c>
       <c r="Y2" t="s">
         <v>56</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -6250,10 +6373,13 @@
       <c r="Y3" t="s">
         <v>56</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6327,10 +6453,13 @@
       <c r="Y4" t="s">
         <v>56</v>
       </c>
+      <c r="Z4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -6404,10 +6533,13 @@
       <c r="Y5" t="s">
         <v>60</v>
       </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -6480,11 +6612,14 @@
       </c>
       <c r="Y6" t="s">
         <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -6558,10 +6693,13 @@
       <c r="Y7" t="s">
         <v>59</v>
       </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -6633,12 +6771,15 @@
         <v>58</v>
       </c>
       <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -6711,11 +6852,14 @@
       </c>
       <c r="Y9" t="s">
         <v>57</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
@@ -6787,12 +6931,15 @@
         <v>56</v>
       </c>
       <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -6864,12 +7011,15 @@
         <v>59</v>
       </c>
       <c r="Y11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -6942,11 +7092,14 @@
       </c>
       <c r="Y12" t="s">
         <v>57</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -7019,11 +7172,14 @@
       </c>
       <c r="Y13" t="s">
         <v>56</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -7097,10 +7253,13 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -7174,10 +7333,13 @@
       <c r="Y15" t="s">
         <v>58</v>
       </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -7250,11 +7412,14 @@
       </c>
       <c r="Y16" t="s">
         <v>59</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -7328,10 +7493,13 @@
       <c r="Y17" t="s">
         <v>55</v>
       </c>
+      <c r="Z17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -7404,11 +7572,14 @@
       </c>
       <c r="Y18" t="s">
         <v>56</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -7482,10 +7653,13 @@
       <c r="Y19" t="s">
         <v>56</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -7558,11 +7732,14 @@
       </c>
       <c r="Y20" t="s">
         <v>55</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -7634,6 +7811,9 @@
         <v>58</v>
       </c>
       <c r="Y21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -7689,10 +7869,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="O1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7721,7 +7901,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -7792,7 +7972,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -7863,7 +8043,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -7934,7 +8114,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -8005,7 +8185,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -8076,7 +8256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -8147,7 +8327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -8218,7 +8398,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -8289,7 +8469,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -8360,7 +8540,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -8431,7 +8611,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -8502,7 +8682,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -8573,7 +8753,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -8644,7 +8824,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -8715,7 +8895,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -8786,7 +8966,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -8857,7 +9037,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -8928,7 +9108,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -8999,7 +9179,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -9070,7 +9250,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -9197,7 +9377,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -9229,7 +9409,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -9306,7 +9486,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -9383,7 +9563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -9422,7 +9602,7 @@
         <v>55</v>
       </c>
       <c r="N4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="O4" t="s">
         <v>55</v>
@@ -9460,7 +9640,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -9537,7 +9717,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -9614,7 +9794,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -9691,7 +9871,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -9768,7 +9948,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -9845,7 +10025,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -9922,7 +10102,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -9999,7 +10179,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -10076,7 +10256,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -10153,7 +10333,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -10230,7 +10410,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -10307,7 +10487,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -10384,7 +10564,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -10461,7 +10641,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -10538,7 +10718,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -10638,7 +10818,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -10650,7 +10830,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -10692,7 +10872,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -10718,7 +10898,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -10810,7 +10990,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -10902,7 +11082,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -10994,7 +11174,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -11086,7 +11266,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -11178,7 +11358,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -11270,7 +11450,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -11362,7 +11542,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -11454,7 +11634,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -11546,7 +11726,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -11638,7 +11818,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -11730,7 +11910,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -11822,7 +12002,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -11914,7 +12094,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -12006,7 +12186,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -12098,7 +12278,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -12190,7 +12370,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -12282,7 +12462,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -12441,7 +12621,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -12497,7 +12677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -12553,7 +12733,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -12609,7 +12789,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -12665,7 +12845,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -12721,7 +12901,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -12777,7 +12957,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12833,7 +13013,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -12889,7 +13069,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -12945,7 +13125,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -13001,7 +13181,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -13057,7 +13237,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -13130,7 +13310,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -13142,7 +13322,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -13160,7 +13340,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -13174,7 +13354,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -13224,7 +13404,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -13274,7 +13454,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -13324,7 +13504,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -13374,7 +13554,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -13424,7 +13604,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -13474,7 +13654,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -13524,7 +13704,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -13574,7 +13754,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -13624,7 +13804,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -13706,7 +13886,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -13726,7 +13906,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13767,7 +13947,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -13808,7 +13988,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -13849,7 +14029,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -13890,7 +14070,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -13931,7 +14111,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -13972,7 +14152,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -14013,7 +14193,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
         <v>57</v>
@@ -14054,7 +14234,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14095,7 +14275,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -14171,7 +14351,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -14200,7 +14380,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -14253,7 +14433,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -14306,7 +14486,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -14359,7 +14539,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -14412,7 +14592,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -14465,7 +14645,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -14518,7 +14698,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -14571,7 +14751,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -14624,7 +14804,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -14677,7 +14857,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -16170,7 +16350,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -16212,10 +16392,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="T1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -16247,10 +16427,13 @@
       <c r="AD1" t="s">
         <v>36</v>
       </c>
+      <c r="AE1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -16339,10 +16522,13 @@
       <c r="AD2" t="s">
         <v>55</v>
       </c>
+      <c r="AE2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -16429,12 +16615,15 @@
         <v>55</v>
       </c>
       <c r="AD3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -16521,12 +16710,15 @@
         <v>55</v>
       </c>
       <c r="AD4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -16614,11 +16806,14 @@
       </c>
       <c r="AD5" t="s">
         <v>56</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -16706,11 +16901,14 @@
       </c>
       <c r="AD6" t="s">
         <v>55</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -16798,11 +16996,14 @@
       </c>
       <c r="AD7" t="s">
         <v>55</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -16891,10 +17092,13 @@
       <c r="AD8" t="s">
         <v>56</v>
       </c>
+      <c r="AE8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -16983,10 +17187,13 @@
       <c r="AD9" t="s">
         <v>59</v>
       </c>
+      <c r="AE9" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -17074,11 +17281,14 @@
       </c>
       <c r="AD10" t="s">
         <v>55</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -17165,12 +17375,15 @@
         <v>57</v>
       </c>
       <c r="AD11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -17259,10 +17472,13 @@
       <c r="AD12" t="s">
         <v>55</v>
       </c>
+      <c r="AE12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -17349,12 +17565,15 @@
         <v>57</v>
       </c>
       <c r="AD13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -17443,10 +17662,13 @@
       <c r="AD14" t="s">
         <v>55</v>
       </c>
+      <c r="AE14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -17535,10 +17757,13 @@
       <c r="AD15" t="s">
         <v>56</v>
       </c>
+      <c r="AE15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -17625,12 +17850,15 @@
         <v>55</v>
       </c>
       <c r="AD16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -17718,11 +17946,14 @@
       </c>
       <c r="AD17" t="s">
         <v>57</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -17811,10 +18042,13 @@
       <c r="AD18" t="s">
         <v>55</v>
       </c>
+      <c r="AE18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -17902,11 +18136,14 @@
       </c>
       <c r="AD19" t="s">
         <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -17994,11 +18231,14 @@
       </c>
       <c r="AD20" t="s">
         <v>56</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -18086,6 +18326,9 @@
       </c>
       <c r="AD21" t="s">
         <v>59</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -18113,7 +18356,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -18137,19 +18380,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="O1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="Q1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -18173,7 +18416,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -18197,19 +18440,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AH1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AI1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AJ1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="AK1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -18220,10 +18463,16 @@
       <c r="AN1" t="s">
         <v>36</v>
       </c>
+      <c r="AO1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -18342,10 +18591,16 @@
       <c r="AN2" t="s">
         <v>55</v>
       </c>
+      <c r="AO2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -18462,12 +18717,18 @@
         <v>55</v>
       </c>
       <c r="AN3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -18585,11 +18846,17 @@
       </c>
       <c r="AN4" t="s">
         <v>55</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -18707,11 +18974,17 @@
       </c>
       <c r="AN5" t="s">
         <v>56</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -18830,10 +19103,16 @@
       <c r="AN6" t="s">
         <v>55</v>
       </c>
+      <c r="AO6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -18950,12 +19229,18 @@
         <v>55</v>
       </c>
       <c r="AN7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -19072,12 +19357,18 @@
         <v>55</v>
       </c>
       <c r="AN8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -19194,12 +19485,18 @@
         <v>58</v>
       </c>
       <c r="AN9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -19316,12 +19613,18 @@
         <v>56</v>
       </c>
       <c r="AN10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -19440,10 +19743,16 @@
       <c r="AN11" t="s">
         <v>59</v>
       </c>
+      <c r="AO11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -19562,10 +19871,16 @@
       <c r="AN12" t="s">
         <v>55</v>
       </c>
+      <c r="AO12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -19683,11 +19998,17 @@
       </c>
       <c r="AN13" t="s">
         <v>59</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -19805,11 +20126,17 @@
       </c>
       <c r="AN14" t="s">
         <v>56</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -19928,10 +20255,16 @@
       <c r="AN15" t="s">
         <v>55</v>
       </c>
+      <c r="AO15" t="s">
+        <v>57</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -20049,11 +20382,17 @@
       </c>
       <c r="AN16" t="s">
         <v>57</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -20171,11 +20510,17 @@
       </c>
       <c r="AN17" t="s">
         <v>56</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -20293,11 +20638,17 @@
       </c>
       <c r="AN18" t="s">
         <v>57</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -20415,11 +20766,17 @@
       </c>
       <c r="AN19" t="s">
         <v>56</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -20536,12 +20893,18 @@
         <v>57</v>
       </c>
       <c r="AN20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -20658,12 +21021,18 @@
         <v>59</v>
       </c>
       <c r="AN21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>56</v>
+      </c>
+      <c r="AP21" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -20781,11 +21150,17 @@
       </c>
       <c r="AN22" t="s">
         <v>57</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B23" t="s">
         <v>57</v>
@@ -20902,6 +21277,12 @@
         <v>56</v>
       </c>
       <c r="AN23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AP23" t="s">
         <v>55</v>
       </c>
     </row>
@@ -20930,7 +21311,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -20972,7 +21353,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -21010,10 +21391,13 @@
       <c r="AE1" t="s">
         <v>36</v>
       </c>
+      <c r="AF1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -21105,10 +21489,13 @@
       <c r="AE2" t="s">
         <v>55</v>
       </c>
+      <c r="AF2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -21200,10 +21587,13 @@
       <c r="AE3" t="s">
         <v>55</v>
       </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -21295,10 +21685,13 @@
       <c r="AE4" t="s">
         <v>56</v>
       </c>
+      <c r="AF4" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -21388,12 +21781,15 @@
         <v>59</v>
       </c>
       <c r="AE5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -21483,12 +21879,15 @@
         <v>55</v>
       </c>
       <c r="AE6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -21578,12 +21977,15 @@
         <v>55</v>
       </c>
       <c r="AE7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -21674,11 +22076,14 @@
       </c>
       <c r="AE8" t="s">
         <v>58</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -21769,11 +22174,14 @@
       </c>
       <c r="AE9" t="s">
         <v>57</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -21865,10 +22273,13 @@
       <c r="AE10" t="s">
         <v>55</v>
       </c>
+      <c r="AF10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -21958,12 +22369,15 @@
         <v>57</v>
       </c>
       <c r="AE11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF11" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -22054,11 +22468,14 @@
       </c>
       <c r="AE12" t="s">
         <v>56</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -22149,11 +22566,14 @@
       </c>
       <c r="AE13" t="s">
         <v>55</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -22245,10 +22665,13 @@
       <c r="AE14" t="s">
         <v>57</v>
       </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -22339,11 +22762,14 @@
       </c>
       <c r="AE15" t="s">
         <v>59</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -22434,11 +22860,14 @@
       </c>
       <c r="AE16" t="s">
         <v>55</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -22529,11 +22958,14 @@
       </c>
       <c r="AE17" t="s">
         <v>56</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22623,12 +23055,15 @@
         <v>59</v>
       </c>
       <c r="AE18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -22718,12 +23153,15 @@
         <v>59</v>
       </c>
       <c r="AE19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF19" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -22814,11 +23252,14 @@
       </c>
       <c r="AE20" t="s">
         <v>56</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -22908,6 +23349,9 @@
         <v>57</v>
       </c>
       <c r="AE21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -24748,10 +25192,13 @@
       <c r="V1" t="s">
         <v>36</v>
       </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -24816,10 +25263,13 @@
       <c r="V2" t="s">
         <v>55</v>
       </c>
+      <c r="W2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -24882,12 +25332,15 @@
         <v>58</v>
       </c>
       <c r="V3" t="s">
+        <v>55</v>
+      </c>
+      <c r="W3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -24950,12 +25403,15 @@
         <v>56</v>
       </c>
       <c r="V4" t="s">
+        <v>55</v>
+      </c>
+      <c r="W4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -25018,12 +25474,15 @@
         <v>57</v>
       </c>
       <c r="V5" t="s">
+        <v>55</v>
+      </c>
+      <c r="W5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -25086,12 +25545,15 @@
         <v>59</v>
       </c>
       <c r="V6" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -25154,12 +25616,15 @@
         <v>57</v>
       </c>
       <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -25223,11 +25688,14 @@
       </c>
       <c r="V8" t="s">
         <v>55</v>
+      </c>
+      <c r="W8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -25291,11 +25759,14 @@
       </c>
       <c r="V9" t="s">
         <v>56</v>
+      </c>
+      <c r="W9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -25360,10 +25831,13 @@
       <c r="V10" t="s">
         <v>55</v>
       </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -25428,10 +25902,13 @@
       <c r="V11" t="s">
         <v>55</v>
       </c>
+      <c r="W11" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -25494,12 +25971,15 @@
         <v>57</v>
       </c>
       <c r="V12" t="s">
+        <v>55</v>
+      </c>
+      <c r="W12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -25562,12 +26042,15 @@
         <v>57</v>
       </c>
       <c r="V13" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -25632,10 +26115,13 @@
       <c r="V14" t="s">
         <v>55</v>
       </c>
+      <c r="W14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -25700,10 +26186,13 @@
       <c r="V15" t="s">
         <v>58</v>
       </c>
+      <c r="W15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -25768,10 +26257,13 @@
       <c r="V16" t="s">
         <v>55</v>
       </c>
+      <c r="W16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -25834,12 +26326,15 @@
         <v>57</v>
       </c>
       <c r="V17" t="s">
+        <v>55</v>
+      </c>
+      <c r="W17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -25903,11 +26398,14 @@
       </c>
       <c r="V18" t="s">
         <v>59</v>
+      </c>
+      <c r="W18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -25972,10 +26470,13 @@
       <c r="V19" t="s">
         <v>55</v>
       </c>
+      <c r="W19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -26039,11 +26540,14 @@
       </c>
       <c r="V20" t="s">
         <v>57</v>
+      </c>
+      <c r="W20" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -26106,6 +26610,9 @@
         <v>59</v>
       </c>
       <c r="V21" t="s">
+        <v>55</v>
+      </c>
+      <c r="W21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -26137,10 +26644,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -26161,10 +26668,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -26176,10 +26683,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -26196,10 +26703,16 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
+      <c r="Z1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -26272,11 +26785,17 @@
       </c>
       <c r="Y2" t="s">
         <v>55</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -26350,10 +26869,16 @@
       <c r="Y3" t="s">
         <v>55</v>
       </c>
+      <c r="Z3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -26425,12 +26950,18 @@
         <v>59</v>
       </c>
       <c r="Y4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -26503,11 +27034,17 @@
       </c>
       <c r="Y5" t="s">
         <v>55</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -26579,12 +27116,18 @@
         <v>57</v>
       </c>
       <c r="Y6" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -26656,12 +27199,18 @@
         <v>59</v>
       </c>
       <c r="Y7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA7" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -26735,10 +27284,16 @@
       <c r="Y8" t="s">
         <v>58</v>
       </c>
+      <c r="Z8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -26812,10 +27367,16 @@
       <c r="Y9" t="s">
         <v>55</v>
       </c>
+      <c r="Z9" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -26887,12 +27448,18 @@
         <v>57</v>
       </c>
       <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -26966,10 +27533,16 @@
       <c r="Y11" t="s">
         <v>55</v>
       </c>
+      <c r="Z11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
         <v>55</v>
@@ -27043,10 +27616,16 @@
       <c r="Y12" t="s">
         <v>55</v>
       </c>
+      <c r="Z12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -27119,11 +27698,17 @@
       </c>
       <c r="Y13" t="s">
         <v>55</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
         <v>55</v>
@@ -27197,10 +27782,16 @@
       <c r="Y14" t="s">
         <v>55</v>
       </c>
+      <c r="Z14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -27273,11 +27864,17 @@
       </c>
       <c r="Y15" t="s">
         <v>55</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -27349,12 +27946,18 @@
         <v>59</v>
       </c>
       <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -27426,12 +28029,18 @@
         <v>56</v>
       </c>
       <c r="Y17" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA17" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -27505,10 +28114,16 @@
       <c r="Y18" t="s">
         <v>55</v>
       </c>
+      <c r="Z18" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -27582,10 +28197,16 @@
       <c r="Y19" t="s">
         <v>55</v>
       </c>
+      <c r="Z19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -27659,10 +28280,16 @@
       <c r="Y20" t="s">
         <v>55</v>
       </c>
+      <c r="Z20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -27736,10 +28363,16 @@
       <c r="Y21" t="s">
         <v>55</v>
       </c>
+      <c r="Z21" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B22" t="s">
         <v>55</v>
@@ -27813,10 +28446,16 @@
       <c r="Y22" t="s">
         <v>55</v>
       </c>
+      <c r="Z22" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B23" t="s">
         <v>55</v>
@@ -27888,12 +28527,18 @@
         <v>59</v>
       </c>
       <c r="Y23" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -27966,11 +28611,17 @@
       </c>
       <c r="Y24" t="s">
         <v>57</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -28043,6 +28694,12 @@
       </c>
       <c r="Y25" t="s">
         <v>55</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -28067,7 +28724,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -28079,34 +28736,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -28114,10 +28771,13 @@
       <c r="S1" t="s">
         <v>35</v>
       </c>
+      <c r="T1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -28173,10 +28833,13 @@
       <c r="S2" t="s">
         <v>56</v>
       </c>
+      <c r="T2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -28231,11 +28894,14 @@
       </c>
       <c r="S3" t="s">
         <v>59</v>
+      </c>
+      <c r="T3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -28291,10 +28957,13 @@
       <c r="S4" t="s">
         <v>60</v>
       </c>
+      <c r="T4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -28349,11 +29018,14 @@
       </c>
       <c r="S5" t="s">
         <v>55</v>
+      </c>
+      <c r="T5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B6" t="s">
         <v>56</v>
@@ -28409,10 +29081,13 @@
       <c r="S6" t="s">
         <v>59</v>
       </c>
+      <c r="T6" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -28468,10 +29143,13 @@
       <c r="S7" t="s">
         <v>59</v>
       </c>
+      <c r="T7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -28527,10 +29205,13 @@
       <c r="S8" t="s">
         <v>57</v>
       </c>
+      <c r="T8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -28585,11 +29266,14 @@
       </c>
       <c r="S9" t="s">
         <v>58</v>
+      </c>
+      <c r="T9" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -28645,10 +29329,13 @@
       <c r="S10" t="s">
         <v>59</v>
       </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B11" t="s">
         <v>56</v>
@@ -28703,11 +29390,14 @@
       </c>
       <c r="S11" t="s">
         <v>57</v>
+      </c>
+      <c r="T11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -28763,10 +29453,13 @@
       <c r="S12" t="s">
         <v>59</v>
       </c>
+      <c r="T12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -28822,10 +29515,13 @@
       <c r="S13" t="s">
         <v>59</v>
       </c>
+      <c r="T13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -28879,12 +29575,15 @@
         <v>55</v>
       </c>
       <c r="S14" t="s">
+        <v>56</v>
+      </c>
+      <c r="T14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -28938,12 +29637,15 @@
         <v>55</v>
       </c>
       <c r="S15" t="s">
+        <v>56</v>
+      </c>
+      <c r="T15" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -28999,10 +29701,13 @@
       <c r="S16" t="s">
         <v>55</v>
       </c>
+      <c r="T16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -29057,11 +29762,14 @@
       </c>
       <c r="S17" t="s">
         <v>58</v>
+      </c>
+      <c r="T17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
         <v>59</v>
@@ -29116,11 +29824,14 @@
       </c>
       <c r="S18" t="s">
         <v>56</v>
+      </c>
+      <c r="T18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
@@ -29176,10 +29887,13 @@
       <c r="S19" t="s">
         <v>60</v>
       </c>
+      <c r="T19" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
@@ -29235,10 +29949,13 @@
       <c r="S20" t="s">
         <v>56</v>
       </c>
+      <c r="T20" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -29293,11 +30010,14 @@
       </c>
       <c r="S21" t="s">
         <v>59</v>
+      </c>
+      <c r="T21" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -29352,11 +30072,14 @@
       </c>
       <c r="S22" t="s">
         <v>57</v>
+      </c>
+      <c r="T22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -29412,10 +30135,13 @@
       <c r="S23" t="s">
         <v>56</v>
       </c>
+      <c r="T23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
@@ -29470,11 +30196,14 @@
       </c>
       <c r="S24" t="s">
         <v>57</v>
+      </c>
+      <c r="T24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -29528,6 +30257,9 @@
         <v>55</v>
       </c>
       <c r="S25" t="s">
+        <v>57</v>
+      </c>
+      <c r="T25" t="s">
         <v>57</v>
       </c>
     </row>
@@ -29553,13 +30285,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -29568,7 +30300,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -29577,13 +30309,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -29595,18 +30327,21 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="S1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
+      <c r="U1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" t="s">
         <v>56</v>
@@ -29664,11 +30399,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -29726,11 +30464,14 @@
       </c>
       <c r="T3" t="s">
         <v>59</v>
+      </c>
+      <c r="U3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -29789,10 +30530,13 @@
       <c r="T4" t="s">
         <v>59</v>
       </c>
+      <c r="U4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -29851,10 +30595,13 @@
       <c r="T5" t="s">
         <v>56</v>
       </c>
+      <c r="U5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -29912,11 +30659,14 @@
       </c>
       <c r="T6" t="s">
         <v>57</v>
+      </c>
+      <c r="U6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -29975,10 +30725,13 @@
       <c r="T7" t="s">
         <v>56</v>
       </c>
+      <c r="U7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -30036,11 +30789,14 @@
       </c>
       <c r="T8" t="s">
         <v>59</v>
+      </c>
+      <c r="U8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s">
         <v>56</v>
@@ -30098,11 +30854,14 @@
       </c>
       <c r="T9" t="s">
         <v>57</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -30160,11 +30919,14 @@
       </c>
       <c r="T10" t="s">
         <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -30222,11 +30984,14 @@
       </c>
       <c r="T11" t="s">
         <v>59</v>
+      </c>
+      <c r="U11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -30284,11 +31049,14 @@
       </c>
       <c r="T12" t="s">
         <v>57</v>
+      </c>
+      <c r="U12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -30346,11 +31114,14 @@
       </c>
       <c r="T13" t="s">
         <v>59</v>
+      </c>
+      <c r="U13" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B14" t="s">
         <v>57</v>
@@ -30407,12 +31178,15 @@
         <v>57</v>
       </c>
       <c r="T14" t="s">
+        <v>59</v>
+      </c>
+      <c r="U14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -30469,12 +31243,15 @@
         <v>59</v>
       </c>
       <c r="T15" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -30533,10 +31310,13 @@
       <c r="T16" t="s">
         <v>57</v>
       </c>
+      <c r="U16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s">
         <v>56</v>
@@ -30595,10 +31375,13 @@
       <c r="T17" t="s">
         <v>56</v>
       </c>
+      <c r="U17" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -30656,11 +31439,14 @@
       </c>
       <c r="T18" t="s">
         <v>59</v>
+      </c>
+      <c r="U18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s">
         <v>56</v>
@@ -30717,12 +31503,15 @@
         <v>59</v>
       </c>
       <c r="T19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -30781,10 +31570,13 @@
       <c r="T20" t="s">
         <v>59</v>
       </c>
+      <c r="U20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
         <v>57</v>
@@ -30843,10 +31635,13 @@
       <c r="T21" t="s">
         <v>58</v>
       </c>
+      <c r="U21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -30904,11 +31699,14 @@
       </c>
       <c r="T22" t="s">
         <v>57</v>
+      </c>
+      <c r="U22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s">
         <v>56</v>
@@ -30966,11 +31764,14 @@
       </c>
       <c r="T23" t="s">
         <v>59</v>
+      </c>
+      <c r="U23" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B24" t="s">
         <v>57</v>
@@ -31028,11 +31829,14 @@
       </c>
       <c r="T24" t="s">
         <v>57</v>
+      </c>
+      <c r="U24" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B25" t="s">
         <v>56</v>
@@ -31090,6 +31894,9 @@
       </c>
       <c r="T25" t="s">
         <v>57</v>
+      </c>
+      <c r="U25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -31114,48 +31921,48 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -31205,7 +32012,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>56</v>
@@ -31255,7 +32062,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -31305,7 +32112,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>57</v>
@@ -31355,7 +32162,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -31405,7 +32212,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -31455,7 +32262,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -31505,7 +32312,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -31555,7 +32362,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -31605,7 +32412,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -31655,7 +32462,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -31705,7 +32512,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -31755,7 +32562,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -31805,7 +32612,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -31855,7 +32662,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -31905,7 +32712,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -31955,7 +32762,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -32005,7 +32812,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -32055,7 +32862,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
@@ -32105,7 +32912,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
@@ -32155,7 +32962,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>56</v>
@@ -32205,7 +33012,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -32255,7 +33062,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
@@ -32402,7 +33209,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>55</v>
@@ -32488,7 +33295,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
@@ -32574,7 +33381,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -32660,7 +33467,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -32746,7 +33553,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>55</v>
@@ -32832,7 +33639,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -32918,7 +33725,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -33004,7 +33811,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -33090,7 +33897,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
@@ -33176,7 +33983,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>55</v>
@@ -33262,7 +34069,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -33348,7 +34155,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -33434,7 +34241,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>56</v>
@@ -33520,7 +34327,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>55</v>
@@ -33606,7 +34413,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>55</v>
@@ -33692,7 +34499,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -33778,7 +34585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
@@ -33864,7 +34671,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>55</v>
@@ -33950,7 +34757,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>55</v>
@@ -34036,7 +34843,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11738" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="491">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -521,6 +521,9 @@
     <t>X2021.10.09</t>
   </si>
   <si>
+    <t>X2021.10.26</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -752,6 +755,9 @@
     <t>Yeovil</t>
   </si>
   <si>
+    <t>X2021.10.27</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
@@ -825,6 +831,9 @@
   </si>
   <si>
     <t>X2021.08.25</t>
+  </si>
+  <si>
+    <t>X2021.10.25</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -3939,25 +3948,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
         <v>127</v>
@@ -3969,7 +3978,7 @@
         <v>103</v>
       </c>
       <c r="M1" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4010,10 +4019,13 @@
       <c r="Z1" t="s">
         <v>38</v>
       </c>
+      <c r="AA1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -4089,11 +4101,14 @@
       </c>
       <c r="Z2" t="s">
         <v>60</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -4169,11 +4184,14 @@
       </c>
       <c r="Z3" t="s">
         <v>60</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -4250,10 +4268,13 @@
       <c r="Z4" t="s">
         <v>58</v>
       </c>
+      <c r="AA4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -4329,11 +4350,14 @@
       </c>
       <c r="Z5" t="s">
         <v>58</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -4409,11 +4433,14 @@
       </c>
       <c r="Z6" t="s">
         <v>59</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -4490,10 +4517,13 @@
       <c r="Z7" t="s">
         <v>59</v>
       </c>
+      <c r="AA7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -4569,11 +4599,14 @@
       </c>
       <c r="Z8" t="s">
         <v>59</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -4650,10 +4683,13 @@
       <c r="Z9" t="s">
         <v>62</v>
       </c>
+      <c r="AA9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -4729,11 +4765,14 @@
       </c>
       <c r="Z10" t="s">
         <v>59</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -4809,11 +4848,14 @@
       </c>
       <c r="Z11" t="s">
         <v>60</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -4890,10 +4932,13 @@
       <c r="Z12" t="s">
         <v>62</v>
       </c>
+      <c r="AA12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -4969,11 +5014,14 @@
       </c>
       <c r="Z13" t="s">
         <v>61</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -5050,10 +5098,13 @@
       <c r="Z14" t="s">
         <v>62</v>
       </c>
+      <c r="AA14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -5130,10 +5181,13 @@
       <c r="Z15" t="s">
         <v>62</v>
       </c>
+      <c r="AA15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -5209,11 +5263,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -5289,11 +5346,14 @@
       </c>
       <c r="Z17" t="s">
         <v>59</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B18" t="s">
         <v>63</v>
@@ -5370,10 +5430,13 @@
       <c r="Z18" t="s">
         <v>60</v>
       </c>
+      <c r="AA18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -5449,11 +5512,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -5529,11 +5595,14 @@
       </c>
       <c r="Z20" t="s">
         <v>62</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -5609,6 +5678,9 @@
       </c>
       <c r="Z21" t="s">
         <v>61</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -5680,7 +5752,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -5736,7 +5808,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
@@ -5792,7 +5864,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -5848,7 +5920,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -5904,7 +5976,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -5960,7 +6032,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -6016,7 +6088,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -6072,7 +6144,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -6128,7 +6200,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -6184,7 +6256,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -6240,7 +6312,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -6296,7 +6368,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>60</v>
@@ -6352,7 +6424,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -6408,7 +6480,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -6514,7 +6586,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O1" t="s">
         <v>160</v>
@@ -6561,10 +6633,16 @@
       <c r="AC1" t="s">
         <v>39</v>
       </c>
+      <c r="AD1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6648,12 +6726,18 @@
         <v>58</v>
       </c>
       <c r="AC2" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6739,10 +6823,16 @@
       <c r="AC3" t="s">
         <v>58</v>
       </c>
+      <c r="AD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6828,10 +6918,16 @@
       <c r="AC4" t="s">
         <v>61</v>
       </c>
+      <c r="AD4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -6917,10 +7013,16 @@
       <c r="AC5" t="s">
         <v>58</v>
       </c>
+      <c r="AD5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7005,11 +7107,17 @@
       </c>
       <c r="AC6" t="s">
         <v>60</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -7095,10 +7203,16 @@
       <c r="AC7" t="s">
         <v>58</v>
       </c>
+      <c r="AD7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7183,11 +7297,17 @@
       </c>
       <c r="AC8" t="s">
         <v>59</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7272,11 +7392,17 @@
       </c>
       <c r="AC9" t="s">
         <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -7362,10 +7488,16 @@
       <c r="AC10" t="s">
         <v>63</v>
       </c>
+      <c r="AD10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7449,12 +7581,18 @@
         <v>62</v>
       </c>
       <c r="AC11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7539,11 +7677,17 @@
       </c>
       <c r="AC12" t="s">
         <v>60</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7628,11 +7772,17 @@
       </c>
       <c r="AC13" t="s">
         <v>60</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7718,10 +7868,16 @@
       <c r="AC14" t="s">
         <v>58</v>
       </c>
+      <c r="AD14" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7807,10 +7963,16 @@
       <c r="AC15" t="s">
         <v>58</v>
       </c>
+      <c r="AD15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -7895,11 +8057,17 @@
       </c>
       <c r="AC16" t="s">
         <v>58</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -7985,10 +8153,16 @@
       <c r="AC17" t="s">
         <v>58</v>
       </c>
+      <c r="AD17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -8072,12 +8246,18 @@
         <v>58</v>
       </c>
       <c r="AC18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8163,10 +8343,16 @@
       <c r="AC19" t="s">
         <v>59</v>
       </c>
+      <c r="AD19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8250,12 +8436,18 @@
         <v>61</v>
       </c>
       <c r="AC20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -8339,6 +8531,12 @@
         <v>58</v>
       </c>
       <c r="AC21" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE21" t="s">
         <v>59</v>
       </c>
     </row>
@@ -8394,7 +8592,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="O1" t="s">
         <v>160</v>
@@ -8432,10 +8630,13 @@
       <c r="Z1" t="s">
         <v>39</v>
       </c>
+      <c r="AA1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8512,10 +8713,13 @@
       <c r="Z2" t="s">
         <v>58</v>
       </c>
+      <c r="AA2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8590,12 +8794,15 @@
         <v>62</v>
       </c>
       <c r="Z3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8670,12 +8877,15 @@
         <v>60</v>
       </c>
       <c r="Z4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8752,10 +8962,13 @@
       <c r="Z5" t="s">
         <v>58</v>
       </c>
+      <c r="AA5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -8832,10 +9045,13 @@
       <c r="Z6" t="s">
         <v>58</v>
       </c>
+      <c r="AA6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -8911,11 +9127,14 @@
       </c>
       <c r="Z7" t="s">
         <v>59</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -8992,10 +9211,13 @@
       <c r="Z8" t="s">
         <v>58</v>
       </c>
+      <c r="AA8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9070,12 +9292,15 @@
         <v>59</v>
       </c>
       <c r="Z9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9152,10 +9377,13 @@
       <c r="Z10" t="s">
         <v>58</v>
       </c>
+      <c r="AA10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -9230,12 +9458,15 @@
         <v>59</v>
       </c>
       <c r="Z11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9310,12 +9541,15 @@
         <v>60</v>
       </c>
       <c r="Z12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9391,11 +9625,14 @@
       </c>
       <c r="Z13" t="s">
         <v>58</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -9471,11 +9708,14 @@
       </c>
       <c r="Z14" t="s">
         <v>62</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9550,12 +9790,15 @@
         <v>60</v>
       </c>
       <c r="Z15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9631,11 +9874,14 @@
       </c>
       <c r="Z16" t="s">
         <v>59</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9712,10 +9958,13 @@
       <c r="Z17" t="s">
         <v>59</v>
       </c>
+      <c r="AA17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -9791,11 +10040,14 @@
       </c>
       <c r="Z18" t="s">
         <v>59</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -9871,11 +10123,14 @@
       </c>
       <c r="Z19" t="s">
         <v>59</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -9952,10 +10207,13 @@
       <c r="Z20" t="s">
         <v>58</v>
       </c>
+      <c r="AA20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10031,6 +10289,9 @@
       </c>
       <c r="Z21" t="s">
         <v>58</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -10132,7 +10393,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10218,7 +10479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10304,7 +10565,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10343,7 +10604,7 @@
         <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="O4" t="s">
         <v>58</v>
@@ -10390,7 +10651,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10476,7 +10737,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10562,7 +10823,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -10648,7 +10909,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10734,7 +10995,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -10820,7 +11081,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -10906,7 +11167,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -10992,7 +11253,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11078,7 +11339,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11164,7 +11425,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11250,7 +11511,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11336,7 +11597,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11422,7 +11683,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11508,7 +11769,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11594,7 +11855,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11703,7 +11964,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -11715,7 +11976,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -11757,7 +12018,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -11789,10 +12050,13 @@
       <c r="AG1" t="s">
         <v>39</v>
       </c>
+      <c r="AH1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -11889,11 +12153,14 @@
       </c>
       <c r="AG2" t="s">
         <v>60</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -11990,11 +12257,14 @@
       </c>
       <c r="AG3" t="s">
         <v>58</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12091,11 +12361,14 @@
       </c>
       <c r="AG4" t="s">
         <v>60</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12192,11 +12465,14 @@
       </c>
       <c r="AG5" t="s">
         <v>58</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12293,11 +12569,14 @@
       </c>
       <c r="AG6" t="s">
         <v>60</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12393,12 +12672,15 @@
         <v>60</v>
       </c>
       <c r="AG7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12495,11 +12777,14 @@
       </c>
       <c r="AG8" t="s">
         <v>58</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12595,12 +12880,15 @@
         <v>58</v>
       </c>
       <c r="AG9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12696,12 +12984,15 @@
         <v>58</v>
       </c>
       <c r="AG10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -12799,10 +13090,13 @@
       <c r="AG11" t="s">
         <v>58</v>
       </c>
+      <c r="AH11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -12899,11 +13193,14 @@
       </c>
       <c r="AG12" t="s">
         <v>60</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13000,11 +13297,14 @@
       </c>
       <c r="AG13" t="s">
         <v>62</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13100,12 +13400,15 @@
         <v>59</v>
       </c>
       <c r="AG14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13203,10 +13506,13 @@
       <c r="AG15" t="s">
         <v>58</v>
       </c>
+      <c r="AH15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13303,11 +13609,14 @@
       </c>
       <c r="AG16" t="s">
         <v>58</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13403,12 +13712,15 @@
         <v>60</v>
       </c>
       <c r="AG17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13504,12 +13816,15 @@
         <v>61</v>
       </c>
       <c r="AG18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -13606,6 +13921,9 @@
       </c>
       <c r="AG19" t="s">
         <v>59</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -13680,10 +13998,13 @@
       <c r="T1" t="s">
         <v>39</v>
       </c>
+      <c r="U1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -13741,11 +14062,14 @@
       </c>
       <c r="T2" t="s">
         <v>58</v>
+      </c>
+      <c r="U2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -13803,11 +14127,14 @@
       </c>
       <c r="T3" t="s">
         <v>58</v>
+      </c>
+      <c r="U3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -13866,10 +14193,13 @@
       <c r="T4" t="s">
         <v>58</v>
       </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -13927,11 +14257,14 @@
       </c>
       <c r="T5" t="s">
         <v>58</v>
+      </c>
+      <c r="U5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -13989,11 +14322,14 @@
       </c>
       <c r="T6" t="s">
         <v>58</v>
+      </c>
+      <c r="U6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14051,11 +14387,14 @@
       </c>
       <c r="T7" t="s">
         <v>58</v>
+      </c>
+      <c r="U7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -14113,11 +14452,14 @@
       </c>
       <c r="T8" t="s">
         <v>58</v>
+      </c>
+      <c r="U8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14175,11 +14517,14 @@
       </c>
       <c r="T9" t="s">
         <v>58</v>
+      </c>
+      <c r="U9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14237,11 +14582,14 @@
       </c>
       <c r="T10" t="s">
         <v>59</v>
+      </c>
+      <c r="U10" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -14300,10 +14648,13 @@
       <c r="T11" t="s">
         <v>58</v>
       </c>
+      <c r="U11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -14361,11 +14712,14 @@
       </c>
       <c r="T12" t="s">
         <v>58</v>
+      </c>
+      <c r="U12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -14422,6 +14776,9 @@
         <v>58</v>
       </c>
       <c r="T13" t="s">
+        <v>62</v>
+      </c>
+      <c r="U13" t="s">
         <v>62</v>
       </c>
     </row>
@@ -14444,7 +14801,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -14456,7 +14813,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14488,10 +14845,13 @@
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14540,11 +14900,14 @@
       </c>
       <c r="Q2" t="s">
         <v>59</v>
+      </c>
+      <c r="R2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14594,10 +14957,13 @@
       <c r="Q3" t="s">
         <v>59</v>
       </c>
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -14646,11 +15012,14 @@
       </c>
       <c r="Q4" t="s">
         <v>60</v>
+      </c>
+      <c r="R4" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -14700,10 +15069,13 @@
       <c r="Q5" t="s">
         <v>62</v>
       </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -14751,12 +15123,15 @@
         <v>60</v>
       </c>
       <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14805,11 +15180,14 @@
       </c>
       <c r="Q7" t="s">
         <v>59</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -14857,12 +15235,15 @@
         <v>62</v>
       </c>
       <c r="Q8" t="s">
+        <v>60</v>
+      </c>
+      <c r="R8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -14910,12 +15291,15 @@
         <v>58</v>
       </c>
       <c r="Q9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -14964,11 +15348,14 @@
       </c>
       <c r="Q10" t="s">
         <v>60</v>
+      </c>
+      <c r="R10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -15016,6 +15403,9 @@
         <v>59</v>
       </c>
       <c r="Q11" t="s">
+        <v>59</v>
+      </c>
+      <c r="R11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -15079,7 +15469,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -15126,7 +15516,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -15173,7 +15563,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15220,7 +15610,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15267,7 +15657,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15314,7 +15704,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15361,7 +15751,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15408,7 +15798,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15455,7 +15845,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15502,7 +15892,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -15584,7 +15974,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -15613,7 +16003,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -15666,7 +16056,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -15719,7 +16109,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -15772,7 +16162,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -15825,7 +16215,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -15878,7 +16268,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -15931,7 +16321,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -15984,7 +16374,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -16037,7 +16427,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16090,7 +16480,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -17754,7 +18144,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -17796,7 +18186,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="T1" t="s">
         <v>160</v>
@@ -17843,10 +18233,19 @@
       <c r="AH1" t="s">
         <v>39</v>
       </c>
+      <c r="AI1" t="s">
+        <v>266</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>162</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -17947,10 +18346,19 @@
       <c r="AH2" t="s">
         <v>58</v>
       </c>
+      <c r="AI2" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18049,12 +18457,21 @@
         <v>59</v>
       </c>
       <c r="AH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18154,11 +18571,20 @@
       </c>
       <c r="AH4" t="s">
         <v>62</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18258,11 +18684,20 @@
       </c>
       <c r="AH5" t="s">
         <v>62</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18362,11 +18797,20 @@
       </c>
       <c r="AH6" t="s">
         <v>62</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18465,12 +18909,21 @@
         <v>62</v>
       </c>
       <c r="AH7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -18571,10 +19024,19 @@
       <c r="AH8" t="s">
         <v>58</v>
       </c>
+      <c r="AI8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -18675,10 +19137,19 @@
       <c r="AH9" t="s">
         <v>58</v>
       </c>
+      <c r="AI9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -18777,12 +19248,21 @@
         <v>62</v>
       </c>
       <c r="AH10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18881,12 +19361,21 @@
         <v>58</v>
       </c>
       <c r="AH11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -18987,10 +19476,19 @@
       <c r="AH12" t="s">
         <v>58</v>
       </c>
+      <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19091,10 +19589,19 @@
       <c r="AH13" t="s">
         <v>64</v>
       </c>
+      <c r="AI13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19195,10 +19702,19 @@
       <c r="AH14" t="s">
         <v>58</v>
       </c>
+      <c r="AI14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19299,10 +19815,19 @@
       <c r="AH15" t="s">
         <v>58</v>
       </c>
+      <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19402,11 +19927,20 @@
       </c>
       <c r="AH16" t="s">
         <v>59</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -19506,11 +20040,20 @@
       </c>
       <c r="AH17" t="s">
         <v>61</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -19611,10 +20154,19 @@
       <c r="AH18" t="s">
         <v>62</v>
       </c>
+      <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -19714,11 +20266,20 @@
       </c>
       <c r="AH19" t="s">
         <v>58</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -19818,11 +20379,20 @@
       </c>
       <c r="AH20" t="s">
         <v>61</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -19921,6 +20491,15 @@
         <v>62</v>
       </c>
       <c r="AH21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -19949,7 +20528,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -19973,16 +20552,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="O1" t="s">
         <v>158</v>
       </c>
       <c r="P1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="Q1" t="s">
         <v>159</v>
@@ -20009,7 +20588,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -20033,19 +20612,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="AH1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AI1" t="s">
         <v>161</v>
       </c>
       <c r="AJ1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="AK1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20063,7 +20642,7 @@
         <v>133</v>
       </c>
       <c r="AQ1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20074,10 +20653,13 @@
       <c r="AT1" t="s">
         <v>39</v>
       </c>
+      <c r="AU1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20214,10 +20796,13 @@
       <c r="AT2" t="s">
         <v>61</v>
       </c>
+      <c r="AU2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20353,11 +20938,14 @@
       </c>
       <c r="AT3" t="s">
         <v>59</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -20493,11 +21081,14 @@
       </c>
       <c r="AT4" t="s">
         <v>62</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -20633,11 +21224,14 @@
       </c>
       <c r="AT5" t="s">
         <v>59</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -20774,10 +21368,13 @@
       <c r="AT6" t="s">
         <v>58</v>
       </c>
+      <c r="AU6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -20912,12 +21509,15 @@
         <v>58</v>
       </c>
       <c r="AT7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21052,12 +21652,15 @@
         <v>61</v>
       </c>
       <c r="AT8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21193,11 +21796,14 @@
       </c>
       <c r="AT9" t="s">
         <v>58</v>
+      </c>
+      <c r="AU9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21333,11 +21939,14 @@
       </c>
       <c r="AT10" t="s">
         <v>61</v>
+      </c>
+      <c r="AU10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -21474,10 +22083,13 @@
       <c r="AT11" t="s">
         <v>58</v>
       </c>
+      <c r="AU11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -21614,10 +22226,13 @@
       <c r="AT12" t="s">
         <v>60</v>
       </c>
+      <c r="AU12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -21752,12 +22367,15 @@
         <v>62</v>
       </c>
       <c r="AT13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -21892,12 +22510,15 @@
         <v>59</v>
       </c>
       <c r="AT14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22034,10 +22655,13 @@
       <c r="AT15" t="s">
         <v>58</v>
       </c>
+      <c r="AU15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22174,10 +22798,13 @@
       <c r="AT16" t="s">
         <v>63</v>
       </c>
+      <c r="AU16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22313,11 +22940,14 @@
       </c>
       <c r="AT17" t="s">
         <v>59</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -22453,11 +23083,14 @@
       </c>
       <c r="AT18" t="s">
         <v>62</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -22593,11 +23226,14 @@
       </c>
       <c r="AT19" t="s">
         <v>59</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -22732,12 +23368,15 @@
         <v>62</v>
       </c>
       <c r="AT20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -22872,12 +23511,15 @@
         <v>59</v>
       </c>
       <c r="AT21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU21" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23012,12 +23654,15 @@
         <v>59</v>
       </c>
       <c r="AT22" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -23153,6 +23798,9 @@
       </c>
       <c r="AT23" t="s">
         <v>58</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -23180,7 +23828,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23272,10 +23920,13 @@
       <c r="AI1" t="s">
         <v>39</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -23379,10 +24030,13 @@
       <c r="AI2" t="s">
         <v>59</v>
       </c>
+      <c r="AJ2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -23486,10 +24140,13 @@
       <c r="AI3" t="s">
         <v>59</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -23593,10 +24250,13 @@
       <c r="AI4" t="s">
         <v>58</v>
       </c>
+      <c r="AJ4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -23699,11 +24359,14 @@
       </c>
       <c r="AI5" t="s">
         <v>62</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -23806,11 +24469,14 @@
       </c>
       <c r="AI6" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -23913,11 +24579,14 @@
       </c>
       <c r="AI7" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24020,11 +24689,14 @@
       </c>
       <c r="AI8" t="s">
         <v>62</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24127,11 +24799,14 @@
       </c>
       <c r="AI9" t="s">
         <v>58</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24235,10 +24910,13 @@
       <c r="AI10" t="s">
         <v>58</v>
       </c>
+      <c r="AJ10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -24340,12 +25018,15 @@
         <v>59</v>
       </c>
       <c r="AI11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -24447,12 +25128,15 @@
         <v>59</v>
       </c>
       <c r="AI12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -24555,11 +25239,14 @@
       </c>
       <c r="AI13" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -24663,10 +25350,13 @@
       <c r="AI14" t="s">
         <v>59</v>
       </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -24768,12 +25458,15 @@
         <v>62</v>
       </c>
       <c r="AI15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -24877,10 +25570,13 @@
       <c r="AI16" t="s">
         <v>58</v>
       </c>
+      <c r="AJ16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -24982,12 +25678,15 @@
         <v>60</v>
       </c>
       <c r="AI17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -25089,12 +25788,15 @@
         <v>59</v>
       </c>
       <c r="AI18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25197,11 +25899,14 @@
       </c>
       <c r="AI19" t="s">
         <v>59</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -25303,12 +26008,15 @@
         <v>60</v>
       </c>
       <c r="AI20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -25410,6 +26118,9 @@
         <v>58</v>
       </c>
       <c r="AI21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -31345,10 +32056,13 @@
       <c r="U1" t="s">
         <v>38</v>
       </c>
+      <c r="V1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -31410,10 +32124,13 @@
       <c r="U2" t="s">
         <v>62</v>
       </c>
+      <c r="V2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -31474,11 +32191,14 @@
       </c>
       <c r="U3" t="s">
         <v>62</v>
+      </c>
+      <c r="V3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -31540,10 +32260,13 @@
       <c r="U4" t="s">
         <v>62</v>
       </c>
+      <c r="V4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -31604,11 +32327,14 @@
       </c>
       <c r="U5" t="s">
         <v>61</v>
+      </c>
+      <c r="V5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -31670,10 +32396,13 @@
       <c r="U6" t="s">
         <v>63</v>
       </c>
+      <c r="V6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -31735,10 +32464,13 @@
       <c r="U7" t="s">
         <v>60</v>
       </c>
+      <c r="V7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -31800,10 +32532,13 @@
       <c r="U8" t="s">
         <v>61</v>
       </c>
+      <c r="V8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -31865,10 +32600,13 @@
       <c r="U9" t="s">
         <v>62</v>
       </c>
+      <c r="V9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -31930,10 +32668,13 @@
       <c r="U10" t="s">
         <v>62</v>
       </c>
+      <c r="V10" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -31994,11 +32735,14 @@
       </c>
       <c r="U11" t="s">
         <v>62</v>
+      </c>
+      <c r="V11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -32060,10 +32804,13 @@
       <c r="U12" t="s">
         <v>62</v>
       </c>
+      <c r="V12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -32125,10 +32872,13 @@
       <c r="U13" t="s">
         <v>59</v>
       </c>
+      <c r="V13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -32188,12 +32938,15 @@
         <v>59</v>
       </c>
       <c r="U14" t="s">
+        <v>59</v>
+      </c>
+      <c r="V14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B15" t="s">
         <v>61</v>
@@ -32254,11 +33007,14 @@
       </c>
       <c r="U15" t="s">
         <v>61</v>
+      </c>
+      <c r="V15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -32320,10 +33076,13 @@
       <c r="U16" t="s">
         <v>59</v>
       </c>
+      <c r="V16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -32384,11 +33143,14 @@
       </c>
       <c r="U17" t="s">
         <v>59</v>
+      </c>
+      <c r="V17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -32449,11 +33211,14 @@
       </c>
       <c r="U18" t="s">
         <v>59</v>
+      </c>
+      <c r="V18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -32515,10 +33280,13 @@
       <c r="U19" t="s">
         <v>62</v>
       </c>
+      <c r="V19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
         <v>60</v>
@@ -32580,10 +33348,13 @@
       <c r="U20" t="s">
         <v>60</v>
       </c>
+      <c r="V20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -32644,11 +33415,14 @@
       </c>
       <c r="U21" t="s">
         <v>59</v>
+      </c>
+      <c r="V21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -32709,11 +33483,14 @@
       </c>
       <c r="U22" t="s">
         <v>59</v>
+      </c>
+      <c r="V22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -32775,10 +33552,13 @@
       <c r="U23" t="s">
         <v>59</v>
       </c>
+      <c r="V23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
         <v>62</v>
@@ -32839,11 +33619,14 @@
       </c>
       <c r="U24" t="s">
         <v>60</v>
+      </c>
+      <c r="V24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -32904,6 +33687,9 @@
       </c>
       <c r="U25" t="s">
         <v>59</v>
+      </c>
+      <c r="V25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -32934,7 +33720,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -32970,7 +33756,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="S1" t="s">
         <v>161</v>
@@ -32984,10 +33770,13 @@
       <c r="V1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -33051,11 +33840,14 @@
       </c>
       <c r="V2" t="s">
         <v>62</v>
+      </c>
+      <c r="W2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
         <v>60</v>
@@ -33119,11 +33911,14 @@
       </c>
       <c r="V3" t="s">
         <v>59</v>
+      </c>
+      <c r="W3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -33188,10 +33983,13 @@
       <c r="V4" t="s">
         <v>61</v>
       </c>
+      <c r="W4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -33256,10 +34054,13 @@
       <c r="V5" t="s">
         <v>60</v>
       </c>
+      <c r="W5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -33322,12 +34123,15 @@
         <v>59</v>
       </c>
       <c r="V6" t="s">
+        <v>61</v>
+      </c>
+      <c r="W6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -33392,10 +34196,13 @@
       <c r="V7" t="s">
         <v>62</v>
       </c>
+      <c r="W7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -33459,11 +34266,14 @@
       </c>
       <c r="V8" t="s">
         <v>59</v>
+      </c>
+      <c r="W8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -33527,11 +34337,14 @@
       </c>
       <c r="V9" t="s">
         <v>59</v>
+      </c>
+      <c r="W9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B10" t="s">
         <v>62</v>
@@ -33595,11 +34408,14 @@
       </c>
       <c r="V10" t="s">
         <v>61</v>
+      </c>
+      <c r="W10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -33663,11 +34479,14 @@
       </c>
       <c r="V11" t="s">
         <v>62</v>
+      </c>
+      <c r="W11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -33731,11 +34550,14 @@
       </c>
       <c r="V12" t="s">
         <v>60</v>
+      </c>
+      <c r="W12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -33799,11 +34621,14 @@
       </c>
       <c r="V13" t="s">
         <v>62</v>
+      </c>
+      <c r="W13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B14" t="s">
         <v>60</v>
@@ -33867,11 +34692,14 @@
       </c>
       <c r="V14" t="s">
         <v>59</v>
+      </c>
+      <c r="W14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -33935,11 +34763,14 @@
       </c>
       <c r="V15" t="s">
         <v>60</v>
+      </c>
+      <c r="W15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
@@ -34004,10 +34835,13 @@
       <c r="V16" t="s">
         <v>60</v>
       </c>
+      <c r="W16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
@@ -34072,10 +34906,13 @@
       <c r="V17" t="s">
         <v>60</v>
       </c>
+      <c r="W17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -34139,11 +34976,14 @@
       </c>
       <c r="V18" t="s">
         <v>62</v>
+      </c>
+      <c r="W18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
@@ -34207,11 +35047,14 @@
       </c>
       <c r="V19" t="s">
         <v>61</v>
+      </c>
+      <c r="W19" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B20" t="s">
         <v>61</v>
@@ -34276,10 +35119,13 @@
       <c r="V20" t="s">
         <v>59</v>
       </c>
+      <c r="W20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s">
         <v>60</v>
@@ -34344,10 +35190,13 @@
       <c r="V21" t="s">
         <v>60</v>
       </c>
+      <c r="W21" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s">
         <v>62</v>
@@ -34411,11 +35260,14 @@
       </c>
       <c r="V22" t="s">
         <v>61</v>
+      </c>
+      <c r="W22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
@@ -34479,11 +35331,14 @@
       </c>
       <c r="V23" t="s">
         <v>61</v>
+      </c>
+      <c r="W23" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s">
         <v>60</v>
@@ -34547,11 +35402,14 @@
       </c>
       <c r="V24" t="s">
         <v>62</v>
+      </c>
+      <c r="W24" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
@@ -34615,6 +35473,9 @@
       </c>
       <c r="V25" t="s">
         <v>62</v>
+      </c>
+      <c r="W25" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -34639,10 +35500,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
         <v>158</v>
@@ -34669,21 +35530,24 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" t="s">
         <v>161</v>
       </c>
       <c r="P1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
+      <c r="R1" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>62</v>
@@ -34732,11 +35596,14 @@
       </c>
       <c r="Q2" t="s">
         <v>61</v>
+      </c>
+      <c r="R2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -34784,12 +35651,15 @@
         <v>59</v>
       </c>
       <c r="Q3" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -34839,10 +35709,13 @@
       <c r="Q4" t="s">
         <v>61</v>
       </c>
+      <c r="R4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>60</v>
@@ -34891,11 +35764,14 @@
       </c>
       <c r="Q5" t="s">
         <v>62</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -34945,10 +35821,13 @@
       <c r="Q6" t="s">
         <v>62</v>
       </c>
+      <c r="R6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -34997,11 +35876,14 @@
       </c>
       <c r="Q7" t="s">
         <v>59</v>
+      </c>
+      <c r="R7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -35050,11 +35932,14 @@
       </c>
       <c r="Q8" t="s">
         <v>60</v>
+      </c>
+      <c r="R8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -35104,10 +35989,13 @@
       <c r="Q9" t="s">
         <v>58</v>
       </c>
+      <c r="R9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -35155,12 +36043,15 @@
         <v>58</v>
       </c>
       <c r="Q10" t="s">
+        <v>59</v>
+      </c>
+      <c r="R10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -35209,11 +36100,14 @@
       </c>
       <c r="Q11" t="s">
         <v>60</v>
+      </c>
+      <c r="R11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B12" t="s">
         <v>62</v>
@@ -35262,11 +36156,14 @@
       </c>
       <c r="Q12" t="s">
         <v>59</v>
+      </c>
+      <c r="R12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
@@ -35316,10 +36213,13 @@
       <c r="Q13" t="s">
         <v>62</v>
       </c>
+      <c r="R13" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -35369,10 +36269,13 @@
       <c r="Q14" t="s">
         <v>62</v>
       </c>
+      <c r="R14" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s">
         <v>60</v>
@@ -35422,10 +36325,13 @@
       <c r="Q15" t="s">
         <v>59</v>
       </c>
+      <c r="R15" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -35475,10 +36381,13 @@
       <c r="Q16" t="s">
         <v>60</v>
       </c>
+      <c r="R16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -35528,10 +36437,13 @@
       <c r="Q17" t="s">
         <v>61</v>
       </c>
+      <c r="R17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -35579,12 +36491,15 @@
         <v>58</v>
       </c>
       <c r="Q18" t="s">
+        <v>62</v>
+      </c>
+      <c r="R18" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -35634,10 +36549,13 @@
       <c r="Q19" t="s">
         <v>60</v>
       </c>
+      <c r="R19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
@@ -35687,10 +36605,13 @@
       <c r="Q20" t="s">
         <v>59</v>
       </c>
+      <c r="R20" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B21" t="s">
         <v>62</v>
@@ -35740,10 +36661,13 @@
       <c r="Q21" t="s">
         <v>59</v>
       </c>
+      <c r="R21" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
@@ -35792,11 +36716,14 @@
       </c>
       <c r="Q22" t="s">
         <v>61</v>
+      </c>
+      <c r="R22" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
         <v>62</v>
@@ -35845,11 +36772,14 @@
       </c>
       <c r="Q23" t="s">
         <v>60</v>
+      </c>
+      <c r="R23" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s">
         <v>58</v>
@@ -35898,6 +36828,9 @@
       </c>
       <c r="Q24" t="s">
         <v>62</v>
+      </c>
+      <c r="R24" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -36005,10 +36938,13 @@
       <c r="AE1" t="s">
         <v>39</v>
       </c>
+      <c r="AF1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -36100,10 +37036,13 @@
       <c r="AE2" t="s">
         <v>58</v>
       </c>
+      <c r="AF2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -36195,10 +37134,13 @@
       <c r="AE3" t="s">
         <v>59</v>
       </c>
+      <c r="AF3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -36290,10 +37232,13 @@
       <c r="AE4" t="s">
         <v>58</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -36385,10 +37330,13 @@
       <c r="AE5" t="s">
         <v>58</v>
       </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -36479,11 +37427,14 @@
       </c>
       <c r="AE6" t="s">
         <v>59</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -36575,10 +37526,13 @@
       <c r="AE7" t="s">
         <v>58</v>
       </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -36670,10 +37624,13 @@
       <c r="AE8" t="s">
         <v>59</v>
       </c>
+      <c r="AF8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -36764,11 +37721,14 @@
       </c>
       <c r="AE9" t="s">
         <v>61</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -36859,11 +37819,14 @@
       </c>
       <c r="AE10" t="s">
         <v>60</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -36955,10 +37918,13 @@
       <c r="AE11" t="s">
         <v>63</v>
       </c>
+      <c r="AF11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>59</v>
@@ -37049,11 +38015,14 @@
       </c>
       <c r="AE12" t="s">
         <v>59</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -37144,11 +38113,14 @@
       </c>
       <c r="AE13" t="s">
         <v>61</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>59</v>
@@ -37238,12 +38210,15 @@
         <v>59</v>
       </c>
       <c r="AE14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF14" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -37334,11 +38309,14 @@
       </c>
       <c r="AE15" t="s">
         <v>62</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -37429,11 +38407,14 @@
       </c>
       <c r="AE16" t="s">
         <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -37524,11 +38505,14 @@
       </c>
       <c r="AE17" t="s">
         <v>62</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -37619,11 +38603,14 @@
       </c>
       <c r="AE18" t="s">
         <v>60</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -37715,10 +38702,13 @@
       <c r="AE19" t="s">
         <v>58</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -37810,10 +38800,13 @@
       <c r="AE20" t="s">
         <v>59</v>
       </c>
+      <c r="AF20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -37904,6 +38897,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12067" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12130" uniqueCount="492">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -939,6 +939,9 @@
   </si>
   <si>
     <t>X2021.09.20</t>
+  </si>
+  <si>
+    <t>X2021.10.28</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -6639,10 +6642,13 @@
       <c r="AE1" t="s">
         <v>240</v>
       </c>
+      <c r="AF1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -6733,11 +6739,14 @@
       </c>
       <c r="AE2" t="s">
         <v>59</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -6829,10 +6838,13 @@
       <c r="AE3" t="s">
         <v>58</v>
       </c>
+      <c r="AF3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -6924,10 +6936,13 @@
       <c r="AE4" t="s">
         <v>62</v>
       </c>
+      <c r="AF4" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
         <v>61</v>
@@ -7019,10 +7034,13 @@
       <c r="AE5" t="s">
         <v>62</v>
       </c>
+      <c r="AF5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -7113,11 +7131,14 @@
       </c>
       <c r="AE6" t="s">
         <v>59</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B7" t="s">
         <v>63</v>
@@ -7209,10 +7230,13 @@
       <c r="AE7" t="s">
         <v>58</v>
       </c>
+      <c r="AF7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -7303,11 +7327,14 @@
       </c>
       <c r="AE8" t="s">
         <v>60</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -7398,11 +7425,14 @@
       </c>
       <c r="AE9" t="s">
         <v>62</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
@@ -7494,10 +7524,13 @@
       <c r="AE10" t="s">
         <v>60</v>
       </c>
+      <c r="AF10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -7587,12 +7620,15 @@
         <v>60</v>
       </c>
       <c r="AE11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -7683,11 +7719,14 @@
       </c>
       <c r="AE12" t="s">
         <v>58</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -7778,11 +7817,14 @@
       </c>
       <c r="AE13" t="s">
         <v>59</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -7874,10 +7916,13 @@
       <c r="AE14" t="s">
         <v>58</v>
       </c>
+      <c r="AF14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -7969,10 +8014,13 @@
       <c r="AE15" t="s">
         <v>61</v>
       </c>
+      <c r="AF15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B16" t="s">
         <v>62</v>
@@ -8063,11 +8111,14 @@
       </c>
       <c r="AE16" t="s">
         <v>59</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -8159,10 +8210,13 @@
       <c r="AE17" t="s">
         <v>58</v>
       </c>
+      <c r="AF17" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B18" t="s">
         <v>62</v>
@@ -8252,12 +8306,15 @@
         <v>59</v>
       </c>
       <c r="AE18" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF18" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -8349,10 +8406,13 @@
       <c r="AE19" t="s">
         <v>59</v>
       </c>
+      <c r="AF19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -8442,12 +8502,15 @@
         <v>62</v>
       </c>
       <c r="AE20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF20" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B21" t="s">
         <v>61</v>
@@ -8538,6 +8601,9 @@
       </c>
       <c r="AE21" t="s">
         <v>59</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -8633,10 +8699,13 @@
       <c r="AA1" t="s">
         <v>240</v>
       </c>
+      <c r="AB1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -8716,10 +8785,13 @@
       <c r="AA2" t="s">
         <v>58</v>
       </c>
+      <c r="AB2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -8798,11 +8870,14 @@
       </c>
       <c r="AA3" t="s">
         <v>58</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -8881,11 +8956,14 @@
       </c>
       <c r="AA4" t="s">
         <v>58</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -8965,10 +9043,13 @@
       <c r="AA5" t="s">
         <v>58</v>
       </c>
+      <c r="AB5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -9048,10 +9129,13 @@
       <c r="AA6" t="s">
         <v>58</v>
       </c>
+      <c r="AB6" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -9130,11 +9214,14 @@
       </c>
       <c r="AA7" t="s">
         <v>58</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -9214,10 +9301,13 @@
       <c r="AA8" t="s">
         <v>59</v>
       </c>
+      <c r="AB8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -9296,11 +9386,14 @@
       </c>
       <c r="AA9" t="s">
         <v>58</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -9380,10 +9473,13 @@
       <c r="AA10" t="s">
         <v>58</v>
       </c>
+      <c r="AB10" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>62</v>
@@ -9462,11 +9558,14 @@
       </c>
       <c r="AA11" t="s">
         <v>58</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -9545,11 +9644,14 @@
       </c>
       <c r="AA12" t="s">
         <v>58</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -9628,11 +9730,14 @@
       </c>
       <c r="AA13" t="s">
         <v>59</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>62</v>
@@ -9711,11 +9816,14 @@
       </c>
       <c r="AA14" t="s">
         <v>58</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -9794,11 +9902,14 @@
       </c>
       <c r="AA15" t="s">
         <v>58</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -9877,11 +9988,14 @@
       </c>
       <c r="AA16" t="s">
         <v>58</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -9961,10 +10075,13 @@
       <c r="AA17" t="s">
         <v>58</v>
       </c>
+      <c r="AB17" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -10043,11 +10160,14 @@
       </c>
       <c r="AA18" t="s">
         <v>58</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -10126,11 +10246,14 @@
       </c>
       <c r="AA19" t="s">
         <v>58</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -10210,10 +10333,13 @@
       <c r="AA20" t="s">
         <v>61</v>
       </c>
+      <c r="AB20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -10292,6 +10418,9 @@
       </c>
       <c r="AA21" t="s">
         <v>59</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -10393,7 +10522,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -10479,7 +10608,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -10565,7 +10694,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -10604,7 +10733,7 @@
         <v>58</v>
       </c>
       <c r="N4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O4" t="s">
         <v>58</v>
@@ -10651,7 +10780,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -10737,7 +10866,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -10823,7 +10952,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -10909,7 +11038,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -10995,7 +11124,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -11081,7 +11210,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -11167,7 +11296,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -11253,7 +11382,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -11339,7 +11468,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -11425,7 +11554,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -11511,7 +11640,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -11597,7 +11726,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -11683,7 +11812,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -11769,7 +11898,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -11855,7 +11984,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -11964,7 +12093,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -12056,7 +12185,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -12160,7 +12289,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12264,7 +12393,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -12368,7 +12497,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -12472,7 +12601,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -12576,7 +12705,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -12680,7 +12809,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -12784,7 +12913,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -12888,7 +13017,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -12992,7 +13121,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -13096,7 +13225,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -13200,7 +13329,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -13304,7 +13433,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -13408,7 +13537,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -13512,7 +13641,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -13616,7 +13745,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B17" t="s">
         <v>60</v>
@@ -13720,7 +13849,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -13824,7 +13953,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B19" t="s">
         <v>61</v>
@@ -14004,7 +14133,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -14069,7 +14198,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -14134,7 +14263,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -14199,7 +14328,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -14264,7 +14393,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -14329,7 +14458,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -14394,7 +14523,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -14459,7 +14588,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -14524,7 +14653,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -14589,7 +14718,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -14654,7 +14783,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
@@ -14719,7 +14848,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
@@ -14813,7 +14942,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -14851,7 +14980,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>59</v>
@@ -14907,7 +15036,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -14963,7 +15092,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -15019,7 +15148,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>63</v>
@@ -15075,7 +15204,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15131,7 +15260,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -15187,7 +15316,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -15243,7 +15372,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>62</v>
@@ -15299,7 +15428,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>61</v>
@@ -15355,7 +15484,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>63</v>
@@ -15469,7 +15598,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B2" t="s">
         <v>61</v>
@@ -15516,7 +15645,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -15563,7 +15692,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s">
         <v>61</v>
@@ -15610,7 +15739,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
@@ -15657,7 +15786,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -15704,7 +15833,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
@@ -15751,7 +15880,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s">
         <v>59</v>
@@ -15798,7 +15927,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B9" t="s">
         <v>60</v>
@@ -15845,7 +15974,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -15892,7 +16021,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -16003,7 +16132,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
@@ -16056,7 +16185,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
         <v>62</v>
@@ -16109,7 +16238,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
         <v>62</v>
@@ -16162,7 +16291,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
         <v>62</v>
@@ -16215,7 +16344,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
@@ -16268,7 +16397,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
@@ -16321,7 +16450,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
         <v>60</v>
@@ -16374,7 +16503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
         <v>59</v>
@@ -16427,7 +16556,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -16480,7 +16609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -18242,10 +18371,13 @@
       <c r="AK1" t="s">
         <v>240</v>
       </c>
+      <c r="AL1" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -18355,10 +18487,13 @@
       <c r="AK2" t="s">
         <v>58</v>
       </c>
+      <c r="AL2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -18466,12 +18601,15 @@
         <v>59</v>
       </c>
       <c r="AK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -18580,11 +18718,14 @@
       </c>
       <c r="AK4" t="s">
         <v>58</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -18693,11 +18834,14 @@
       </c>
       <c r="AK5" t="s">
         <v>59</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -18806,11 +18950,14 @@
       </c>
       <c r="AK6" t="s">
         <v>59</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -18918,12 +19065,15 @@
         <v>61</v>
       </c>
       <c r="AK7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -19033,10 +19183,13 @@
       <c r="AK8" t="s">
         <v>58</v>
       </c>
+      <c r="AL8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -19146,10 +19299,13 @@
       <c r="AK9" t="s">
         <v>58</v>
       </c>
+      <c r="AL9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -19257,12 +19413,15 @@
         <v>59</v>
       </c>
       <c r="AK10" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL10" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>59</v>
@@ -19371,11 +19530,14 @@
       </c>
       <c r="AK11" t="s">
         <v>58</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -19485,10 +19647,13 @@
       <c r="AK12" t="s">
         <v>58</v>
       </c>
+      <c r="AL12" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -19598,10 +19763,13 @@
       <c r="AK13" t="s">
         <v>58</v>
       </c>
+      <c r="AL13" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -19711,10 +19879,13 @@
       <c r="AK14" t="s">
         <v>59</v>
       </c>
+      <c r="AL14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -19824,10 +19995,13 @@
       <c r="AK15" t="s">
         <v>60</v>
       </c>
+      <c r="AL15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -19936,11 +20110,14 @@
       </c>
       <c r="AK16" t="s">
         <v>60</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -20049,11 +20226,14 @@
       </c>
       <c r="AK17" t="s">
         <v>59</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -20163,10 +20343,13 @@
       <c r="AK18" t="s">
         <v>58</v>
       </c>
+      <c r="AL18" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
@@ -20276,10 +20459,13 @@
       <c r="AK19" t="s">
         <v>63</v>
       </c>
+      <c r="AL19" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -20388,11 +20574,14 @@
       </c>
       <c r="AK20" t="s">
         <v>60</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -20500,6 +20689,9 @@
         <v>61</v>
       </c>
       <c r="AK21" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL21" t="s">
         <v>58</v>
       </c>
     </row>
@@ -20555,13 +20747,13 @@
         <v>213</v>
       </c>
       <c r="N1" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O1" t="s">
         <v>158</v>
       </c>
       <c r="P1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q1" t="s">
         <v>159</v>
@@ -20612,7 +20804,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AH1" t="s">
         <v>188</v>
@@ -20621,10 +20813,10 @@
         <v>161</v>
       </c>
       <c r="AJ1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AK1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -20642,7 +20834,7 @@
         <v>133</v>
       </c>
       <c r="AQ1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -20659,7 +20851,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -20802,7 +20994,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -20945,7 +21137,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -21088,7 +21280,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -21231,7 +21423,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s">
         <v>58</v>
@@ -21374,7 +21566,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B7" t="s">
         <v>62</v>
@@ -21517,7 +21709,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -21660,7 +21852,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -21803,7 +21995,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>60</v>
@@ -21946,7 +22138,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -22089,7 +22281,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -22232,7 +22424,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -22375,7 +22567,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -22518,7 +22710,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -22661,7 +22853,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -22804,7 +22996,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -22947,7 +23139,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
@@ -23090,7 +23282,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -23233,7 +23425,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -23376,7 +23568,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>
@@ -23519,7 +23711,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B22" t="s">
         <v>58</v>
@@ -23662,7 +23854,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
         <v>60</v>
@@ -23926,7 +24118,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -24036,7 +24228,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -24146,7 +24338,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
@@ -24256,7 +24448,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -24366,7 +24558,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -24476,7 +24668,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>58</v>
@@ -24586,7 +24778,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>58</v>
@@ -24696,7 +24888,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
@@ -24806,7 +24998,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>58</v>
@@ -24916,7 +25108,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
@@ -25026,7 +25218,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>58</v>
@@ -25136,7 +25328,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>58</v>
@@ -25246,7 +25438,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>58</v>
@@ -25356,7 +25548,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>58</v>
@@ -25466,7 +25658,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>58</v>
@@ -25576,7 +25768,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>58</v>
@@ -25686,7 +25878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>61</v>
@@ -25796,7 +25988,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -25906,7 +26098,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>58</v>
@@ -26016,7 +26208,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>58</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14203" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14406" uniqueCount="506">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -551,6 +551,12 @@
     <t>X2021.10.26</t>
   </si>
   <si>
+    <t>X2021.11.12</t>
+  </si>
+  <si>
+    <t>X2021.11.13</t>
+  </si>
+  <si>
     <t>Accrington</t>
   </si>
   <si>
@@ -711,6 +717,9 @@
   </si>
   <si>
     <t>X2021.10.12</t>
+  </si>
+  <si>
+    <t>X2021.11.09</t>
   </si>
   <si>
     <t>Aldershot</t>
@@ -4326,25 +4335,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>134</v>
@@ -4356,7 +4365,7 @@
         <v>109</v>
       </c>
       <c r="M1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4398,7 +4407,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4412,7 +4421,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -4504,7 +4513,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -4596,7 +4605,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>65</v>
@@ -4688,7 +4697,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -4780,7 +4789,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -4872,7 +4881,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -4964,7 +4973,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -5056,7 +5065,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -5148,7 +5157,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -5240,7 +5249,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -5332,7 +5341,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -5424,7 +5433,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -5516,7 +5525,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -5608,7 +5617,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -5700,7 +5709,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -5792,7 +5801,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -5884,7 +5893,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B18" t="s">
         <v>69</v>
@@ -5976,7 +5985,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -6068,7 +6077,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -6160,7 +6169,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -6334,7 +6343,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -6405,7 +6414,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -6476,7 +6485,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -6547,7 +6556,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -6618,7 +6627,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -6689,7 +6698,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -6760,7 +6769,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -6831,7 +6840,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -6902,7 +6911,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -6973,7 +6982,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -7044,7 +7053,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -7115,7 +7124,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B13" t="s">
         <v>66</v>
@@ -7186,7 +7195,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -7257,7 +7266,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -7378,7 +7387,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O1" t="s">
         <v>169</v>
@@ -7429,10 +7438,10 @@
         <v>171</v>
       </c>
       <c r="AE1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AF1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7455,7 +7464,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -7571,7 +7580,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -7687,7 +7696,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -7803,7 +7812,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -7919,7 +7928,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -8035,7 +8044,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -8151,7 +8160,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -8267,7 +8276,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -8383,7 +8392,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B10" t="s">
         <v>65</v>
@@ -8499,7 +8508,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -8615,7 +8624,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -8731,7 +8740,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -8847,7 +8856,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -8963,7 +8972,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -9079,7 +9088,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -9195,7 +9204,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -9311,7 +9320,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -9427,7 +9436,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -9543,7 +9552,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -9659,7 +9668,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -9825,7 +9834,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="O1" t="s">
         <v>169</v>
@@ -9864,10 +9873,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AB1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AC1" t="s">
         <v>112</v>
@@ -9884,7 +9893,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -9982,7 +9991,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -10080,7 +10089,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -10178,7 +10187,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -10276,7 +10285,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -10374,7 +10383,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -10472,7 +10481,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -10570,7 +10579,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -10668,7 +10677,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -10766,7 +10775,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -10864,7 +10873,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -10962,7 +10971,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -11060,7 +11069,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -11158,7 +11167,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -11256,7 +11265,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -11354,7 +11363,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -11452,7 +11461,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -11550,7 +11559,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -11648,7 +11657,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -11746,7 +11755,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -11956,7 +11965,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -12057,7 +12066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -12158,7 +12167,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -12197,7 +12206,7 @@
         <v>64</v>
       </c>
       <c r="N4" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
@@ -12259,7 +12268,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -12360,7 +12369,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -12461,7 +12470,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -12562,7 +12571,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -12663,7 +12672,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -12764,7 +12773,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -12865,7 +12874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -12966,7 +12975,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -13067,7 +13076,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -13168,7 +13177,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -13269,7 +13278,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -13370,7 +13379,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -13471,7 +13480,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -13572,7 +13581,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -13673,7 +13682,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -13797,7 +13806,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -13809,7 +13818,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -13851,7 +13860,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -13884,7 +13893,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -13910,7 +13919,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -14035,7 +14044,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -14160,7 +14169,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -14285,7 +14294,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -14410,7 +14419,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -14535,7 +14544,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -14660,7 +14669,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -14785,7 +14794,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -14910,7 +14919,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -15035,7 +15044,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -15160,7 +15169,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -15285,7 +15294,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -15410,7 +15419,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -15535,7 +15544,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -15660,7 +15669,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -15785,7 +15794,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -15910,7 +15919,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -16035,7 +16044,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -16231,7 +16240,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -16248,7 +16257,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -16325,7 +16334,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -16402,7 +16411,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -16479,7 +16488,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -16556,7 +16565,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -16633,7 +16642,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -16710,7 +16719,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -16787,7 +16796,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -16864,7 +16873,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -16941,7 +16950,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -17018,7 +17027,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>66</v>
@@ -17095,7 +17104,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -17189,7 +17198,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -17201,7 +17210,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -17241,11 +17250,14 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -17302,12 +17314,15 @@
         <v>68</v>
       </c>
       <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -17365,11 +17380,14 @@
       </c>
       <c r="T3" t="s">
         <v>68</v>
+      </c>
+      <c r="U3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -17427,11 +17445,14 @@
       </c>
       <c r="T4" t="s">
         <v>67</v>
+      </c>
+      <c r="U4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -17489,11 +17510,14 @@
       </c>
       <c r="T5" t="s">
         <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -17550,12 +17574,15 @@
         <v>66</v>
       </c>
       <c r="T6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -17613,11 +17640,14 @@
       </c>
       <c r="T7" t="s">
         <v>65</v>
+      </c>
+      <c r="U7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -17675,11 +17705,14 @@
       </c>
       <c r="T8" t="s">
         <v>65</v>
+      </c>
+      <c r="U8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -17736,12 +17769,15 @@
         <v>66</v>
       </c>
       <c r="T9" t="s">
+        <v>66</v>
+      </c>
+      <c r="U9" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -17798,12 +17834,15 @@
         <v>69</v>
       </c>
       <c r="T10" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -17861,6 +17900,9 @@
       </c>
       <c r="T11" t="s">
         <v>65</v>
+      </c>
+      <c r="U11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -17926,10 +17968,13 @@
       <c r="Q1" t="s">
         <v>44</v>
       </c>
+      <c r="R1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17978,11 +18023,14 @@
       </c>
       <c r="Q2" t="s">
         <v>65</v>
+      </c>
+      <c r="R2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -18031,11 +18079,14 @@
       </c>
       <c r="Q3" t="s">
         <v>65</v>
+      </c>
+      <c r="R3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -18084,11 +18135,14 @@
       </c>
       <c r="Q4" t="s">
         <v>65</v>
+      </c>
+      <c r="R4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>65</v>
@@ -18136,12 +18190,15 @@
         <v>67</v>
       </c>
       <c r="Q5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -18190,11 +18247,14 @@
       </c>
       <c r="Q6" t="s">
         <v>65</v>
+      </c>
+      <c r="R6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -18242,12 +18302,15 @@
         <v>65</v>
       </c>
       <c r="Q7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -18296,11 +18359,14 @@
       </c>
       <c r="Q8" t="s">
         <v>65</v>
+      </c>
+      <c r="R8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>66</v>
@@ -18349,11 +18415,14 @@
       </c>
       <c r="Q9" t="s">
         <v>66</v>
+      </c>
+      <c r="R9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -18401,12 +18470,15 @@
         <v>66</v>
       </c>
       <c r="Q10" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -18455,6 +18527,9 @@
       </c>
       <c r="Q11" t="s">
         <v>65</v>
+      </c>
+      <c r="R11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -18494,7 +18569,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -18528,11 +18603,20 @@
       </c>
       <c r="T1" t="s">
         <v>44</v>
+      </c>
+      <c r="U1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" t="s">
+        <v>172</v>
+      </c>
+      <c r="W1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s">
         <v>66</v>
@@ -18590,11 +18674,20 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>67</v>
+      </c>
+      <c r="V2" t="s">
+        <v>64</v>
+      </c>
+      <c r="W2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -18651,12 +18744,21 @@
         <v>64</v>
       </c>
       <c r="T3" t="s">
+        <v>68</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>64</v>
+      </c>
+      <c r="W3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -18713,12 +18815,21 @@
         <v>64</v>
       </c>
       <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>64</v>
+      </c>
+      <c r="W4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -18775,12 +18886,21 @@
         <v>69</v>
       </c>
       <c r="T5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -18838,11 +18958,20 @@
       </c>
       <c r="T6" t="s">
         <v>68</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>64</v>
+      </c>
+      <c r="W6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -18899,12 +19028,21 @@
         <v>64</v>
       </c>
       <c r="T7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>64</v>
+      </c>
+      <c r="W7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -18961,12 +19099,21 @@
         <v>64</v>
       </c>
       <c r="T8" t="s">
+        <v>66</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>64</v>
+      </c>
+      <c r="W8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -19024,11 +19171,20 @@
       </c>
       <c r="T9" t="s">
         <v>65</v>
+      </c>
+      <c r="U9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V9" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -19086,11 +19242,20 @@
       </c>
       <c r="T10" t="s">
         <v>67</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>64</v>
+      </c>
+      <c r="W10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -19148,6 +19313,15 @@
       </c>
       <c r="T11" t="s">
         <v>68</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>67</v>
+      </c>
+      <c r="W11" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -21105,7 +21279,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -21147,7 +21321,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="T1" t="s">
         <v>169</v>
@@ -21195,16 +21369,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AJ1" t="s">
         <v>171</v>
       </c>
       <c r="AK1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -21227,7 +21401,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -21361,7 +21535,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -21495,7 +21669,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -21629,7 +21803,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -21763,7 +21937,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -21897,7 +22071,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -22031,7 +22205,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -22165,7 +22339,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -22299,7 +22473,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -22433,7 +22607,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -22567,7 +22741,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -22701,7 +22875,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -22835,7 +23009,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -22969,7 +23143,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -23103,7 +23277,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -23237,7 +23411,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -23371,7 +23545,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -23505,7 +23679,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -23639,7 +23813,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -23773,7 +23947,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -23930,7 +24104,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23954,16 +24128,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="O1" t="s">
         <v>167</v>
       </c>
       <c r="P1" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="Q1" t="s">
         <v>168</v>
@@ -23990,7 +24164,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -24014,19 +24188,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="AH1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AI1" t="s">
         <v>170</v>
       </c>
       <c r="AJ1" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="AK1" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -24044,7 +24218,7 @@
         <v>140</v>
       </c>
       <c r="AQ1" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -24056,7 +24230,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -24077,7 +24251,7 @@
         <v>142</v>
       </c>
       <c r="BB1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -24089,12 +24263,12 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -24270,7 +24444,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -24446,7 +24620,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -24622,7 +24796,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -24798,7 +24972,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -24974,7 +25148,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -25150,7 +25324,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -25326,7 +25500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -25502,7 +25676,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
@@ -25678,7 +25852,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -25854,7 +26028,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -26030,7 +26204,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -26206,7 +26380,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -26382,7 +26556,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -26558,7 +26732,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -26734,7 +26908,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -26910,7 +27084,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -27086,7 +27260,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -27262,7 +27436,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -27438,7 +27612,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -27614,7 +27788,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -27790,7 +27964,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
@@ -27989,7 +28163,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -28082,7 +28256,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -28108,7 +28282,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -28239,7 +28413,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -28370,7 +28544,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -28501,7 +28675,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -28632,7 +28806,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -28763,7 +28937,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -28894,7 +29068,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -29025,7 +29199,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -29156,7 +29330,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -29287,7 +29461,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -29418,7 +29592,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
@@ -29549,7 +29723,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -29680,7 +29854,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
@@ -29811,7 +29985,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -29942,7 +30116,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -30073,7 +30247,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -30204,7 +30378,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -30335,7 +30509,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -30466,7 +30640,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -30597,7 +30771,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
@@ -37762,10 +37936,16 @@
       <c r="X1" t="s">
         <v>141</v>
       </c>
+      <c r="Y1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -37835,11 +38015,17 @@
       </c>
       <c r="X2" t="s">
         <v>64</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -37908,12 +38094,18 @@
         <v>65</v>
       </c>
       <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -37982,12 +38174,18 @@
         <v>65</v>
       </c>
       <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -38057,11 +38255,17 @@
       </c>
       <c r="X5" t="s">
         <v>64</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>65</v>
@@ -38131,11 +38335,17 @@
       </c>
       <c r="X6" t="s">
         <v>66</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -38205,11 +38415,17 @@
       </c>
       <c r="X7" t="s">
         <v>65</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -38279,11 +38495,17 @@
       </c>
       <c r="X8" t="s">
         <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -38353,11 +38575,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -38427,11 +38655,17 @@
       </c>
       <c r="X10" t="s">
         <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>65</v>
@@ -38501,11 +38735,17 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -38575,11 +38815,17 @@
       </c>
       <c r="X12" t="s">
         <v>64</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -38649,11 +38895,17 @@
       </c>
       <c r="X13" t="s">
         <v>65</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -38722,12 +38974,18 @@
         <v>65</v>
       </c>
       <c r="X14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -38797,11 +39055,17 @@
       </c>
       <c r="X15" t="s">
         <v>64</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -38871,11 +39135,17 @@
       </c>
       <c r="X16" t="s">
         <v>68</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -38945,11 +39215,17 @@
       </c>
       <c r="X17" t="s">
         <v>64</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>68</v>
@@ -39019,11 +39295,17 @@
       </c>
       <c r="X18" t="s">
         <v>64</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>66</v>
@@ -39093,11 +39375,17 @@
       </c>
       <c r="X19" t="s">
         <v>65</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>66</v>
@@ -39167,11 +39455,17 @@
       </c>
       <c r="X20" t="s">
         <v>65</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -39241,11 +39535,17 @@
       </c>
       <c r="X21" t="s">
         <v>66</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -39314,12 +39614,18 @@
         <v>65</v>
       </c>
       <c r="X22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -39389,11 +39695,17 @@
       </c>
       <c r="X23" t="s">
         <v>67</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>68</v>
@@ -39463,11 +39775,17 @@
       </c>
       <c r="X24" t="s">
         <v>68</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -39537,6 +39855,12 @@
       </c>
       <c r="X25" t="s">
         <v>69</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -39567,7 +39891,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -39603,7 +39927,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>170</v>
@@ -39622,11 +39946,17 @@
       </c>
       <c r="X1" t="s">
         <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
@@ -39696,11 +40026,17 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
         <v>66</v>
@@ -39769,12 +40105,18 @@
         <v>64</v>
       </c>
       <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -39844,11 +40186,17 @@
       </c>
       <c r="X4" t="s">
         <v>66</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -39918,11 +40266,17 @@
       </c>
       <c r="X5" t="s">
         <v>67</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
@@ -39992,11 +40346,17 @@
       </c>
       <c r="X6" t="s">
         <v>65</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>65</v>
@@ -40066,11 +40426,17 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B8" t="s">
         <v>66</v>
@@ -40139,12 +40505,18 @@
         <v>64</v>
       </c>
       <c r="X8" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B9" t="s">
         <v>65</v>
@@ -40214,11 +40586,17 @@
       </c>
       <c r="X9" t="s">
         <v>65</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -40287,12 +40665,18 @@
         <v>64</v>
       </c>
       <c r="X10" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B11" t="s">
         <v>66</v>
@@ -40362,11 +40746,17 @@
       </c>
       <c r="X11" t="s">
         <v>70</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -40436,11 +40826,17 @@
       </c>
       <c r="X12" t="s">
         <v>66</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -40510,11 +40906,17 @@
       </c>
       <c r="X13" t="s">
         <v>66</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B14" t="s">
         <v>66</v>
@@ -40584,11 +40986,17 @@
       </c>
       <c r="X14" t="s">
         <v>66</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -40658,11 +41066,17 @@
       </c>
       <c r="X15" t="s">
         <v>66</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B16" t="s">
         <v>65</v>
@@ -40732,11 +41146,17 @@
       </c>
       <c r="X16" t="s">
         <v>67</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
         <v>65</v>
@@ -40805,12 +41225,18 @@
         <v>64</v>
       </c>
       <c r="X17" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z17" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -40880,11 +41306,17 @@
       </c>
       <c r="X18" t="s">
         <v>65</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
         <v>65</v>
@@ -40954,11 +41386,17 @@
       </c>
       <c r="X19" t="s">
         <v>68</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -41028,11 +41466,17 @@
       </c>
       <c r="X20" t="s">
         <v>68</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
         <v>66</v>
@@ -41102,11 +41546,17 @@
       </c>
       <c r="X21" t="s">
         <v>70</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -41176,11 +41626,17 @@
       </c>
       <c r="X22" t="s">
         <v>65</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s">
         <v>65</v>
@@ -41250,11 +41706,17 @@
       </c>
       <c r="X23" t="s">
         <v>65</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s">
         <v>66</v>
@@ -41324,11 +41786,17 @@
       </c>
       <c r="X24" t="s">
         <v>68</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s">
         <v>65</v>
@@ -41398,6 +41866,12 @@
       </c>
       <c r="X25" t="s">
         <v>66</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -41422,10 +41896,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E1" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F1" t="s">
         <v>167</v>
@@ -41452,13 +41926,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O1" t="s">
         <v>170</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -41471,11 +41945,17 @@
       </c>
       <c r="T1" t="s">
         <v>141</v>
+      </c>
+      <c r="U1" t="s">
+        <v>228</v>
+      </c>
+      <c r="V1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -41533,11 +42013,17 @@
       </c>
       <c r="T2" t="s">
         <v>64</v>
+      </c>
+      <c r="U2" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s">
         <v>65</v>
@@ -41595,11 +42081,17 @@
       </c>
       <c r="T3" t="s">
         <v>64</v>
+      </c>
+      <c r="U3" t="s">
+        <v>64</v>
+      </c>
+      <c r="V3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -41657,11 +42149,17 @@
       </c>
       <c r="T4" t="s">
         <v>64</v>
+      </c>
+      <c r="U4" t="s">
+        <v>64</v>
+      </c>
+      <c r="V4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B5" t="s">
         <v>66</v>
@@ -41719,11 +42217,17 @@
       </c>
       <c r="T5" t="s">
         <v>64</v>
+      </c>
+      <c r="U5" t="s">
+        <v>64</v>
+      </c>
+      <c r="V5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -41781,11 +42285,17 @@
       </c>
       <c r="T6" t="s">
         <v>66</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s">
         <v>66</v>
@@ -41843,11 +42353,17 @@
       </c>
       <c r="T7" t="s">
         <v>64</v>
+      </c>
+      <c r="U7" t="s">
+        <v>64</v>
+      </c>
+      <c r="V7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
@@ -41905,11 +42421,17 @@
       </c>
       <c r="T8" t="s">
         <v>64</v>
+      </c>
+      <c r="U8" t="s">
+        <v>64</v>
+      </c>
+      <c r="V8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -41967,11 +42489,17 @@
       </c>
       <c r="T9" t="s">
         <v>69</v>
+      </c>
+      <c r="U9" t="s">
+        <v>64</v>
+      </c>
+      <c r="V9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -42029,11 +42557,17 @@
       </c>
       <c r="T10" t="s">
         <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>64</v>
+      </c>
+      <c r="V10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -42091,11 +42625,17 @@
       </c>
       <c r="T11" t="s">
         <v>64</v>
+      </c>
+      <c r="U11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -42152,12 +42692,18 @@
         <v>66</v>
       </c>
       <c r="T12" t="s">
+        <v>64</v>
+      </c>
+      <c r="U12" t="s">
+        <v>64</v>
+      </c>
+      <c r="V12" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B13" t="s">
         <v>65</v>
@@ -42215,11 +42761,17 @@
       </c>
       <c r="T13" t="s">
         <v>64</v>
+      </c>
+      <c r="U13" t="s">
+        <v>64</v>
+      </c>
+      <c r="V13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -42277,11 +42829,17 @@
       </c>
       <c r="T14" t="s">
         <v>64</v>
+      </c>
+      <c r="U14" t="s">
+        <v>64</v>
+      </c>
+      <c r="V14" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
@@ -42339,11 +42897,17 @@
       </c>
       <c r="T15" t="s">
         <v>64</v>
+      </c>
+      <c r="U15" t="s">
+        <v>64</v>
+      </c>
+      <c r="V15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -42401,11 +42965,17 @@
       </c>
       <c r="T16" t="s">
         <v>64</v>
+      </c>
+      <c r="U16" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>66</v>
@@ -42463,11 +43033,17 @@
       </c>
       <c r="T17" t="s">
         <v>65</v>
+      </c>
+      <c r="U17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -42525,11 +43101,17 @@
       </c>
       <c r="T18" t="s">
         <v>64</v>
+      </c>
+      <c r="U18" t="s">
+        <v>64</v>
+      </c>
+      <c r="V18" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -42587,11 +43169,17 @@
       </c>
       <c r="T19" t="s">
         <v>64</v>
+      </c>
+      <c r="U19" t="s">
+        <v>64</v>
+      </c>
+      <c r="V19" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
@@ -42649,11 +43237,17 @@
       </c>
       <c r="T20" t="s">
         <v>64</v>
+      </c>
+      <c r="U20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V20" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B21" t="s">
         <v>68</v>
@@ -42711,11 +43305,17 @@
       </c>
       <c r="T21" t="s">
         <v>64</v>
+      </c>
+      <c r="U21" t="s">
+        <v>64</v>
+      </c>
+      <c r="V21" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B22" t="s">
         <v>65</v>
@@ -42773,11 +43373,17 @@
       </c>
       <c r="T22" t="s">
         <v>68</v>
+      </c>
+      <c r="U22" t="s">
+        <v>64</v>
+      </c>
+      <c r="V22" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -42835,11 +43441,17 @@
       </c>
       <c r="T23" t="s">
         <v>64</v>
+      </c>
+      <c r="U23" t="s">
+        <v>66</v>
+      </c>
+      <c r="V23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s">
         <v>64</v>
@@ -42897,6 +43509,12 @@
       </c>
       <c r="T24" t="s">
         <v>64</v>
+      </c>
+      <c r="U24" t="s">
+        <v>64</v>
+      </c>
+      <c r="V24" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -43005,7 +43623,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -43028,7 +43646,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -43144,7 +43762,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
         <v>64</v>
@@ -43260,7 +43878,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -43376,7 +43994,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -43492,7 +44110,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
@@ -43608,7 +44226,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
         <v>64</v>
@@ -43724,7 +44342,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
         <v>64</v>
@@ -43840,7 +44458,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
         <v>64</v>
@@ -43956,7 +44574,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
         <v>64</v>
@@ -44072,7 +44690,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -44188,7 +44806,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -44304,7 +44922,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B13" t="s">
         <v>64</v>
@@ -44420,7 +45038,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
         <v>65</v>
@@ -44536,7 +45154,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B15" t="s">
         <v>64</v>
@@ -44652,7 +45270,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B16" t="s">
         <v>64</v>
@@ -44768,7 +45386,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B17" t="s">
         <v>64</v>
@@ -44884,7 +45502,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
@@ -45000,7 +45618,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B19" t="s">
         <v>64</v>
@@ -45116,7 +45734,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
         <v>64</v>
@@ -45232,7 +45850,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15458" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15625" uniqueCount="514">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -317,6 +317,9 @@
     <t>Wolfsburg</t>
   </si>
   <si>
+    <t>X2021.11.24</t>
+  </si>
+  <si>
     <t>Darmstadt</t>
   </si>
   <si>
@@ -471,6 +474,9 @@
   </si>
   <si>
     <t>X2021.11.03</t>
+  </si>
+  <si>
+    <t>X2021.11.23</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -4524,37 +4530,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4566,13 +4572,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4581,7 +4587,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -4590,19 +4596,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -4611,12 +4617,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -4714,7 +4720,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -4812,7 +4818,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s">
         <v>68</v>
@@ -4910,7 +4916,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -5008,7 +5014,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -5106,7 +5112,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -5204,7 +5210,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -5302,7 +5308,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -5400,7 +5406,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -5498,7 +5504,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -5596,7 +5602,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -5694,7 +5700,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -5792,7 +5798,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -5890,7 +5896,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -5988,7 +5994,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -6086,7 +6092,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -6184,7 +6190,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
@@ -6282,7 +6288,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -6380,7 +6386,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -6478,7 +6484,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -6617,7 +6623,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -6632,7 +6638,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -6647,7 +6653,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -6664,7 +6670,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -6741,7 +6747,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -6818,7 +6824,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -6895,7 +6901,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -6972,7 +6978,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -7049,7 +7055,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -7126,7 +7132,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -7203,7 +7209,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -7280,7 +7286,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -7357,7 +7363,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -7434,7 +7440,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -7511,7 +7517,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B13" t="s">
         <v>69</v>
@@ -7588,7 +7594,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -7665,7 +7671,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -7762,7 +7768,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -7792,10 +7798,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -7810,7 +7816,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -7828,7 +7834,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -7840,13 +7846,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AE1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AF1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -7855,7 +7861,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -7873,12 +7879,12 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -8003,7 +8009,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -8128,7 +8134,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -8253,7 +8259,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -8378,7 +8384,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -8503,7 +8509,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -8628,7 +8634,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -8753,7 +8759,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -8878,7 +8884,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -9003,7 +9009,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -9128,7 +9134,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -9253,7 +9259,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -9378,7 +9384,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -9503,7 +9509,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -9628,7 +9634,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -9753,7 +9759,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -9878,7 +9884,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -10003,7 +10009,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -10128,7 +10134,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -10253,7 +10259,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -10428,10 +10434,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="O1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10467,13 +10473,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AB1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -10493,7 +10499,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -10597,7 +10603,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -10701,7 +10707,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -10805,7 +10811,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -10909,7 +10915,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -11013,7 +11019,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -11117,7 +11123,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -11221,7 +11227,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -11325,7 +11331,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -11429,7 +11435,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -11533,7 +11539,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -11637,7 +11643,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -11741,7 +11747,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -11845,7 +11851,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -11949,7 +11955,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -12053,7 +12059,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -12157,7 +12163,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -12261,7 +12267,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -12365,7 +12371,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -12469,7 +12475,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -12629,7 +12635,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -12691,7 +12697,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -12798,7 +12804,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -12905,7 +12911,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -12944,7 +12950,7 @@
         <v>67</v>
       </c>
       <c r="N4" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O4" t="s">
         <v>67</v>
@@ -13012,7 +13018,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -13119,7 +13125,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -13226,7 +13232,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -13333,7 +13339,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -13440,7 +13446,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -13547,7 +13553,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -13654,7 +13660,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -13761,7 +13767,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -13868,7 +13874,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -13975,7 +13981,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -14082,7 +14088,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -14189,7 +14195,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -14296,7 +14302,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -14403,7 +14409,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -14510,7 +14516,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -14640,7 +14646,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -14652,7 +14658,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -14664,7 +14670,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -14694,7 +14700,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -14706,7 +14712,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -14727,7 +14733,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -14739,7 +14745,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -14753,7 +14759,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -14878,7 +14884,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -15003,7 +15009,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -15128,7 +15134,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -15253,7 +15259,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -15378,7 +15384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -15503,7 +15509,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -15628,7 +15634,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -15753,7 +15759,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -15878,7 +15884,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -16003,7 +16009,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -16128,7 +16134,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -16253,7 +16259,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -16378,7 +16384,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -16503,7 +16509,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -16628,7 +16634,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -16753,7 +16759,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -16878,7 +16884,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -17074,7 +17080,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -17090,11 +17096,14 @@
       </c>
       <c r="Z1" t="s">
         <v>47</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -17170,11 +17179,14 @@
       </c>
       <c r="Z2" t="s">
         <v>68</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -17249,12 +17261,15 @@
         <v>71</v>
       </c>
       <c r="Z3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -17329,12 +17344,15 @@
         <v>72</v>
       </c>
       <c r="Z4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -17410,11 +17428,14 @@
       </c>
       <c r="Z5" t="s">
         <v>69</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -17490,11 +17511,14 @@
       </c>
       <c r="Z6" t="s">
         <v>71</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -17570,11 +17594,14 @@
       </c>
       <c r="Z7" t="s">
         <v>67</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -17650,11 +17677,14 @@
       </c>
       <c r="Z8" t="s">
         <v>68</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -17730,11 +17760,14 @@
       </c>
       <c r="Z9" t="s">
         <v>69</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -17809,12 +17842,15 @@
         <v>71</v>
       </c>
       <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -17890,11 +17926,14 @@
       </c>
       <c r="Z11" t="s">
         <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B12" t="s">
         <v>69</v>
@@ -17969,12 +18008,15 @@
         <v>67</v>
       </c>
       <c r="Z12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -18050,6 +18092,9 @@
       </c>
       <c r="Z13" t="s">
         <v>68</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -18071,7 +18116,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -18083,7 +18128,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -18101,7 +18146,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -18116,7 +18161,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -18125,7 +18170,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -18136,7 +18181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -18207,7 +18252,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -18278,7 +18323,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -18349,7 +18394,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -18420,7 +18465,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -18491,7 +18536,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -18562,7 +18607,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -18633,7 +18678,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -18704,7 +18749,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -18775,7 +18820,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -18878,7 +18923,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -18908,7 +18953,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -18916,7 +18961,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18975,7 +19020,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -19034,7 +19079,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -19093,7 +19138,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>68</v>
@@ -19152,7 +19197,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -19211,7 +19256,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -19270,7 +19315,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -19329,7 +19374,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
         <v>69</v>
@@ -19388,7 +19433,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -19447,7 +19492,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -19541,7 +19586,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -19577,21 +19622,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="W1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -19661,11 +19709,14 @@
       </c>
       <c r="X2" t="s">
         <v>68</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -19735,11 +19786,14 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -19809,11 +19863,14 @@
       </c>
       <c r="X4" t="s">
         <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -19882,12 +19939,15 @@
         <v>67</v>
       </c>
       <c r="X5" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -19956,12 +20016,15 @@
         <v>69</v>
       </c>
       <c r="X6" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -20031,11 +20094,14 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -20105,11 +20171,14 @@
       </c>
       <c r="X8" t="s">
         <v>69</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -20179,11 +20248,14 @@
       </c>
       <c r="X9" t="s">
         <v>71</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -20253,11 +20325,14 @@
       </c>
       <c r="X10" t="s">
         <v>71</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -20327,6 +20402,9 @@
       </c>
       <c r="X11" t="s">
         <v>69</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -22455,7 +22533,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -22467,7 +22545,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -22497,10 +22575,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="T1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -22515,7 +22593,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -22533,7 +22611,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -22545,16 +22623,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AJ1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AL1" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -22563,7 +22641,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -22584,12 +22662,12 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -22735,7 +22813,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -22881,7 +22959,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -23027,7 +23105,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -23173,7 +23251,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -23319,7 +23397,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -23465,7 +23543,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -23611,7 +23689,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -23757,7 +23835,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -23903,7 +23981,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -24049,7 +24127,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -24195,7 +24273,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -24341,7 +24419,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -24487,7 +24565,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -24633,7 +24711,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -24779,7 +24857,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -24925,7 +25003,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -25071,7 +25149,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -25217,7 +25295,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -25363,7 +25441,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -25532,7 +25610,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -25544,7 +25622,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -25556,19 +25634,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="N1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -25592,7 +25670,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -25604,7 +25682,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -25616,19 +25694,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AH1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AI1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AK1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -25640,13 +25718,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AQ1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -25658,7 +25736,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -25670,16 +25748,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AZ1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="BA1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="BB1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -25691,19 +25769,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="BG1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="BH1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="BI1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="BJ1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -25715,12 +25793,12 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -25920,7 +25998,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -26120,7 +26198,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -26320,7 +26398,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -26520,7 +26598,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -26720,7 +26798,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -26920,7 +26998,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -27120,7 +27198,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -27320,7 +27398,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B10" t="s">
         <v>69</v>
@@ -27520,7 +27598,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -27720,7 +27798,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -27920,7 +27998,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -28120,7 +28198,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -28320,7 +28398,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -28520,7 +28598,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -28720,7 +28798,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -28920,7 +28998,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -29120,7 +29198,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -29320,7 +29398,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -29520,7 +29598,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -29720,7 +29798,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -29920,7 +29998,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -30143,7 +30221,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30155,7 +30233,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30185,7 +30263,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -30203,7 +30281,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30224,7 +30302,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -30236,7 +30314,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -30248,7 +30326,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -30266,12 +30344,12 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -30411,7 +30489,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -30551,7 +30629,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -30691,7 +30769,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -30831,7 +30909,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -30971,7 +31049,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -31111,7 +31189,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -31251,7 +31329,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -31391,7 +31469,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -31531,7 +31609,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -31671,7 +31749,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -31811,7 +31889,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -31951,7 +32029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -32091,7 +32169,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -32231,7 +32309,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -32371,7 +32449,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -32511,7 +32589,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -32651,7 +32729,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -32791,7 +32869,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -32931,7 +33009,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -33207,10 +33285,13 @@
       <c r="AP1" t="s">
         <v>48</v>
       </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -33333,12 +33414,15 @@
         <v>69</v>
       </c>
       <c r="AP2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -33462,11 +33546,14 @@
       </c>
       <c r="AP3" t="s">
         <v>69</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -33589,12 +33676,15 @@
         <v>68</v>
       </c>
       <c r="AP4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -33718,11 +33808,14 @@
       </c>
       <c r="AP5" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -33845,12 +33938,15 @@
         <v>68</v>
       </c>
       <c r="AP6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -33973,12 +34069,15 @@
         <v>67</v>
       </c>
       <c r="AP7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -34101,12 +34200,15 @@
         <v>71</v>
       </c>
       <c r="AP8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ8" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -34230,11 +34332,14 @@
       </c>
       <c r="AP9" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -34358,11 +34463,14 @@
       </c>
       <c r="AP10" t="s">
         <v>71</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -34486,11 +34594,14 @@
       </c>
       <c r="AP11" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -34614,11 +34725,14 @@
       </c>
       <c r="AP12" t="s">
         <v>68</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -34741,12 +34855,15 @@
         <v>67</v>
       </c>
       <c r="AP13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -34869,12 +34986,15 @@
         <v>67</v>
       </c>
       <c r="AP14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -34997,12 +35117,15 @@
         <v>72</v>
       </c>
       <c r="AP15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -35126,11 +35249,14 @@
       </c>
       <c r="AP16" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -35253,12 +35379,15 @@
         <v>68</v>
       </c>
       <c r="AP17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -35382,11 +35511,14 @@
       </c>
       <c r="AP18" t="s">
         <v>67</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -35509,6 +35641,9 @@
         <v>68</v>
       </c>
       <c r="AP19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>67</v>
       </c>
     </row>
@@ -35543,7 +35678,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -35576,7 +35711,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -35591,7 +35726,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -35609,7 +35744,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -35629,7 +35764,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -35733,7 +35868,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -35837,7 +35972,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>69</v>
@@ -35941,7 +36076,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -36045,7 +36180,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -36149,7 +36284,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -36253,7 +36388,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -36357,7 +36492,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -36461,7 +36596,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -36565,7 +36700,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -36669,7 +36804,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -36773,7 +36908,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -36877,7 +37012,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -36981,7 +37116,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -37085,7 +37220,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -37189,7 +37324,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -37293,7 +37428,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -37397,7 +37532,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -37501,7 +37636,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -37605,7 +37740,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -37735,10 +37870,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -37759,10 +37894,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -37774,10 +37909,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -37795,10 +37930,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AA1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -37813,10 +37948,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -37829,11 +37964,17 @@
       </c>
       <c r="AK1" t="s">
         <v>48</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -37942,11 +38083,17 @@
       </c>
       <c r="AK2" t="s">
         <v>67</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -38054,12 +38201,18 @@
         <v>71</v>
       </c>
       <c r="AK3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -38168,11 +38321,17 @@
       </c>
       <c r="AK4" t="s">
         <v>67</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -38280,12 +38439,18 @@
         <v>68</v>
       </c>
       <c r="AK5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -38394,11 +38559,17 @@
       </c>
       <c r="AK6" t="s">
         <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -38507,11 +38678,17 @@
       </c>
       <c r="AK7" t="s">
         <v>67</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -38620,11 +38797,17 @@
       </c>
       <c r="AK8" t="s">
         <v>67</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -38732,12 +38915,18 @@
         <v>69</v>
       </c>
       <c r="AK9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM9" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -38846,11 +39035,17 @@
       </c>
       <c r="AK10" t="s">
         <v>71</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -38959,11 +39154,17 @@
       </c>
       <c r="AK11" t="s">
         <v>67</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -39072,11 +39273,17 @@
       </c>
       <c r="AK12" t="s">
         <v>67</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -39185,11 +39392,17 @@
       </c>
       <c r="AK13" t="s">
         <v>67</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
@@ -39297,12 +39510,18 @@
         <v>67</v>
       </c>
       <c r="AK14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -39410,12 +39629,18 @@
         <v>68</v>
       </c>
       <c r="AK15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM15" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -39524,11 +39749,17 @@
       </c>
       <c r="AK16" t="s">
         <v>67</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -39636,12 +39867,18 @@
         <v>68</v>
       </c>
       <c r="AK17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -39750,11 +39987,17 @@
       </c>
       <c r="AK18" t="s">
         <v>67</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -39862,12 +40105,18 @@
         <v>71</v>
       </c>
       <c r="AK19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -39976,11 +40225,17 @@
       </c>
       <c r="AK20" t="s">
         <v>67</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>
@@ -40088,12 +40343,18 @@
         <v>68</v>
       </c>
       <c r="AK21" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM21" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
@@ -40201,12 +40462,18 @@
         <v>69</v>
       </c>
       <c r="AK22" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM22" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
         <v>67</v>
@@ -40315,11 +40582,17 @@
       </c>
       <c r="AK23" t="s">
         <v>67</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -40428,11 +40701,17 @@
       </c>
       <c r="AK24" t="s">
         <v>67</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -40540,6 +40819,12 @@
         <v>68</v>
       </c>
       <c r="AK25" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM25" t="s">
         <v>67</v>
       </c>
     </row>
@@ -40565,7 +40850,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -40577,34 +40862,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -40613,33 +40898,36 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -40718,11 +41006,14 @@
       </c>
       <c r="AA2" t="s">
         <v>70</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -40800,12 +41091,15 @@
         <v>67</v>
       </c>
       <c r="AA3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40884,11 +41178,14 @@
       </c>
       <c r="AA4" t="s">
         <v>68</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -40967,11 +41264,14 @@
       </c>
       <c r="AA5" t="s">
         <v>68</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
         <v>68</v>
@@ -41050,11 +41350,14 @@
       </c>
       <c r="AA6" t="s">
         <v>70</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -41133,11 +41436,14 @@
       </c>
       <c r="AA7" t="s">
         <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -41216,11 +41522,14 @@
       </c>
       <c r="AA8" t="s">
         <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -41299,11 +41608,14 @@
       </c>
       <c r="AA9" t="s">
         <v>69</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -41382,11 +41694,14 @@
       </c>
       <c r="AA10" t="s">
         <v>69</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
@@ -41465,11 +41780,14 @@
       </c>
       <c r="AA11" t="s">
         <v>71</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -41547,12 +41865,15 @@
         <v>68</v>
       </c>
       <c r="AA12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -41630,12 +41951,15 @@
         <v>69</v>
       </c>
       <c r="AA13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -41714,11 +42038,14 @@
       </c>
       <c r="AA14" t="s">
         <v>69</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -41797,11 +42124,14 @@
       </c>
       <c r="AA15" t="s">
         <v>69</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -41880,11 +42210,14 @@
       </c>
       <c r="AA16" t="s">
         <v>68</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -41963,11 +42296,14 @@
       </c>
       <c r="AA17" t="s">
         <v>67</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B18" t="s">
         <v>71</v>
@@ -42046,11 +42382,14 @@
       </c>
       <c r="AA18" t="s">
         <v>71</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>69</v>
@@ -42129,11 +42468,14 @@
       </c>
       <c r="AA19" t="s">
         <v>68</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B20" t="s">
         <v>69</v>
@@ -42212,11 +42554,14 @@
       </c>
       <c r="AA20" t="s">
         <v>68</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -42295,11 +42640,14 @@
       </c>
       <c r="AA21" t="s">
         <v>71</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -42378,11 +42726,14 @@
       </c>
       <c r="AA22" t="s">
         <v>71</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -42461,11 +42812,14 @@
       </c>
       <c r="AA23" t="s">
         <v>69</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -42544,11 +42898,14 @@
       </c>
       <c r="AA24" t="s">
         <v>67</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -42626,6 +42983,9 @@
         <v>68</v>
       </c>
       <c r="AA25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -42651,13 +43011,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -42666,7 +43026,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -42675,13 +43035,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -42693,39 +43053,42 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B2" t="s">
         <v>68</v>
@@ -42804,11 +43167,14 @@
       </c>
       <c r="AA2" t="s">
         <v>68</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s">
         <v>69</v>
@@ -42887,11 +43253,14 @@
       </c>
       <c r="AA3" t="s">
         <v>68</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -42970,11 +43339,14 @@
       </c>
       <c r="AA4" t="s">
         <v>71</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -43052,12 +43424,15 @@
         <v>69</v>
       </c>
       <c r="AA5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB5" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B6" t="s">
         <v>69</v>
@@ -43135,12 +43510,15 @@
         <v>67</v>
       </c>
       <c r="AA6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -43219,11 +43597,14 @@
       </c>
       <c r="AA7" t="s">
         <v>69</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B8" t="s">
         <v>69</v>
@@ -43302,11 +43683,14 @@
       </c>
       <c r="AA8" t="s">
         <v>68</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B9" t="s">
         <v>68</v>
@@ -43385,11 +43769,14 @@
       </c>
       <c r="AA9" t="s">
         <v>68</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -43468,11 +43855,14 @@
       </c>
       <c r="AA10" t="s">
         <v>71</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
@@ -43550,12 +43940,15 @@
         <v>67</v>
       </c>
       <c r="AA11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -43633,12 +44026,15 @@
         <v>71</v>
       </c>
       <c r="AA12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB12" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -43717,11 +44113,14 @@
       </c>
       <c r="AA13" t="s">
         <v>68</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B14" t="s">
         <v>69</v>
@@ -43800,11 +44199,14 @@
       </c>
       <c r="AA14" t="s">
         <v>71</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -43882,12 +44284,15 @@
         <v>71</v>
       </c>
       <c r="AA15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB15" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
@@ -43965,12 +44370,15 @@
         <v>71</v>
       </c>
       <c r="AA16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB16" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
         <v>68</v>
@@ -44049,11 +44457,14 @@
       </c>
       <c r="AA17" t="s">
         <v>70</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -44132,11 +44543,14 @@
       </c>
       <c r="AA18" t="s">
         <v>69</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s">
         <v>68</v>
@@ -44215,11 +44629,14 @@
       </c>
       <c r="AA19" t="s">
         <v>69</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -44298,11 +44715,14 @@
       </c>
       <c r="AA20" t="s">
         <v>70</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B21" t="s">
         <v>69</v>
@@ -44381,11 +44801,14 @@
       </c>
       <c r="AA21" t="s">
         <v>69</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -44464,11 +44887,14 @@
       </c>
       <c r="AA22" t="s">
         <v>72</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s">
         <v>68</v>
@@ -44546,12 +44972,15 @@
         <v>67</v>
       </c>
       <c r="AA23" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB23" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -44630,11 +45059,14 @@
       </c>
       <c r="AA24" t="s">
         <v>71</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
         <v>68</v>
@@ -44712,6 +45144,9 @@
         <v>70</v>
       </c>
       <c r="AA25" t="s">
+        <v>69</v>
+      </c>
+      <c r="AB25" t="s">
         <v>69</v>
       </c>
     </row>
@@ -44737,72 +45172,75 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="O1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="U1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="V1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -44872,11 +45310,14 @@
       </c>
       <c r="X2" t="s">
         <v>67</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
         <v>68</v>
@@ -44946,11 +45387,14 @@
       </c>
       <c r="X3" t="s">
         <v>68</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -45020,11 +45464,14 @@
       </c>
       <c r="X4" t="s">
         <v>68</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>69</v>
@@ -45094,11 +45541,14 @@
       </c>
       <c r="X5" t="s">
         <v>69</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -45167,12 +45617,15 @@
         <v>67</v>
       </c>
       <c r="X6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B7" t="s">
         <v>69</v>
@@ -45242,11 +45695,14 @@
       </c>
       <c r="X7" t="s">
         <v>69</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B8" t="s">
         <v>68</v>
@@ -45315,12 +45771,15 @@
         <v>67</v>
       </c>
       <c r="X8" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -45389,12 +45848,15 @@
         <v>67</v>
       </c>
       <c r="X9" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -45463,12 +45925,15 @@
         <v>67</v>
       </c>
       <c r="X10" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -45538,11 +46003,14 @@
       </c>
       <c r="X11" t="s">
         <v>67</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -45612,11 +46080,14 @@
       </c>
       <c r="X12" t="s">
         <v>68</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
         <v>68</v>
@@ -45686,11 +46157,14 @@
       </c>
       <c r="X13" t="s">
         <v>70</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -45760,11 +46234,14 @@
       </c>
       <c r="X14" t="s">
         <v>72</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
@@ -45834,11 +46311,14 @@
       </c>
       <c r="X15" t="s">
         <v>71</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -45908,11 +46388,14 @@
       </c>
       <c r="X16" t="s">
         <v>71</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B17" t="s">
         <v>69</v>
@@ -45981,12 +46464,15 @@
         <v>68</v>
       </c>
       <c r="X17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y17" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -46056,11 +46542,14 @@
       </c>
       <c r="X18" t="s">
         <v>68</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -46130,11 +46619,14 @@
       </c>
       <c r="X19" t="s">
         <v>71</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B20" t="s">
         <v>71</v>
@@ -46204,11 +46696,14 @@
       </c>
       <c r="X20" t="s">
         <v>69</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B21" t="s">
         <v>71</v>
@@ -46278,11 +46773,14 @@
       </c>
       <c r="X21" t="s">
         <v>72</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B22" t="s">
         <v>68</v>
@@ -46351,12 +46849,15 @@
         <v>67</v>
       </c>
       <c r="X22" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -46426,11 +46927,14 @@
       </c>
       <c r="X23" t="s">
         <v>69</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s">
         <v>67</v>
@@ -46500,6 +47004,9 @@
       </c>
       <c r="X24" t="s">
         <v>69</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -46608,7 +47115,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -46640,7 +47147,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>67</v>
@@ -46765,7 +47272,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
         <v>67</v>
@@ -46890,7 +47397,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>67</v>
@@ -47015,7 +47522,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -47140,7 +47647,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
@@ -47265,7 +47772,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
         <v>67</v>
@@ -47390,7 +47897,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B8" t="s">
         <v>67</v>
@@ -47515,7 +48022,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B9" t="s">
         <v>67</v>
@@ -47640,7 +48147,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B10" t="s">
         <v>67</v>
@@ -47765,7 +48272,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B11" t="s">
         <v>67</v>
@@ -47890,7 +48397,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
         <v>68</v>
@@ -48015,7 +48522,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
@@ -48140,7 +48647,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
         <v>68</v>
@@ -48265,7 +48772,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
         <v>67</v>
@@ -48390,7 +48897,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
         <v>67</v>
@@ -48515,7 +49022,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B17" t="s">
         <v>67</v>
@@ -48640,7 +49147,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B18" t="s">
         <v>67</v>
@@ -48765,7 +49272,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B19" t="s">
         <v>67</v>
@@ -48890,7 +49397,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B20" t="s">
         <v>67</v>
@@ -49015,7 +49522,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B21" t="s">
         <v>67</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16736" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17066" uniqueCount="521">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -393,6 +393,15 @@
   </si>
   <si>
     <t>X2021.11.01</t>
+  </si>
+  <si>
+    <t>X2021.11.30</t>
+  </si>
+  <si>
+    <t>X2021.12.01</t>
+  </si>
+  <si>
+    <t>X2021.12.02</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -4713,28 +4722,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -4743,7 +4752,7 @@
         <v>116</v>
       </c>
       <c r="M1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4755,13 +4764,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -4785,7 +4794,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4800,12 +4809,12 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -4903,7 +4912,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -5001,7 +5010,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s">
         <v>71</v>
@@ -5099,7 +5108,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -5197,7 +5206,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -5295,7 +5304,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -5393,7 +5402,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -5491,7 +5500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -5589,7 +5598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -5687,7 +5696,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -5785,7 +5794,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -5883,7 +5892,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -5981,7 +5990,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -6079,7 +6088,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -6177,7 +6186,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -6275,7 +6284,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -6373,7 +6382,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
         <v>75</v>
@@ -6471,7 +6480,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -6569,7 +6578,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -6667,7 +6676,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -6851,7 +6860,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -6862,7 +6871,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -6948,7 +6957,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -7034,7 +7043,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -7120,7 +7129,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -7206,7 +7215,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -7292,7 +7301,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -7378,7 +7387,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -7464,7 +7473,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -7550,7 +7559,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -7636,7 +7645,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -7722,7 +7731,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -7808,7 +7817,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B13" t="s">
         <v>72</v>
@@ -7894,7 +7903,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -7980,7 +7989,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -8116,10 +8125,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -8164,13 +8173,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AE1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AF1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8197,7 +8206,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8207,11 +8216,20 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -8340,12 +8358,21 @@
         <v>72</v>
       </c>
       <c r="AR2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -8475,11 +8502,20 @@
       </c>
       <c r="AR3" t="s">
         <v>72</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -8608,12 +8644,21 @@
         <v>70</v>
       </c>
       <c r="AR4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -8743,11 +8788,20 @@
       </c>
       <c r="AR5" t="s">
         <v>70</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -8876,12 +8930,21 @@
         <v>74</v>
       </c>
       <c r="AR6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -9011,11 +9074,20 @@
       </c>
       <c r="AR7" t="s">
         <v>72</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -9144,12 +9216,21 @@
         <v>72</v>
       </c>
       <c r="AR8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -9278,12 +9359,21 @@
         <v>71</v>
       </c>
       <c r="AR9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
         <v>71</v>
@@ -9412,12 +9502,21 @@
         <v>70</v>
       </c>
       <c r="AR10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -9547,11 +9646,20 @@
       </c>
       <c r="AR11" t="s">
         <v>73</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -9681,11 +9789,20 @@
       </c>
       <c r="AR12" t="s">
         <v>72</v>
+      </c>
+      <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -9815,11 +9932,20 @@
       </c>
       <c r="AR13" t="s">
         <v>72</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -9948,12 +10074,21 @@
         <v>70</v>
       </c>
       <c r="AR14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>74</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -10082,12 +10217,21 @@
         <v>71</v>
       </c>
       <c r="AR15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -10217,11 +10361,20 @@
       </c>
       <c r="AR16" t="s">
         <v>71</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -10351,11 +10504,20 @@
       </c>
       <c r="AR17" t="s">
         <v>71</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -10485,11 +10647,20 @@
       </c>
       <c r="AR18" t="s">
         <v>71</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -10619,11 +10790,20 @@
       </c>
       <c r="AR19" t="s">
         <v>72</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU19" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -10752,12 +10932,21 @@
         <v>74</v>
       </c>
       <c r="AR20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>75</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -10886,6 +11075,15 @@
         <v>73</v>
       </c>
       <c r="AR21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -10941,10 +11139,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -10980,10 +11178,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AB1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AC1" t="s">
         <v>119</v>
@@ -11013,12 +11211,18 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -11129,12 +11333,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -11245,12 +11455,18 @@
         <v>70</v>
       </c>
       <c r="AL3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -11361,12 +11577,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -11478,11 +11700,17 @@
       </c>
       <c r="AL5" t="s">
         <v>70</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -11594,11 +11822,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -11710,11 +11944,17 @@
       </c>
       <c r="AL7" t="s">
         <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -11825,12 +12065,18 @@
         <v>70</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -11941,12 +12187,18 @@
         <v>70</v>
       </c>
       <c r="AL9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -12058,11 +12310,17 @@
       </c>
       <c r="AL10" t="s">
         <v>71</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -12173,12 +12431,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -12289,12 +12553,18 @@
         <v>70</v>
       </c>
       <c r="AL12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -12405,12 +12675,18 @@
         <v>70</v>
       </c>
       <c r="AL13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -12522,11 +12798,17 @@
       </c>
       <c r="AL14" t="s">
         <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -12637,12 +12919,18 @@
         <v>70</v>
       </c>
       <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -12753,12 +13041,18 @@
         <v>70</v>
       </c>
       <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -12869,12 +13163,18 @@
         <v>70</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -12985,12 +13285,18 @@
         <v>70</v>
       </c>
       <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -13101,12 +13407,18 @@
         <v>70</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -13218,11 +13530,17 @@
       </c>
       <c r="AL20" t="s">
         <v>72</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -13333,6 +13651,12 @@
         <v>70</v>
       </c>
       <c r="AL21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -13394,7 +13718,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -13461,11 +13785,17 @@
       </c>
       <c r="AL1" t="s">
         <v>51</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -13576,12 +13906,18 @@
         <v>70</v>
       </c>
       <c r="AL2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN2" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -13693,11 +14029,17 @@
       </c>
       <c r="AL3" t="s">
         <v>72</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -13736,7 +14078,7 @@
         <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="O4" t="s">
         <v>70</v>
@@ -13808,12 +14150,18 @@
         <v>70</v>
       </c>
       <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -13925,11 +14273,17 @@
       </c>
       <c r="AL5" t="s">
         <v>72</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -14041,11 +14395,17 @@
       </c>
       <c r="AL6" t="s">
         <v>70</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -14156,12 +14516,18 @@
         <v>72</v>
       </c>
       <c r="AL7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -14272,12 +14638,18 @@
         <v>71</v>
       </c>
       <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -14389,11 +14761,17 @@
       </c>
       <c r="AL9" t="s">
         <v>71</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -14505,11 +14883,17 @@
       </c>
       <c r="AL10" t="s">
         <v>71</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -14620,12 +15004,18 @@
         <v>70</v>
       </c>
       <c r="AL11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -14737,11 +15127,17 @@
       </c>
       <c r="AL12" t="s">
         <v>71</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -14853,11 +15249,17 @@
       </c>
       <c r="AL13" t="s">
         <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -14969,11 +15371,17 @@
       </c>
       <c r="AL14" t="s">
         <v>72</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -15085,11 +15493,17 @@
       </c>
       <c r="AL15" t="s">
         <v>72</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -15201,11 +15615,17 @@
       </c>
       <c r="AL16" t="s">
         <v>72</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -15316,12 +15736,18 @@
         <v>72</v>
       </c>
       <c r="AL17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -15433,11 +15859,17 @@
       </c>
       <c r="AL18" t="s">
         <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -15548,6 +15980,12 @@
         <v>72</v>
       </c>
       <c r="AL19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="s">
         <v>70</v>
       </c>
     </row>
@@ -15576,7 +16014,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -15588,7 +16026,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -15630,7 +16068,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -15663,7 +16101,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -15696,12 +16134,15 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -15833,12 +16274,15 @@
         <v>70</v>
       </c>
       <c r="AS2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -15970,12 +16414,15 @@
         <v>70</v>
       </c>
       <c r="AS3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -16107,12 +16554,15 @@
         <v>70</v>
       </c>
       <c r="AS4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -16244,12 +16694,15 @@
         <v>70</v>
       </c>
       <c r="AS5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -16382,11 +16835,14 @@
       </c>
       <c r="AS6" t="s">
         <v>74</v>
+      </c>
+      <c r="AT6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -16518,12 +16974,15 @@
         <v>70</v>
       </c>
       <c r="AS7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -16655,12 +17114,15 @@
         <v>70</v>
       </c>
       <c r="AS8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -16792,12 +17254,15 @@
         <v>74</v>
       </c>
       <c r="AS9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -16929,12 +17394,15 @@
         <v>72</v>
       </c>
       <c r="AS10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -17066,12 +17534,15 @@
         <v>70</v>
       </c>
       <c r="AS11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -17203,12 +17674,15 @@
         <v>74</v>
       </c>
       <c r="AS12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -17340,12 +17814,15 @@
         <v>70</v>
       </c>
       <c r="AS13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -17477,12 +17954,15 @@
         <v>71</v>
       </c>
       <c r="AS14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -17615,11 +18095,14 @@
       </c>
       <c r="AS15" t="s">
         <v>74</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -17752,11 +18235,14 @@
       </c>
       <c r="AS16" t="s">
         <v>70</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -17888,12 +18374,15 @@
         <v>72</v>
       </c>
       <c r="AS17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -18025,12 +18514,15 @@
         <v>74</v>
       </c>
       <c r="AS18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AT18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -18163,6 +18655,9 @@
       </c>
       <c r="AS19" t="s">
         <v>70</v>
+      </c>
+      <c r="AT19" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -18238,7 +18733,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -18263,11 +18758,20 @@
       </c>
       <c r="AC1" t="s">
         <v>51</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -18352,11 +18856,20 @@
       </c>
       <c r="AC2" t="s">
         <v>74</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -18441,11 +18954,20 @@
       </c>
       <c r="AC3" t="s">
         <v>71</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -18529,12 +19051,21 @@
         <v>72</v>
       </c>
       <c r="AC4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -18618,12 +19149,21 @@
         <v>71</v>
       </c>
       <c r="AC5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -18708,11 +19248,20 @@
       </c>
       <c r="AC6" t="s">
         <v>70</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -18796,12 +19345,21 @@
         <v>71</v>
       </c>
       <c r="AC7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18886,11 +19444,20 @@
       </c>
       <c r="AC8" t="s">
         <v>73</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -18974,12 +19541,21 @@
         <v>73</v>
       </c>
       <c r="AC9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -19064,11 +19640,20 @@
       </c>
       <c r="AC10" t="s">
         <v>71</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -19152,12 +19737,21 @@
         <v>71</v>
       </c>
       <c r="AC11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s">
         <v>72</v>
@@ -19241,12 +19835,21 @@
         <v>74</v>
       </c>
       <c r="AC12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AF12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -19330,6 +19933,15 @@
         <v>74</v>
       </c>
       <c r="AC13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -19352,7 +19964,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -19364,7 +19976,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -19382,7 +19994,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -19397,7 +20009,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -19406,7 +20018,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -19417,7 +20029,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -19488,7 +20100,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -19559,7 +20171,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -19630,7 +20242,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -19701,7 +20313,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -19772,7 +20384,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -19843,7 +20455,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -19914,7 +20526,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -19985,7 +20597,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -20056,7 +20668,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -20159,7 +20771,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -20189,7 +20801,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -20197,7 +20809,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20256,7 +20868,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -20315,7 +20927,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -20374,7 +20986,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>71</v>
@@ -20433,7 +21045,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -20492,7 +21104,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -20551,7 +21163,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -20610,7 +21222,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>72</v>
@@ -20669,7 +21281,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -20728,7 +21340,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -20822,7 +21434,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -20858,24 +21470,24 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="W1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>72</v>
@@ -20952,7 +21564,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -21029,7 +21641,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -21106,7 +21718,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -21183,7 +21795,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -21260,7 +21872,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -21337,7 +21949,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -21414,7 +22026,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -21491,7 +22103,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -21568,7 +22180,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -23940,7 +24552,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -23982,10 +24594,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -24030,16 +24642,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AJ1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AK1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AL1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -24069,7 +24681,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -24081,12 +24693,15 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -24239,12 +24854,15 @@
         <v>70</v>
       </c>
       <c r="AZ2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -24398,11 +25016,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>70</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -24555,12 +25176,15 @@
         <v>71</v>
       </c>
       <c r="AZ4" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -24713,12 +25337,15 @@
         <v>70</v>
       </c>
       <c r="AZ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -24871,12 +25498,15 @@
         <v>71</v>
       </c>
       <c r="AZ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -25029,12 +25659,15 @@
         <v>75</v>
       </c>
       <c r="AZ7" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -25187,12 +25820,15 @@
         <v>70</v>
       </c>
       <c r="AZ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -25346,11 +25982,14 @@
       </c>
       <c r="AZ9" t="s">
         <v>71</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -25503,12 +26142,15 @@
         <v>72</v>
       </c>
       <c r="AZ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -25661,12 +26303,15 @@
         <v>70</v>
       </c>
       <c r="AZ11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -25819,12 +26464,15 @@
         <v>70</v>
       </c>
       <c r="AZ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -25977,12 +26625,15 @@
         <v>73</v>
       </c>
       <c r="AZ13" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -26135,12 +26786,15 @@
         <v>70</v>
       </c>
       <c r="AZ14" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -26294,11 +26948,14 @@
       </c>
       <c r="AZ15" t="s">
         <v>71</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -26452,11 +27109,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>70</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -26609,12 +27269,15 @@
         <v>74</v>
       </c>
       <c r="AZ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -26767,12 +27430,15 @@
         <v>71</v>
       </c>
       <c r="AZ18" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA18" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -26925,12 +27591,15 @@
         <v>70</v>
       </c>
       <c r="AZ19" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -27083,12 +27752,15 @@
         <v>70</v>
       </c>
       <c r="AZ20" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA20" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -27241,6 +27913,9 @@
         <v>70</v>
       </c>
       <c r="AZ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="BA21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -27269,7 +27944,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -27293,19 +27968,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="N1" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="O1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P1" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="Q1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -27329,7 +28004,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -27353,19 +28028,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="AH1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AI1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AJ1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AK1" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -27377,13 +28052,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AP1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AQ1" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -27395,7 +28070,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -27410,13 +28085,13 @@
         <v>119</v>
       </c>
       <c r="AZ1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="BA1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="BB1" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -27428,19 +28103,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="BG1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="BH1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BI1" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="BJ1" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -27452,7 +28127,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -27464,12 +28139,12 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -27681,7 +28356,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -27893,7 +28568,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -28105,7 +28780,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -28317,7 +28992,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -28529,7 +29204,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -28741,7 +29416,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -28953,7 +29628,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -29165,7 +29840,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s">
         <v>72</v>
@@ -29377,7 +30052,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -29589,7 +30264,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -29801,7 +30476,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -30013,7 +30688,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -30225,7 +30900,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -30437,7 +31112,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -30649,7 +31324,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -30861,7 +31536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -31073,7 +31748,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -31285,7 +31960,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -31497,7 +32172,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -31709,7 +32384,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -31921,7 +32596,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B23" t="s">
         <v>72</v>
@@ -32156,7 +32831,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -32198,7 +32873,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -32249,7 +32924,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -32279,7 +32954,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -32291,12 +32966,12 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -32448,7 +33123,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -32600,7 +33275,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -32752,7 +33427,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -32904,7 +33579,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -33056,7 +33731,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -33208,7 +33883,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -33360,7 +34035,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -33512,7 +34187,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -33664,7 +34339,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -33816,7 +34491,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -33968,7 +34643,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -34120,7 +34795,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -34272,7 +34947,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -34424,7 +35099,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -34576,7 +35251,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -34728,7 +35403,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -34880,7 +35555,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -35032,7 +35707,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -35184,7 +35859,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -38125,10 +38800,19 @@
       <c r="AJ1" t="s">
         <v>51</v>
       </c>
+      <c r="AK1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -38234,11 +38918,20 @@
       </c>
       <c r="AJ2" t="s">
         <v>70</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -38343,12 +39036,21 @@
         <v>71</v>
       </c>
       <c r="AJ3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>72</v>
@@ -38454,11 +39156,20 @@
       </c>
       <c r="AJ4" t="s">
         <v>72</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -38563,12 +39274,21 @@
         <v>72</v>
       </c>
       <c r="AJ5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -38673,12 +39393,21 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -38784,11 +39513,20 @@
       </c>
       <c r="AJ7" t="s">
         <v>71</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -38893,12 +39631,21 @@
         <v>74</v>
       </c>
       <c r="AJ8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -39004,11 +39751,20 @@
       </c>
       <c r="AJ9" t="s">
         <v>71</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -39113,12 +39869,21 @@
         <v>72</v>
       </c>
       <c r="AJ10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -39224,11 +39989,20 @@
       </c>
       <c r="AJ11" t="s">
         <v>74</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -39333,12 +40107,21 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM12" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -39444,11 +40227,20 @@
       </c>
       <c r="AJ13" t="s">
         <v>71</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -39554,11 +40346,20 @@
       </c>
       <c r="AJ14" t="s">
         <v>71</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -39663,12 +40464,21 @@
         <v>74</v>
       </c>
       <c r="AJ15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -39773,12 +40583,21 @@
         <v>72</v>
       </c>
       <c r="AJ16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>71</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -39883,12 +40702,21 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM17" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -39994,11 +40822,20 @@
       </c>
       <c r="AJ18" t="s">
         <v>70</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -40104,11 +40941,20 @@
       </c>
       <c r="AJ19" t="s">
         <v>75</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -40214,11 +41060,20 @@
       </c>
       <c r="AJ20" t="s">
         <v>74</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -40323,6 +41178,15 @@
         <v>72</v>
       </c>
       <c r="AJ21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM21" t="s">
         <v>70</v>
       </c>
     </row>
@@ -40354,10 +41218,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -40378,10 +41242,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -40393,10 +41257,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="T1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -40414,10 +41278,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="AA1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -40432,10 +41296,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="AG1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -40450,7 +41314,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AM1" t="s">
         <v>97</v>
@@ -40465,12 +41329,12 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -40601,7 +41465,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -40732,7 +41596,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -40863,7 +41727,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -40994,7 +41858,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -41125,7 +41989,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -41256,7 +42120,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -41387,7 +42251,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -41518,7 +42382,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -41649,7 +42513,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -41780,7 +42644,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -41911,7 +42775,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -42042,7 +42906,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -42173,7 +43037,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -42304,7 +43168,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -42435,7 +43299,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -42566,7 +43430,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -42697,7 +43561,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -42828,7 +43692,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -42959,7 +43823,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -43090,7 +43954,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -43221,7 +44085,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -43352,7 +44216,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -43483,7 +44347,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -43634,7 +44498,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -43646,34 +44510,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -43682,31 +44546,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Y1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Z1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -43717,7 +44581,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -43809,7 +44673,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -43901,7 +44765,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -43993,7 +44857,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -44085,7 +44949,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
         <v>71</v>
@@ -44177,7 +45041,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -44269,7 +45133,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -44361,7 +45225,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -44453,7 +45317,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -44545,7 +45409,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B11" t="s">
         <v>71</v>
@@ -44637,7 +45501,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -44729,7 +45593,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -44821,7 +45685,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -44913,7 +45777,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -45005,7 +45869,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -45097,7 +45961,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -45189,7 +46053,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -45281,7 +46145,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -45373,7 +46237,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
@@ -45465,7 +46329,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -45557,7 +46421,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -45649,7 +46513,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -45741,7 +46605,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s">
         <v>74</v>
@@ -45833,7 +46697,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -45945,13 +46809,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -45960,7 +46824,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -45969,13 +46833,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -45987,37 +46851,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="S1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Z1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -46028,7 +46892,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
         <v>71</v>
@@ -46120,7 +46984,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B3" t="s">
         <v>72</v>
@@ -46212,7 +47076,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -46304,7 +47168,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -46396,7 +47260,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
@@ -46488,7 +47352,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>71</v>
@@ -46580,7 +47444,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>72</v>
@@ -46672,7 +47536,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
         <v>71</v>
@@ -46764,7 +47628,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -46856,7 +47720,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
         <v>72</v>
@@ -46948,7 +47812,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -47040,7 +47904,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -47132,7 +47996,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s">
         <v>72</v>
@@ -47224,7 +48088,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -47316,7 +48180,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B16" t="s">
         <v>71</v>
@@ -47408,7 +48272,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B17" t="s">
         <v>71</v>
@@ -47500,7 +48364,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -47592,7 +48456,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s">
         <v>71</v>
@@ -47684,7 +48548,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -47776,7 +48640,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -47868,7 +48732,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -47960,7 +48824,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s">
         <v>71</v>
@@ -48052,7 +48916,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
@@ -48144,7 +49008,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B25" t="s">
         <v>71</v>
@@ -48256,61 +49120,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="O1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="P1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="U1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="V1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -48319,15 +49183,18 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -48403,11 +49270,14 @@
       </c>
       <c r="Z2" t="s">
         <v>72</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s">
         <v>71</v>
@@ -48483,11 +49353,14 @@
       </c>
       <c r="Z3" t="s">
         <v>74</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -48563,11 +49436,14 @@
       </c>
       <c r="Z4" t="s">
         <v>71</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
         <v>72</v>
@@ -48642,12 +49518,15 @@
         <v>71</v>
       </c>
       <c r="Z5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -48723,11 +49602,14 @@
       </c>
       <c r="Z6" t="s">
         <v>74</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
@@ -48802,12 +49684,15 @@
         <v>74</v>
       </c>
       <c r="Z7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B8" t="s">
         <v>71</v>
@@ -48883,11 +49768,14 @@
       </c>
       <c r="Z8" t="s">
         <v>74</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -48963,11 +49851,14 @@
       </c>
       <c r="Z9" t="s">
         <v>71</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -49042,12 +49933,15 @@
         <v>72</v>
       </c>
       <c r="Z10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -49122,12 +50016,15 @@
         <v>74</v>
       </c>
       <c r="Z11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA11" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -49203,11 +50100,14 @@
       </c>
       <c r="Z12" t="s">
         <v>74</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>71</v>
@@ -49283,11 +50183,14 @@
       </c>
       <c r="Z13" t="s">
         <v>71</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -49362,12 +50265,15 @@
         <v>70</v>
       </c>
       <c r="Z14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B15" t="s">
         <v>72</v>
@@ -49443,11 +50349,14 @@
       </c>
       <c r="Z15" t="s">
         <v>71</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -49522,12 +50431,15 @@
         <v>72</v>
       </c>
       <c r="Z16" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B17" t="s">
         <v>72</v>
@@ -49603,11 +50515,14 @@
       </c>
       <c r="Z17" t="s">
         <v>71</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -49683,11 +50598,14 @@
       </c>
       <c r="Z18" t="s">
         <v>71</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -49763,11 +50681,14 @@
       </c>
       <c r="Z19" t="s">
         <v>73</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -49843,11 +50764,14 @@
       </c>
       <c r="Z20" t="s">
         <v>75</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -49922,12 +50846,15 @@
         <v>73</v>
       </c>
       <c r="Z21" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA21" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B22" t="s">
         <v>71</v>
@@ -50003,11 +50930,14 @@
       </c>
       <c r="Z22" t="s">
         <v>74</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -50083,11 +51013,14 @@
       </c>
       <c r="Z23" t="s">
         <v>72</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -50163,6 +51096,9 @@
       </c>
       <c r="Z24" t="s">
         <v>71</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -50271,7 +51207,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -50308,11 +51244,14 @@
       </c>
       <c r="AR1" t="s">
         <v>51</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -50442,11 +51381,14 @@
       </c>
       <c r="AR2" t="s">
         <v>70</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -50576,11 +51518,14 @@
       </c>
       <c r="AR3" t="s">
         <v>74</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -50710,11 +51655,14 @@
       </c>
       <c r="AR4" t="s">
         <v>71</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -50844,11 +51792,14 @@
       </c>
       <c r="AR5" t="s">
         <v>71</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -50978,11 +51929,14 @@
       </c>
       <c r="AR6" t="s">
         <v>70</v>
+      </c>
+      <c r="AS6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>70</v>
@@ -51112,11 +52066,14 @@
       </c>
       <c r="AR7" t="s">
         <v>70</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>70</v>
@@ -51245,12 +52202,15 @@
         <v>70</v>
       </c>
       <c r="AR8" t="s">
+        <v>74</v>
+      </c>
+      <c r="AS8" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
@@ -51380,11 +52340,14 @@
       </c>
       <c r="AR9" t="s">
         <v>72</v>
+      </c>
+      <c r="AS9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -51513,12 +52476,15 @@
         <v>70</v>
       </c>
       <c r="AR10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -51648,11 +52614,14 @@
       </c>
       <c r="AR11" t="s">
         <v>70</v>
+      </c>
+      <c r="AS11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
         <v>71</v>
@@ -51781,12 +52750,15 @@
         <v>70</v>
       </c>
       <c r="AR12" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS12" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -51915,12 +52887,15 @@
         <v>70</v>
       </c>
       <c r="AR13" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>71</v>
@@ -52050,11 +53025,14 @@
       </c>
       <c r="AR14" t="s">
         <v>70</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -52184,11 +53162,14 @@
       </c>
       <c r="AR15" t="s">
         <v>70</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -52318,11 +53299,14 @@
       </c>
       <c r="AR16" t="s">
         <v>71</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -52452,11 +53436,14 @@
       </c>
       <c r="AR17" t="s">
         <v>72</v>
+      </c>
+      <c r="AS17" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>70</v>
@@ -52586,11 +53573,14 @@
       </c>
       <c r="AR18" t="s">
         <v>72</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
         <v>70</v>
@@ -52720,11 +53710,14 @@
       </c>
       <c r="AR19" t="s">
         <v>73</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
         <v>70</v>
@@ -52854,11 +53847,14 @@
       </c>
       <c r="AR20" t="s">
         <v>71</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -52988,6 +53984,9 @@
       </c>
       <c r="AR21" t="s">
         <v>71</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18155" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18303" uniqueCount="527">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -603,6 +603,12 @@
   </si>
   <si>
     <t>X2021.11.13</t>
+  </si>
+  <si>
+    <t>X2021.12.07</t>
+  </si>
+  <si>
+    <t>X2021.12.08</t>
   </si>
   <si>
     <t>Accrington</t>
@@ -4905,25 +4911,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
         <v>148</v>
@@ -4935,7 +4941,7 @@
         <v>119</v>
       </c>
       <c r="M1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -4977,7 +4983,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -4992,7 +4998,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5006,7 +5012,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -5113,7 +5119,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -5220,7 +5226,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s">
         <v>74</v>
@@ -5327,7 +5333,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -5434,7 +5440,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -5541,7 +5547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -5648,7 +5654,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -5755,7 +5761,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -5862,7 +5868,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -5969,7 +5975,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -6076,7 +6082,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -6183,7 +6189,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6290,7 +6296,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -6397,7 +6403,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -6504,7 +6510,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -6611,7 +6617,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -6718,7 +6724,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B18" t="s">
         <v>78</v>
@@ -6825,7 +6831,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -6932,7 +6938,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -7039,7 +7045,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -7232,7 +7238,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7252,7 +7258,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -7347,7 +7353,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
@@ -7442,7 +7448,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -7537,7 +7543,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -7632,7 +7638,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -7727,7 +7733,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -7822,7 +7828,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -7917,7 +7923,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -8012,7 +8018,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -8107,7 +8113,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -8202,7 +8208,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -8297,7 +8303,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B13" t="s">
         <v>75</v>
@@ -8392,7 +8398,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -8487,7 +8493,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -8632,7 +8638,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
@@ -8683,10 +8689,10 @@
         <v>187</v>
       </c>
       <c r="AE1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -8713,7 +8719,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -8745,7 +8751,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -8897,7 +8903,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -9049,7 +9055,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -9201,7 +9207,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -9353,7 +9359,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -9505,7 +9511,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -9657,7 +9663,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -9809,7 +9815,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -9961,7 +9967,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B10" t="s">
         <v>74</v>
@@ -10113,7 +10119,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -10265,7 +10271,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -10417,7 +10423,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -10569,7 +10575,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -10721,7 +10727,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -10873,7 +10879,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -11025,7 +11031,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -11177,7 +11183,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -11329,7 +11335,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -11481,7 +11487,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -11633,7 +11639,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -11835,7 +11841,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="O1" t="s">
         <v>185</v>
@@ -11874,10 +11880,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AB1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s">
         <v>122</v>
@@ -11927,7 +11933,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -12058,7 +12064,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -12189,7 +12195,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -12320,7 +12326,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -12451,7 +12457,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -12582,7 +12588,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -12713,7 +12719,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -12844,7 +12850,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -12975,7 +12981,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -13106,7 +13112,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -13237,7 +13243,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -13368,7 +13374,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -13499,7 +13505,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s">
         <v>77</v>
@@ -13630,7 +13636,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -13761,7 +13767,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -13892,7 +13898,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -14023,7 +14029,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -14154,7 +14160,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -14285,7 +14291,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -14416,7 +14422,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -14689,7 +14695,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -14820,7 +14826,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -14951,7 +14957,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -14990,7 +14996,7 @@
         <v>73</v>
       </c>
       <c r="N4" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O4" t="s">
         <v>73</v>
@@ -15082,7 +15088,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -15213,7 +15219,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -15344,7 +15350,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -15475,7 +15481,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -15606,7 +15612,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -15737,7 +15743,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -15868,7 +15874,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -15999,7 +16005,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -16130,7 +16136,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -16261,7 +16267,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -16392,7 +16398,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -16523,7 +16529,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -16654,7 +16660,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -16785,7 +16791,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -16916,7 +16922,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -17070,7 +17076,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -17082,7 +17088,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -17124,7 +17130,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -17157,7 +17163,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -17207,7 +17213,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -17356,7 +17362,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -17505,7 +17511,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -17654,7 +17660,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -17803,7 +17809,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -17952,7 +17958,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -18101,7 +18107,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -18250,7 +18256,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -18399,7 +18405,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -18548,7 +18554,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -18697,7 +18703,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -18846,7 +18852,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -18995,7 +19001,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -19144,7 +19150,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -19293,7 +19299,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -19442,7 +19448,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -19591,7 +19597,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -19740,7 +19746,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -19960,7 +19966,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -20000,11 +20006,14 @@
       </c>
       <c r="AH1" t="s">
         <v>54</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -20103,12 +20112,15 @@
         <v>74</v>
       </c>
       <c r="AH2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -20208,11 +20220,14 @@
       </c>
       <c r="AH3" t="s">
         <v>75</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -20311,12 +20326,15 @@
         <v>76</v>
       </c>
       <c r="AH4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -20416,11 +20434,14 @@
       </c>
       <c r="AH5" t="s">
         <v>76</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -20520,11 +20541,14 @@
       </c>
       <c r="AH6" t="s">
         <v>75</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -20624,11 +20648,14 @@
       </c>
       <c r="AH7" t="s">
         <v>73</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -20728,11 +20755,14 @@
       </c>
       <c r="AH8" t="s">
         <v>74</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -20831,12 +20861,15 @@
         <v>74</v>
       </c>
       <c r="AH9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -20935,12 +20968,15 @@
         <v>75</v>
       </c>
       <c r="AH10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -21039,12 +21075,15 @@
         <v>73</v>
       </c>
       <c r="AH11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI11" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B12" t="s">
         <v>75</v>
@@ -21143,12 +21182,15 @@
         <v>73</v>
       </c>
       <c r="AH12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -21247,6 +21289,9 @@
         <v>78</v>
       </c>
       <c r="AH13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI13" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21269,7 +21314,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -21281,7 +21326,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -21340,7 +21385,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -21417,7 +21462,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -21494,7 +21539,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -21571,7 +21616,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -21648,7 +21693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -21725,7 +21770,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -21802,7 +21847,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -21879,7 +21924,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -21956,7 +22001,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -22033,7 +22078,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -22180,10 +22225,13 @@
       <c r="T1" t="s">
         <v>53</v>
       </c>
+      <c r="U1" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -22241,11 +22289,14 @@
       </c>
       <c r="T2" t="s">
         <v>73</v>
+      </c>
+      <c r="U2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -22303,11 +22354,14 @@
       </c>
       <c r="T3" t="s">
         <v>74</v>
+      </c>
+      <c r="U3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -22365,11 +22419,14 @@
       </c>
       <c r="T4" t="s">
         <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>74</v>
@@ -22427,11 +22484,14 @@
       </c>
       <c r="T5" t="s">
         <v>75</v>
+      </c>
+      <c r="U5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -22489,11 +22549,14 @@
       </c>
       <c r="T6" t="s">
         <v>77</v>
+      </c>
+      <c r="U6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -22551,11 +22614,14 @@
       </c>
       <c r="T7" t="s">
         <v>74</v>
+      </c>
+      <c r="U7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -22613,11 +22679,14 @@
       </c>
       <c r="T8" t="s">
         <v>80</v>
+      </c>
+      <c r="U8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
         <v>75</v>
@@ -22675,11 +22744,14 @@
       </c>
       <c r="T9" t="s">
         <v>73</v>
+      </c>
+      <c r="U9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -22737,11 +22809,14 @@
       </c>
       <c r="T10" t="s">
         <v>77</v>
+      </c>
+      <c r="U10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -22799,6 +22874,9 @@
       </c>
       <c r="T11" t="s">
         <v>75</v>
+      </c>
+      <c r="U11" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -22838,7 +22916,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -22874,7 +22952,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s">
         <v>188</v>
@@ -22897,7 +22975,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B2" t="s">
         <v>75</v>
@@ -22980,7 +23058,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
@@ -23063,7 +23141,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -23146,7 +23224,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -23229,7 +23307,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -23312,7 +23390,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -23395,7 +23473,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -23478,7 +23556,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -23561,7 +23639,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -23644,7 +23722,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -26193,7 +26271,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -26235,7 +26313,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="T1" t="s">
         <v>185</v>
@@ -26283,16 +26361,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AJ1" t="s">
         <v>187</v>
       </c>
       <c r="AK1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AL1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -26322,7 +26400,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -26354,7 +26432,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -26527,7 +26605,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -26700,7 +26778,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -26873,7 +26951,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -27046,7 +27124,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -27219,7 +27297,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -27392,7 +27470,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -27565,7 +27643,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -27738,7 +27816,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -27911,7 +27989,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -28084,7 +28162,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -28257,7 +28335,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -28430,7 +28508,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -28603,7 +28681,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -28776,7 +28854,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -28949,7 +29027,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -29122,7 +29200,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -29295,7 +29373,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -29468,7 +29546,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -29641,7 +29719,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -29837,7 +29915,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29861,16 +29939,16 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="N1" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O1" t="s">
         <v>183</v>
       </c>
       <c r="P1" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Q1" t="s">
         <v>184</v>
@@ -29897,7 +29975,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -29921,19 +29999,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AH1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AI1" t="s">
         <v>186</v>
       </c>
       <c r="AJ1" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AK1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -29951,7 +30029,7 @@
         <v>154</v>
       </c>
       <c r="AQ1" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -29963,7 +30041,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -29984,7 +30062,7 @@
         <v>156</v>
       </c>
       <c r="BB1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -29996,7 +30074,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="BG1" t="s">
         <v>188</v>
@@ -30005,10 +30083,10 @@
         <v>189</v>
       </c>
       <c r="BI1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="BJ1" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -30020,7 +30098,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -30049,7 +30127,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -30273,7 +30351,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -30497,7 +30575,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -30721,7 +30799,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -30945,7 +31023,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -31169,7 +31247,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -31393,7 +31471,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -31617,7 +31695,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -31841,7 +31919,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
         <v>75</v>
@@ -32065,7 +32143,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -32289,7 +32367,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -32513,7 +32591,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -32737,7 +32815,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -32961,7 +33039,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -33185,7 +33263,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -33409,7 +33487,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -33633,7 +33711,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -33857,7 +33935,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -34081,7 +34159,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -34305,7 +34383,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -34529,7 +34607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B22" t="s">
         <v>73</v>
@@ -34753,7 +34831,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
         <v>75</v>
@@ -35000,7 +35078,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35093,7 +35171,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -35123,7 +35201,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -35152,7 +35230,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -35316,7 +35394,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -35480,7 +35558,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -35644,7 +35722,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -35808,7 +35886,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -35972,7 +36050,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -36136,7 +36214,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -36300,7 +36378,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -36464,7 +36542,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -36628,7 +36706,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -36792,7 +36870,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s">
         <v>73</v>
@@ -36956,7 +37034,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -37120,7 +37198,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s">
         <v>73</v>
@@ -37284,7 +37362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -37448,7 +37526,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -37612,7 +37690,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -37776,7 +37854,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -37940,7 +38018,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -38104,7 +38182,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -38268,7 +38346,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>
@@ -47587,10 +47665,16 @@
       <c r="AE1" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -47681,11 +47765,17 @@
       </c>
       <c r="AE2" t="s">
         <v>74</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -47775,12 +47865,18 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -47870,12 +47966,18 @@
         <v>73</v>
       </c>
       <c r="AE4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -47965,12 +48067,18 @@
         <v>73</v>
       </c>
       <c r="AE5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -48060,12 +48168,18 @@
         <v>73</v>
       </c>
       <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -48155,12 +48269,18 @@
         <v>73</v>
       </c>
       <c r="AE7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -48250,12 +48370,18 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -48345,12 +48471,18 @@
         <v>77</v>
       </c>
       <c r="AE9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -48440,12 +48572,18 @@
         <v>73</v>
       </c>
       <c r="AE10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B11" t="s">
         <v>74</v>
@@ -48536,11 +48674,17 @@
       </c>
       <c r="AE11" t="s">
         <v>79</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -48630,12 +48774,18 @@
         <v>73</v>
       </c>
       <c r="AE12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -48725,12 +48875,18 @@
         <v>74</v>
       </c>
       <c r="AE13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -48820,12 +48976,18 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -48916,11 +49078,17 @@
       </c>
       <c r="AE15" t="s">
         <v>73</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -49010,12 +49178,18 @@
         <v>73</v>
       </c>
       <c r="AE16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG16" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -49106,11 +49280,17 @@
       </c>
       <c r="AE17" t="s">
         <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
         <v>77</v>
@@ -49201,11 +49381,17 @@
       </c>
       <c r="AE18" t="s">
         <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s">
         <v>75</v>
@@ -49295,12 +49481,18 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s">
         <v>75</v>
@@ -49390,12 +49582,18 @@
         <v>73</v>
       </c>
       <c r="AE20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG20" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -49485,12 +49683,18 @@
         <v>73</v>
       </c>
       <c r="AE21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -49581,11 +49785,17 @@
       </c>
       <c r="AE22" t="s">
         <v>73</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -49676,11 +49886,17 @@
       </c>
       <c r="AE23" t="s">
         <v>74</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
@@ -49771,11 +49987,17 @@
       </c>
       <c r="AE24" t="s">
         <v>73</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -49865,6 +50087,12 @@
         <v>73</v>
       </c>
       <c r="AE25" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG25" t="s">
         <v>73</v>
       </c>
     </row>
@@ -49896,7 +50124,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -49932,7 +50160,7 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="S1" t="s">
         <v>186</v>
@@ -49969,11 +50197,17 @@
       </c>
       <c r="AD1" t="s">
         <v>50</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s">
         <v>74</v>
@@ -50061,11 +50295,17 @@
       </c>
       <c r="AD2" t="s">
         <v>74</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
         <v>75</v>
@@ -50153,11 +50393,17 @@
       </c>
       <c r="AD3" t="s">
         <v>74</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -50245,11 +50491,17 @@
       </c>
       <c r="AD4" t="s">
         <v>77</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -50337,11 +50589,17 @@
       </c>
       <c r="AD5" t="s">
         <v>75</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B6" t="s">
         <v>75</v>
@@ -50429,11 +50687,17 @@
       </c>
       <c r="AD6" t="s">
         <v>73</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
@@ -50521,11 +50785,17 @@
       </c>
       <c r="AD7" t="s">
         <v>77</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>75</v>
@@ -50613,11 +50883,17 @@
       </c>
       <c r="AD8" t="s">
         <v>74</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -50705,11 +50981,17 @@
       </c>
       <c r="AD9" t="s">
         <v>75</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -50797,11 +51079,17 @@
       </c>
       <c r="AD10" t="s">
         <v>74</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B11" t="s">
         <v>75</v>
@@ -50889,11 +51177,17 @@
       </c>
       <c r="AD11" t="s">
         <v>77</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -50981,11 +51275,17 @@
       </c>
       <c r="AD12" t="s">
         <v>74</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -51073,11 +51373,17 @@
       </c>
       <c r="AD13" t="s">
         <v>74</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s">
         <v>75</v>
@@ -51164,12 +51470,18 @@
         <v>74</v>
       </c>
       <c r="AD14" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -51257,11 +51569,17 @@
       </c>
       <c r="AD15" t="s">
         <v>75</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s">
         <v>74</v>
@@ -51349,11 +51667,17 @@
       </c>
       <c r="AD16" t="s">
         <v>77</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B17" t="s">
         <v>74</v>
@@ -51441,11 +51765,17 @@
       </c>
       <c r="AD17" t="s">
         <v>75</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -51533,11 +51863,17 @@
       </c>
       <c r="AD18" t="s">
         <v>74</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -51625,11 +51961,17 @@
       </c>
       <c r="AD19" t="s">
         <v>75</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>73</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -51717,11 +52059,17 @@
       </c>
       <c r="AD20" t="s">
         <v>74</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s">
         <v>75</v>
@@ -51808,12 +52156,18 @@
         <v>73</v>
       </c>
       <c r="AD21" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B22" t="s">
         <v>77</v>
@@ -51901,11 +52255,17 @@
       </c>
       <c r="AD22" t="s">
         <v>75</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s">
         <v>74</v>
@@ -51993,11 +52353,17 @@
       </c>
       <c r="AD23" t="s">
         <v>74</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B24" t="s">
         <v>75</v>
@@ -52084,12 +52450,18 @@
         <v>73</v>
       </c>
       <c r="AD24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF24" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -52177,6 +52549,12 @@
       </c>
       <c r="AD25" t="s">
         <v>74</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -52201,10 +52579,10 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F1" t="s">
         <v>183</v>
@@ -52231,13 +52609,13 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O1" t="s">
         <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -52252,7 +52630,7 @@
         <v>155</v>
       </c>
       <c r="U1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="V1" t="s">
         <v>189</v>
@@ -52274,11 +52652,14 @@
       </c>
       <c r="AB1" t="s">
         <v>53</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -52360,11 +52741,14 @@
       </c>
       <c r="AB2" t="s">
         <v>77</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
         <v>74</v>
@@ -52446,11 +52830,14 @@
       </c>
       <c r="AB3" t="s">
         <v>77</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -52532,11 +52919,14 @@
       </c>
       <c r="AB4" t="s">
         <v>75</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>75</v>
@@ -52617,12 +53007,15 @@
         <v>73</v>
       </c>
       <c r="AB5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -52704,11 +53097,14 @@
       </c>
       <c r="AB6" t="s">
         <v>77</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>75</v>
@@ -52789,12 +53185,15 @@
         <v>73</v>
       </c>
       <c r="AB7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
@@ -52876,11 +53275,14 @@
       </c>
       <c r="AB8" t="s">
         <v>77</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -52962,11 +53364,14 @@
       </c>
       <c r="AB9" t="s">
         <v>74</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -53047,12 +53452,15 @@
         <v>73</v>
       </c>
       <c r="AB10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC10" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -53134,11 +53542,14 @@
       </c>
       <c r="AB11" t="s">
         <v>76</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B12" t="s">
         <v>77</v>
@@ -53219,12 +53630,15 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC12" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -53305,12 +53719,15 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -53392,11 +53809,14 @@
       </c>
       <c r="AB14" t="s">
         <v>76</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>75</v>
@@ -53477,12 +53897,15 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -53564,11 +53987,14 @@
       </c>
       <c r="AB16" t="s">
         <v>75</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B17" t="s">
         <v>75</v>
@@ -53650,11 +54076,14 @@
       </c>
       <c r="AB17" t="s">
         <v>73</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -53735,12 +54164,15 @@
         <v>73</v>
       </c>
       <c r="AB18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -53822,11 +54254,14 @@
       </c>
       <c r="AB19" t="s">
         <v>74</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B20" t="s">
         <v>77</v>
@@ -53908,11 +54343,14 @@
       </c>
       <c r="AB20" t="s">
         <v>76</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B21" t="s">
         <v>77</v>
@@ -53994,11 +54432,14 @@
       </c>
       <c r="AB21" t="s">
         <v>77</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
@@ -54080,11 +54521,14 @@
       </c>
       <c r="AB22" t="s">
         <v>77</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B23" t="s">
         <v>77</v>
@@ -54166,11 +54610,14 @@
       </c>
       <c r="AB23" t="s">
         <v>75</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B24" t="s">
         <v>73</v>
@@ -54251,6 +54698,9 @@
         <v>75</v>
       </c>
       <c r="AB24" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC24" t="s">
         <v>73</v>
       </c>
     </row>
@@ -54360,7 +54810,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -54410,7 +54860,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s">
         <v>73</v>
@@ -54553,7 +55003,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -54696,7 +55146,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B4" t="s">
         <v>73</v>
@@ -54839,7 +55289,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B5" t="s">
         <v>73</v>
@@ -54982,7 +55432,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B6" t="s">
         <v>73</v>
@@ -55125,7 +55575,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B7" t="s">
         <v>73</v>
@@ -55268,7 +55718,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -55411,7 +55861,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B9" t="s">
         <v>73</v>
@@ -55554,7 +56004,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B10" t="s">
         <v>73</v>
@@ -55697,7 +56147,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>73</v>
@@ -55840,7 +56290,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
@@ -55983,7 +56433,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
         <v>73</v>
@@ -56126,7 +56576,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -56269,7 +56719,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
         <v>73</v>
@@ -56412,7 +56862,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B16" t="s">
         <v>73</v>
@@ -56555,7 +57005,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B17" t="s">
         <v>73</v>
@@ -56698,7 +57148,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B18" t="s">
         <v>73</v>
@@ -56841,7 +57291,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B19" t="s">
         <v>73</v>
@@ -56984,7 +57434,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B20" t="s">
         <v>73</v>
@@ -57127,7 +57577,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B21" t="s">
         <v>73</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19255" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19381" uniqueCount="531">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -938,6 +938,9 @@
     <t>X2021.11.22</t>
   </si>
   <si>
+    <t>X2021.12.13</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -5192,10 +5195,13 @@
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
+      <c r="AK1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B2" t="s">
         <v>80</v>
@@ -5301,11 +5307,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -5411,11 +5420,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>77</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
@@ -5521,11 +5533,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>78</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -5631,11 +5646,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>80</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -5741,11 +5759,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>78</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -5851,11 +5872,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>80</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -5961,11 +5985,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>80</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
         <v>81</v>
@@ -6071,11 +6098,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>81</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -6181,11 +6211,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>80</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -6291,11 +6324,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>77</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B12" t="s">
         <v>80</v>
@@ -6401,11 +6437,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>80</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
@@ -6511,11 +6550,14 @@
       </c>
       <c r="AJ13" t="s">
         <v>77</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -6621,11 +6663,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>80</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B15" t="s">
         <v>78</v>
@@ -6731,11 +6776,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>77</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B16" t="s">
         <v>77</v>
@@ -6841,11 +6889,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>80</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B17" t="s">
         <v>77</v>
@@ -6951,11 +7002,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>77</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B18" t="s">
         <v>81</v>
@@ -7061,11 +7115,14 @@
       </c>
       <c r="AJ18" t="s">
         <v>76</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -7171,11 +7228,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>80</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B20" t="s">
         <v>80</v>
@@ -7281,11 +7341,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>76</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
@@ -7391,6 +7454,9 @@
       </c>
       <c r="AJ21" t="s">
         <v>81</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -7507,7 +7573,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -7608,7 +7674,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -7709,7 +7775,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -7810,7 +7876,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B5" t="s">
         <v>78</v>
@@ -7911,7 +7977,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -8012,7 +8078,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -8113,7 +8179,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -8214,7 +8280,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -8315,7 +8381,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -8416,7 +8482,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -8517,7 +8583,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -8618,7 +8684,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B13" t="s">
         <v>78</v>
@@ -8719,7 +8785,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -8820,7 +8886,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -8971,7 +9037,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O1" t="s">
         <v>188</v>
@@ -9025,7 +9091,7 @@
         <v>273</v>
       </c>
       <c r="AF1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9089,11 +9155,14 @@
       </c>
       <c r="BA1" t="s">
         <v>57</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -9250,11 +9319,14 @@
       </c>
       <c r="BA2" t="s">
         <v>77</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -9411,11 +9483,14 @@
       </c>
       <c r="BA3" t="s">
         <v>80</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -9572,11 +9647,14 @@
       </c>
       <c r="BA4" t="s">
         <v>81</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s">
         <v>79</v>
@@ -9733,11 +9811,14 @@
       </c>
       <c r="BA5" t="s">
         <v>78</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -9893,12 +9974,15 @@
         <v>78</v>
       </c>
       <c r="BA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s">
         <v>81</v>
@@ -10054,12 +10138,15 @@
         <v>76</v>
       </c>
       <c r="BA7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -10216,11 +10303,14 @@
       </c>
       <c r="BA8" t="s">
         <v>78</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -10376,12 +10466,15 @@
         <v>77</v>
       </c>
       <c r="BA9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B10" t="s">
         <v>77</v>
@@ -10538,11 +10631,14 @@
       </c>
       <c r="BA10" t="s">
         <v>80</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -10698,12 +10794,15 @@
         <v>77</v>
       </c>
       <c r="BA11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -10860,11 +10959,14 @@
       </c>
       <c r="BA12" t="s">
         <v>77</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -11021,11 +11123,14 @@
       </c>
       <c r="BA13" t="s">
         <v>76</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -11181,12 +11286,15 @@
         <v>81</v>
       </c>
       <c r="BA14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -11342,12 +11450,15 @@
         <v>76</v>
       </c>
       <c r="BA15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B16" t="s">
         <v>80</v>
@@ -11504,11 +11615,14 @@
       </c>
       <c r="BA16" t="s">
         <v>77</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -11665,11 +11779,14 @@
       </c>
       <c r="BA17" t="s">
         <v>76</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B18" t="s">
         <v>80</v>
@@ -11826,11 +11943,14 @@
       </c>
       <c r="BA18" t="s">
         <v>77</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -11986,12 +12106,15 @@
         <v>77</v>
       </c>
       <c r="BA19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -12147,12 +12270,15 @@
         <v>77</v>
       </c>
       <c r="BA20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BB20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B21" t="s">
         <v>79</v>
@@ -12309,6 +12435,9 @@
       </c>
       <c r="BA21" t="s">
         <v>80</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -12363,7 +12492,7 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="O1" t="s">
         <v>188</v>
@@ -12405,7 +12534,7 @@
         <v>273</v>
       </c>
       <c r="AB1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AC1" t="s">
         <v>125</v>
@@ -12464,7 +12593,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -12604,7 +12733,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -12744,7 +12873,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -12884,7 +13013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -13024,7 +13153,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -13164,7 +13293,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -13304,7 +13433,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -13444,7 +13573,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -13584,7 +13713,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -13724,7 +13853,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s">
         <v>80</v>
@@ -13864,7 +13993,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -14004,7 +14133,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -14144,7 +14273,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -14284,7 +14413,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -14424,7 +14553,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -14564,7 +14693,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -14704,7 +14833,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -14844,7 +14973,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -14984,7 +15113,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -15124,7 +15253,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -15415,7 +15544,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -15555,7 +15684,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -15695,7 +15824,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -15734,7 +15863,7 @@
         <v>76</v>
       </c>
       <c r="N4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="O4" t="s">
         <v>76</v>
@@ -15835,7 +15964,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -15975,7 +16104,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -16115,7 +16244,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -16255,7 +16384,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -16395,7 +16524,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -16535,7 +16664,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -16675,7 +16804,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -16815,7 +16944,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -16955,7 +17084,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -17095,7 +17224,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -17235,7 +17364,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -17375,7 +17504,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -17515,7 +17644,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -17655,7 +17784,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -17795,7 +17924,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -17958,7 +18087,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -18012,7 +18141,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -18100,11 +18229,14 @@
       </c>
       <c r="AZ1" t="s">
         <v>57</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -18258,11 +18390,14 @@
       </c>
       <c r="AZ2" t="s">
         <v>76</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -18416,11 +18551,14 @@
       </c>
       <c r="AZ3" t="s">
         <v>77</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -18574,11 +18712,14 @@
       </c>
       <c r="AZ4" t="s">
         <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -18731,12 +18872,15 @@
         <v>80</v>
       </c>
       <c r="AZ5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -18890,11 +19034,14 @@
       </c>
       <c r="AZ6" t="s">
         <v>78</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -19048,11 +19195,14 @@
       </c>
       <c r="AZ7" t="s">
         <v>81</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -19205,12 +19355,15 @@
         <v>76</v>
       </c>
       <c r="AZ8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -19363,12 +19516,15 @@
         <v>80</v>
       </c>
       <c r="AZ9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -19521,12 +19677,15 @@
         <v>77</v>
       </c>
       <c r="AZ10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -19680,11 +19839,14 @@
       </c>
       <c r="AZ11" t="s">
         <v>77</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -19837,12 +19999,15 @@
         <v>76</v>
       </c>
       <c r="AZ12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -19996,11 +20161,14 @@
       </c>
       <c r="AZ13" t="s">
         <v>78</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -20154,11 +20322,14 @@
       </c>
       <c r="AZ14" t="s">
         <v>78</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -20311,12 +20482,15 @@
         <v>81</v>
       </c>
       <c r="AZ15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -20470,11 +20644,14 @@
       </c>
       <c r="AZ16" t="s">
         <v>77</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B17" t="s">
         <v>78</v>
@@ -20627,12 +20804,15 @@
         <v>78</v>
       </c>
       <c r="AZ17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -20785,12 +20965,15 @@
         <v>82</v>
       </c>
       <c r="AZ18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BA18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B19" t="s">
         <v>79</v>
@@ -20944,6 +21127,9 @@
       </c>
       <c r="AZ19" t="s">
         <v>76</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -21072,7 +21258,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -21185,7 +21371,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -21298,7 +21484,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -21411,7 +21597,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -21524,7 +21710,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -21637,7 +21823,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -21750,7 +21936,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -21863,7 +22049,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -21976,7 +22162,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -22089,7 +22275,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -22202,7 +22388,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
@@ -22315,7 +22501,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>80</v>
@@ -22457,7 +22643,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -22522,7 +22708,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s">
         <v>77</v>
@@ -22605,7 +22791,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -22688,7 +22874,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -22771,7 +22957,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -22854,7 +23040,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -22937,7 +23123,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -23020,7 +23206,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>80</v>
@@ -23103,7 +23289,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B9" t="s">
         <v>80</v>
@@ -23186,7 +23372,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
@@ -23269,7 +23455,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s">
         <v>81</v>
@@ -23431,7 +23617,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s">
         <v>79</v>
@@ -23499,7 +23685,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -23567,7 +23753,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
@@ -23635,7 +23821,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
@@ -23703,7 +23889,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -23771,7 +23957,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
@@ -23839,7 +24025,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" t="s">
         <v>77</v>
@@ -23907,7 +24093,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
@@ -23975,7 +24161,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24043,7 +24229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -24208,7 +24394,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
@@ -24294,7 +24480,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s">
         <v>80</v>
@@ -24380,7 +24566,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B4" t="s">
         <v>80</v>
@@ -24466,7 +24652,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s">
         <v>80</v>
@@ -24552,7 +24738,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
@@ -24638,7 +24824,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
@@ -24724,7 +24910,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -24810,7 +24996,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s">
         <v>77</v>
@@ -24896,7 +25082,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -24982,7 +25168,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -27747,7 +27933,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="T1" t="s">
         <v>188</v>
@@ -27804,7 +27990,7 @@
         <v>273</v>
       </c>
       <c r="AL1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -27871,11 +28057,14 @@
       </c>
       <c r="BH1" t="s">
         <v>57</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -28052,12 +28241,15 @@
         <v>77</v>
       </c>
       <c r="BH2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI2" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -28234,12 +28426,15 @@
         <v>77</v>
       </c>
       <c r="BH3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -28417,11 +28612,14 @@
       </c>
       <c r="BH4" t="s">
         <v>80</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -28599,11 +28797,14 @@
       </c>
       <c r="BH5" t="s">
         <v>80</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -28781,11 +28982,14 @@
       </c>
       <c r="BH6" t="s">
         <v>78</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -28963,11 +29167,14 @@
       </c>
       <c r="BH7" t="s">
         <v>76</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -29144,12 +29351,15 @@
         <v>76</v>
       </c>
       <c r="BH8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -29326,12 +29536,15 @@
         <v>80</v>
       </c>
       <c r="BH9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -29508,12 +29721,15 @@
         <v>79</v>
       </c>
       <c r="BH10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s">
         <v>77</v>
@@ -29690,12 +29906,15 @@
         <v>77</v>
       </c>
       <c r="BH11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -29873,11 +30092,14 @@
       </c>
       <c r="BH12" t="s">
         <v>76</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -30054,12 +30276,15 @@
         <v>81</v>
       </c>
       <c r="BH13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -30236,12 +30461,15 @@
         <v>76</v>
       </c>
       <c r="BH14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -30419,11 +30647,14 @@
       </c>
       <c r="BH15" t="s">
         <v>80</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -30601,11 +30832,14 @@
       </c>
       <c r="BH16" t="s">
         <v>78</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -30782,12 +31016,15 @@
         <v>78</v>
       </c>
       <c r="BH17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -30965,11 +31202,14 @@
       </c>
       <c r="BH18" t="s">
         <v>81</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s">
         <v>78</v>
@@ -31146,12 +31386,15 @@
         <v>77</v>
       </c>
       <c r="BH19" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -31329,11 +31572,14 @@
       </c>
       <c r="BH20" t="s">
         <v>80</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -31511,6 +31757,9 @@
       </c>
       <c r="BH21" t="s">
         <v>78</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -31565,13 +31814,13 @@
         <v>245</v>
       </c>
       <c r="N1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O1" t="s">
         <v>186</v>
       </c>
       <c r="P1" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q1" t="s">
         <v>187</v>
@@ -31598,7 +31847,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -31622,7 +31871,7 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AH1" t="s">
         <v>220</v>
@@ -31631,10 +31880,10 @@
         <v>189</v>
       </c>
       <c r="AJ1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AK1" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -31652,7 +31901,7 @@
         <v>157</v>
       </c>
       <c r="AQ1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -31685,7 +31934,7 @@
         <v>159</v>
       </c>
       <c r="BB1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -31697,7 +31946,7 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="BG1" t="s">
         <v>191</v>
@@ -31706,10 +31955,10 @@
         <v>192</v>
       </c>
       <c r="BI1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="BJ1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -31755,11 +32004,14 @@
       </c>
       <c r="BY1" t="s">
         <v>57</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -31988,11 +32240,14 @@
       </c>
       <c r="BY2" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -32220,12 +32475,15 @@
         <v>78</v>
       </c>
       <c r="BY3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -32454,11 +32712,14 @@
       </c>
       <c r="BY4" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -32686,12 +32947,15 @@
         <v>78</v>
       </c>
       <c r="BY5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B6" t="s">
         <v>76</v>
@@ -32920,11 +33184,14 @@
       </c>
       <c r="BY6" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>80</v>
@@ -33152,12 +33419,15 @@
         <v>80</v>
       </c>
       <c r="BY7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -33385,12 +33655,15 @@
         <v>80</v>
       </c>
       <c r="BY8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ8" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -33618,12 +33891,15 @@
         <v>77</v>
       </c>
       <c r="BY9" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -33851,12 +34127,15 @@
         <v>76</v>
       </c>
       <c r="BY10" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
@@ -34084,12 +34363,15 @@
         <v>77</v>
       </c>
       <c r="BY11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ11" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -34318,11 +34600,14 @@
       </c>
       <c r="BY12" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ12" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -34551,11 +34836,14 @@
       </c>
       <c r="BY13" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ13" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -34783,12 +35071,15 @@
         <v>77</v>
       </c>
       <c r="BY14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -35016,12 +35307,15 @@
         <v>80</v>
       </c>
       <c r="BY15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -35250,11 +35544,14 @@
       </c>
       <c r="BY16" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -35483,11 +35780,14 @@
       </c>
       <c r="BY17" t="s">
         <v>80</v>
+      </c>
+      <c r="BZ17" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s">
         <v>76</v>
@@ -35716,11 +36016,14 @@
       </c>
       <c r="BY18" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ18" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -35949,11 +36252,14 @@
       </c>
       <c r="BY19" t="s">
         <v>76</v>
+      </c>
+      <c r="BZ19" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -36181,12 +36487,15 @@
         <v>76</v>
       </c>
       <c r="BY20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -36414,12 +36723,15 @@
         <v>77</v>
       </c>
       <c r="BY21" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ21" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B22" t="s">
         <v>76</v>
@@ -36648,11 +36960,14 @@
       </c>
       <c r="BY22" t="s">
         <v>77</v>
+      </c>
+      <c r="BZ22" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B23" t="s">
         <v>78</v>
@@ -36880,6 +37195,9 @@
         <v>79</v>
       </c>
       <c r="BY23" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ23" t="s">
         <v>76</v>
       </c>
     </row>
@@ -37066,10 +37384,13 @@
       <c r="BE1" t="s">
         <v>57</v>
       </c>
+      <c r="BF1" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
@@ -37238,11 +37559,14 @@
       </c>
       <c r="BE2" t="s">
         <v>78</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B3" t="s">
         <v>76</v>
@@ -37411,11 +37735,14 @@
       </c>
       <c r="BE3" t="s">
         <v>80</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s">
         <v>76</v>
@@ -37583,12 +37910,15 @@
         <v>76</v>
       </c>
       <c r="BE4" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B5" t="s">
         <v>76</v>
@@ -37756,12 +38086,15 @@
         <v>77</v>
       </c>
       <c r="BE5" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B6" t="s">
         <v>78</v>
@@ -37930,11 +38263,14 @@
       </c>
       <c r="BE6" t="s">
         <v>80</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s">
         <v>76</v>
@@ -38102,12 +38438,15 @@
         <v>77</v>
       </c>
       <c r="BE7" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s">
         <v>76</v>
@@ -38276,11 +38615,14 @@
       </c>
       <c r="BE8" t="s">
         <v>76</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
         <v>76</v>
@@ -38449,11 +38791,14 @@
       </c>
       <c r="BE9" t="s">
         <v>76</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B10" t="s">
         <v>76</v>
@@ -38622,11 +38967,14 @@
       </c>
       <c r="BE10" t="s">
         <v>76</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B11" t="s">
         <v>76</v>
@@ -38795,11 +39143,14 @@
       </c>
       <c r="BE11" t="s">
         <v>77</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B12" t="s">
         <v>76</v>
@@ -38967,12 +39318,15 @@
         <v>79</v>
       </c>
       <c r="BE12" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B13" t="s">
         <v>76</v>
@@ -39140,12 +39494,15 @@
         <v>76</v>
       </c>
       <c r="BE13" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B14" t="s">
         <v>76</v>
@@ -39313,12 +39670,15 @@
         <v>81</v>
       </c>
       <c r="BE14" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF14" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B15" t="s">
         <v>76</v>
@@ -39486,12 +39846,15 @@
         <v>80</v>
       </c>
       <c r="BE15" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B16" t="s">
         <v>76</v>
@@ -39660,11 +40023,14 @@
       </c>
       <c r="BE16" t="s">
         <v>81</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s">
         <v>76</v>
@@ -39832,12 +40198,15 @@
         <v>77</v>
       </c>
       <c r="BE17" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF17" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -40005,12 +40374,15 @@
         <v>77</v>
       </c>
       <c r="BE18" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF18" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B19" t="s">
         <v>76</v>
@@ -40179,11 +40551,14 @@
       </c>
       <c r="BE19" t="s">
         <v>76</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
@@ -40351,12 +40726,15 @@
         <v>80</v>
       </c>
       <c r="BE20" t="s">
+        <v>76</v>
+      </c>
+      <c r="BF20" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B21" t="s">
         <v>76</v>
@@ -40525,6 +40903,9 @@
       </c>
       <c r="BE21" t="s">
         <v>83</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20429" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20490" uniqueCount="538">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -537,6 +537,9 @@
   </si>
   <si>
     <t>X2021.11.29</t>
+  </si>
+  <si>
+    <t>X2021.12.20</t>
   </si>
   <si>
     <t>Barnsley</t>
@@ -5454,25 +5457,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J1" t="s">
         <v>157</v>
@@ -5484,7 +5487,7 @@
         <v>128</v>
       </c>
       <c r="M1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5502,7 +5505,7 @@
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5526,7 +5529,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5541,7 +5544,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5556,12 +5559,12 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -5674,7 +5677,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -5787,7 +5790,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B4" t="s">
         <v>83</v>
@@ -5900,7 +5903,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -6013,7 +6016,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -6126,7 +6129,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -6239,7 +6242,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -6352,7 +6355,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B9" t="s">
         <v>87</v>
@@ -6465,7 +6468,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -6578,7 +6581,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -6691,7 +6694,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -6804,7 +6807,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -6917,7 +6920,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -7030,7 +7033,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -7143,7 +7146,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -7256,7 +7259,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -7482,7 +7485,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -7595,7 +7598,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -7708,7 +7711,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -7907,7 +7910,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -7944,11 +7947,14 @@
       </c>
       <c r="AL1" t="s">
         <v>63</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -8060,11 +8066,14 @@
       </c>
       <c r="AL2" t="s">
         <v>82</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>87</v>
@@ -8175,12 +8184,15 @@
         <v>82</v>
       </c>
       <c r="AL3" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM3" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -8292,11 +8304,14 @@
       </c>
       <c r="AL4" t="s">
         <v>82</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -8408,11 +8423,14 @@
       </c>
       <c r="AL5" t="s">
         <v>85</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -8523,12 +8541,15 @@
         <v>86</v>
       </c>
       <c r="AL6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -8640,11 +8661,14 @@
       </c>
       <c r="AL7" t="s">
         <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -8756,11 +8780,14 @@
       </c>
       <c r="AL8" t="s">
         <v>82</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -8872,11 +8899,14 @@
       </c>
       <c r="AL9" t="s">
         <v>83</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -8988,11 +9018,14 @@
       </c>
       <c r="AL10" t="s">
         <v>82</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -9104,11 +9137,14 @@
       </c>
       <c r="AL11" t="s">
         <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -9220,11 +9256,14 @@
       </c>
       <c r="AL12" t="s">
         <v>84</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -9335,12 +9374,15 @@
         <v>83</v>
       </c>
       <c r="AL13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -9452,11 +9494,14 @@
       </c>
       <c r="AL14" t="s">
         <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -9567,6 +9612,9 @@
         <v>82</v>
       </c>
       <c r="AL15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AM15" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9622,10 +9670,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9670,13 +9718,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AE1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9703,7 +9751,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9742,7 +9790,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9756,7 +9804,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -9929,7 +9977,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -10102,7 +10150,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -10275,7 +10323,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -10448,7 +10496,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -10621,7 +10669,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B7" t="s">
         <v>87</v>
@@ -10794,7 +10842,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -10967,7 +11015,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -11140,7 +11188,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B10" t="s">
         <v>83</v>
@@ -11313,7 +11361,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -11486,7 +11534,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -11659,7 +11707,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -11832,7 +11880,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -12005,7 +12053,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -12178,7 +12226,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -12351,7 +12399,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -12524,7 +12572,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -12697,7 +12745,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -12870,7 +12918,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -13043,7 +13091,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B21" t="s">
         <v>85</v>
@@ -13266,10 +13314,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13305,10 +13353,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AC1" t="s">
         <v>131</v>
@@ -13373,7 +13421,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -13519,7 +13567,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -13665,7 +13713,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -13811,7 +13859,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -13957,7 +14005,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -14103,7 +14151,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -14249,7 +14297,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -14395,7 +14443,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -14541,7 +14589,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -14687,7 +14735,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -14833,7 +14881,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -14979,7 +15027,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -15125,7 +15173,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -15271,7 +15319,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -15417,7 +15465,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -15563,7 +15611,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -15709,7 +15757,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -15855,7 +15903,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -16001,7 +16049,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -16147,7 +16195,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -16349,7 +16397,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16450,7 +16498,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -16596,7 +16644,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -16742,7 +16790,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -16781,7 +16829,7 @@
         <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O4" t="s">
         <v>82</v>
@@ -16888,7 +16936,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -17034,7 +17082,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -17180,7 +17228,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -17326,7 +17374,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -17472,7 +17520,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -17618,7 +17666,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -17764,7 +17812,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -17910,7 +17958,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -18056,7 +18104,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -18202,7 +18250,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -18348,7 +18396,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -18494,7 +18542,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -18640,7 +18688,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -18786,7 +18834,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -18932,7 +18980,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -19101,7 +19149,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19113,7 +19161,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19155,7 +19203,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19188,7 +19236,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19245,7 +19293,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19259,7 +19307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -19429,7 +19477,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -19599,7 +19647,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -19769,7 +19817,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -19939,7 +19987,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -20109,7 +20157,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -20279,7 +20327,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -20449,7 +20497,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -20619,7 +20667,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -20789,7 +20837,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -20959,7 +21007,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -21129,7 +21177,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -21299,7 +21347,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -21469,7 +21517,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -21639,7 +21687,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -21809,7 +21857,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -21979,7 +22027,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -22149,7 +22197,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -22390,7 +22438,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22432,7 +22480,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22452,7 +22500,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -22574,7 +22622,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -22696,7 +22744,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -22818,7 +22866,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -22940,7 +22988,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -23062,7 +23110,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -23184,7 +23232,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -23306,7 +23354,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -23428,7 +23476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -23550,7 +23598,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -23672,7 +23720,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -23794,7 +23842,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -23933,7 +23981,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -23945,7 +23993,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -23978,7 +24026,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -23987,7 +24035,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24013,7 +24061,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -24099,7 +24147,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -24185,7 +24233,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -24271,7 +24319,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -24357,7 +24405,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -24443,7 +24491,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -24529,7 +24577,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -24615,7 +24663,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -24701,7 +24749,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -24787,7 +24835,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B11" t="s">
         <v>87</v>
@@ -24935,7 +24983,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -24944,7 +24992,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -24955,7 +25003,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25026,7 +25074,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -25097,7 +25145,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -25168,7 +25216,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B5" t="s">
         <v>83</v>
@@ -25239,7 +25287,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -25310,7 +25358,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -25381,7 +25429,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -25452,7 +25500,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -25523,7 +25571,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -25594,7 +25642,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -25700,7 +25748,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -25736,13 +25784,13 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="W1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
@@ -25768,7 +25816,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -25860,7 +25908,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -25952,7 +26000,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -26044,7 +26092,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -26136,7 +26184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -26228,7 +26276,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -26320,7 +26368,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -26412,7 +26460,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -26504,7 +26552,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -26596,7 +26644,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -29610,7 +29658,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -29652,10 +29700,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="T1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -29700,16 +29748,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AJ1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AK1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -29739,7 +29787,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -29778,7 +29826,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -29788,11 +29836,14 @@
       </c>
       <c r="BL1" t="s">
         <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -29981,12 +30032,15 @@
         <v>86</v>
       </c>
       <c r="BL2" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -30176,11 +30230,14 @@
       </c>
       <c r="BL3" t="s">
         <v>86</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -30369,12 +30426,15 @@
         <v>86</v>
       </c>
       <c r="BL4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -30563,12 +30623,15 @@
         <v>86</v>
       </c>
       <c r="BL5" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM5" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -30758,11 +30821,14 @@
       </c>
       <c r="BL6" t="s">
         <v>85</v>
+      </c>
+      <c r="BM6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -30952,11 +31018,14 @@
       </c>
       <c r="BL7" t="s">
         <v>84</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -31145,12 +31214,15 @@
         <v>82</v>
       </c>
       <c r="BL8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -31339,12 +31411,15 @@
         <v>85</v>
       </c>
       <c r="BL9" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -31533,12 +31608,15 @@
         <v>82</v>
       </c>
       <c r="BL10" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -31728,11 +31806,14 @@
       </c>
       <c r="BL11" t="s">
         <v>84</v>
+      </c>
+      <c r="BM11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -31922,11 +32003,14 @@
       </c>
       <c r="BL12" t="s">
         <v>83</v>
+      </c>
+      <c r="BM12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -32116,11 +32200,14 @@
       </c>
       <c r="BL13" t="s">
         <v>82</v>
+      </c>
+      <c r="BM13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -32310,11 +32397,14 @@
       </c>
       <c r="BL14" t="s">
         <v>87</v>
+      </c>
+      <c r="BM14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -32504,11 +32594,14 @@
       </c>
       <c r="BL15" t="s">
         <v>83</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -32698,11 +32791,14 @@
       </c>
       <c r="BL16" t="s">
         <v>84</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -32891,12 +32987,15 @@
         <v>83</v>
       </c>
       <c r="BL17" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM17" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -33085,12 +33184,15 @@
         <v>85</v>
       </c>
       <c r="BL18" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM18" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -33280,11 +33382,14 @@
       </c>
       <c r="BL19" t="s">
         <v>82</v>
+      </c>
+      <c r="BM19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -33473,12 +33578,15 @@
         <v>84</v>
       </c>
       <c r="BL20" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -33667,6 +33775,9 @@
         <v>83</v>
       </c>
       <c r="BL21" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM21" t="s">
         <v>82</v>
       </c>
     </row>
@@ -33695,7 +33806,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -33719,19 +33830,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -33755,7 +33866,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -33779,19 +33890,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AH1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AI1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AJ1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AK1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -33809,7 +33920,7 @@
         <v>163</v>
       </c>
       <c r="AQ1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -33821,7 +33932,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -33842,7 +33953,7 @@
         <v>165</v>
       </c>
       <c r="BB1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -33854,19 +33965,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="BG1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="BH1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="BI1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="BJ1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -33878,7 +33989,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -33914,7 +34025,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -33928,7 +34039,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -34173,7 +34284,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -34418,7 +34529,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -34663,7 +34774,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -34908,7 +35019,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -35153,7 +35264,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -35398,7 +35509,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -35643,7 +35754,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -35888,7 +35999,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -36133,7 +36244,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -36378,7 +36489,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -36623,7 +36734,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -36868,7 +36979,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -37113,7 +37224,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -37358,7 +37469,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -37603,7 +37714,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -37848,7 +37959,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -38093,7 +38204,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -38338,7 +38449,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -38583,7 +38694,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -38828,7 +38939,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -39073,7 +39184,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -39341,7 +39452,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -39383,7 +39494,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -39434,7 +39545,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -39464,7 +39575,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -39500,7 +39611,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -39514,7 +39625,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -39699,7 +39810,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -39884,7 +39995,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -40069,7 +40180,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -40254,7 +40365,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -40439,7 +40550,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -40624,7 +40735,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -40809,7 +40920,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -40994,7 +41105,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -41179,7 +41290,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -41364,7 +41475,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -41549,7 +41660,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -41734,7 +41845,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -41919,7 +42030,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -42104,7 +42215,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -42289,7 +42400,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -42474,7 +42585,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -42659,7 +42770,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -42844,7 +42955,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -43029,7 +43140,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -49758,10 +49869,13 @@
       <c r="AW1" t="s">
         <v>62</v>
       </c>
+      <c r="AX1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -49905,12 +50019,15 @@
         <v>84</v>
       </c>
       <c r="AW2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -50055,11 +50172,14 @@
       </c>
       <c r="AW3" t="s">
         <v>87</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -50204,11 +50324,14 @@
       </c>
       <c r="AW4" t="s">
         <v>84</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -50353,11 +50476,14 @@
       </c>
       <c r="AW5" t="s">
         <v>83</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -50502,11 +50628,14 @@
       </c>
       <c r="AW6" t="s">
         <v>83</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -50651,11 +50780,14 @@
       </c>
       <c r="AW7" t="s">
         <v>85</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -50799,12 +50931,15 @@
         <v>82</v>
       </c>
       <c r="AW8" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX8" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -50948,12 +51083,15 @@
         <v>82</v>
       </c>
       <c r="AW9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX9" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -51097,12 +51235,15 @@
         <v>82</v>
       </c>
       <c r="AW10" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX10" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -51247,11 +51388,14 @@
       </c>
       <c r="AW11" t="s">
         <v>82</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
@@ -51396,11 +51540,14 @@
       </c>
       <c r="AW12" t="s">
         <v>86</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -51545,11 +51692,14 @@
       </c>
       <c r="AW13" t="s">
         <v>86</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
@@ -51693,12 +51843,15 @@
         <v>82</v>
       </c>
       <c r="AW14" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -51843,11 +51996,14 @@
       </c>
       <c r="AW15" t="s">
         <v>84</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -51991,12 +52147,15 @@
         <v>82</v>
       </c>
       <c r="AW16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -52141,11 +52300,14 @@
       </c>
       <c r="AW17" t="s">
         <v>83</v>
+      </c>
+      <c r="AX17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -52290,11 +52452,14 @@
       </c>
       <c r="AW18" t="s">
         <v>85</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -52438,12 +52603,15 @@
         <v>82</v>
       </c>
       <c r="AW19" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX19" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -52587,12 +52755,15 @@
         <v>82</v>
       </c>
       <c r="AW20" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX20" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
@@ -52736,12 +52907,15 @@
         <v>82</v>
       </c>
       <c r="AW21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
@@ -52886,11 +53060,14 @@
       </c>
       <c r="AW22" t="s">
         <v>82</v>
+      </c>
+      <c r="AX22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
@@ -53034,12 +53211,15 @@
         <v>82</v>
       </c>
       <c r="AW23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX23" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -53183,12 +53363,15 @@
         <v>82</v>
       </c>
       <c r="AW24" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX24" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
@@ -53332,6 +53515,9 @@
         <v>84</v>
       </c>
       <c r="AW25" t="s">
+        <v>82</v>
+      </c>
+      <c r="AX25" t="s">
         <v>82</v>
       </c>
     </row>
@@ -53369,10 +53555,10 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -53384,7 +53570,7 @@
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
@@ -53396,7 +53582,7 @@
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -53411,7 +53597,7 @@
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
@@ -53420,10 +53606,10 @@
         <v>164</v>
       </c>
       <c r="Y1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -53441,10 +53627,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -53455,7 +53641,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -53562,7 +53748,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -53669,7 +53855,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -53776,7 +53962,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53883,7 +54069,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s">
         <v>83</v>
@@ -53990,7 +54176,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -54097,7 +54283,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -54204,7 +54390,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -54311,7 +54497,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -54418,7 +54604,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B11" t="s">
         <v>83</v>
@@ -54525,7 +54711,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -54632,7 +54818,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -54739,7 +54925,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -54846,7 +55032,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -54953,7 +55139,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -55060,7 +55246,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -55167,7 +55353,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18" t="s">
         <v>86</v>
@@ -55274,7 +55460,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55381,7 +55567,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55488,7 +55674,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -55595,7 +55781,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -55702,7 +55888,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -55809,7 +55995,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -55916,7 +56102,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -56049,7 +56235,7 @@
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -56058,7 +56244,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -56073,7 +56259,7 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -56085,10 +56271,10 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="S1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
@@ -56100,16 +56286,16 @@
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
@@ -56124,10 +56310,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -56138,7 +56324,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" t="s">
         <v>83</v>
@@ -56242,7 +56428,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -56346,7 +56532,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -56450,7 +56636,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -56554,7 +56740,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -56658,7 +56844,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B7" t="s">
         <v>83</v>
@@ -56762,7 +56948,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -56866,7 +57052,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B9" t="s">
         <v>83</v>
@@ -56970,7 +57156,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -57074,7 +57260,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -57178,7 +57364,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -57282,7 +57468,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -57386,7 +57572,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -57490,7 +57676,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -57594,7 +57780,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B16" t="s">
         <v>83</v>
@@ -57698,7 +57884,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B17" t="s">
         <v>83</v>
@@ -57802,7 +57988,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -57906,7 +58092,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
@@ -58010,7 +58196,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
@@ -58114,7 +58300,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -58218,7 +58404,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
@@ -58322,7 +58508,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -58426,7 +58612,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -58530,7 +58716,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s">
         <v>83</v>
@@ -58654,13 +58840,13 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
@@ -58672,7 +58858,7 @@
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
@@ -58684,19 +58870,19 @@
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -58705,10 +58891,10 @@
         <v>164</v>
       </c>
       <c r="U1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="V1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -58729,7 +58915,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -58740,7 +58926,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -58835,7 +59021,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>83</v>
@@ -58930,7 +59116,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -59025,7 +59211,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -59120,7 +59306,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -59215,7 +59401,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -59310,7 +59496,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
         <v>83</v>
@@ -59405,7 +59591,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -59500,7 +59686,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -59595,7 +59781,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -59690,7 +59876,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -59785,7 +59971,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
         <v>83</v>
@@ -59880,7 +60066,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -59975,7 +60161,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -60070,7 +60256,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B16" t="s">
         <v>86</v>
@@ -60165,7 +60351,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -60260,7 +60446,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
@@ -60355,7 +60541,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60450,7 +60636,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -60545,7 +60731,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -60640,7 +60826,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B22" t="s">
         <v>83</v>
@@ -60735,7 +60921,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -60830,7 +61016,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
@@ -61029,7 +61215,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -61088,7 +61274,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
         <v>82</v>
@@ -61240,7 +61426,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
         <v>82</v>
@@ -61392,7 +61578,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -61544,7 +61730,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
@@ -61696,7 +61882,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
@@ -61848,7 +62034,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
@@ -62000,7 +62186,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
@@ -62152,7 +62338,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
@@ -62304,7 +62490,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
@@ -62456,7 +62642,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
@@ -62608,7 +62794,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B12" t="s">
         <v>83</v>
@@ -62760,7 +62946,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
@@ -62912,7 +63098,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B14" t="s">
         <v>83</v>
@@ -63064,7 +63250,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
@@ -63216,7 +63402,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
@@ -63368,7 +63554,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
@@ -63520,7 +63706,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
@@ -63672,7 +63858,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
@@ -63824,7 +64010,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
@@ -63976,7 +64162,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21120" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="547">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -447,6 +447,15 @@
   </si>
   <si>
     <t>X2021.12.06</t>
+  </si>
+  <si>
+    <t>X2021.12.28</t>
+  </si>
+  <si>
+    <t>X2021.12.29</t>
+  </si>
+  <si>
+    <t>X2021.12.30</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -5589,28 +5598,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5619,7 +5628,7 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5631,13 +5640,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5661,7 +5670,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5676,7 +5685,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5691,15 +5700,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="AL1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -5815,7 +5824,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -5931,7 +5940,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6047,7 +6056,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6163,7 +6172,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6279,7 +6288,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6395,7 +6404,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6511,7 +6520,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -6627,7 +6636,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -6743,7 +6752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6859,7 +6868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6975,7 +6984,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7091,7 +7100,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -7207,7 +7216,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7323,7 +7332,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7439,7 +7448,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7555,7 +7564,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -7671,7 +7680,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7787,7 +7796,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -7903,7 +7912,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -8105,7 +8114,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8144,12 +8153,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8268,7 +8277,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -8387,7 +8396,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8506,7 +8515,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -8625,7 +8634,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8744,7 +8753,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8863,7 +8872,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8982,7 +8991,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9101,7 +9110,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9220,7 +9229,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9339,7 +9348,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9458,7 +9467,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9577,7 +9586,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9696,7 +9705,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9865,10 +9874,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9913,13 +9922,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AE1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AF1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9946,7 +9955,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9985,7 +9994,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -9997,15 +10006,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BG1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10184,7 +10193,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10363,7 +10372,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10542,7 +10551,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10721,7 +10730,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10900,7 +10909,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -11079,7 +11088,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11258,7 +11267,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11437,7 +11446,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11616,7 +11625,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11795,7 +11804,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11974,7 +11983,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12153,7 +12162,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12332,7 +12341,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12511,7 +12520,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12690,7 +12699,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12869,7 +12878,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -13048,7 +13057,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13227,7 +13236,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13406,7 +13415,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13635,10 +13644,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="O1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13674,10 +13683,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AC1" t="s">
         <v>133</v>
@@ -13707,7 +13716,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -13742,7 +13751,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13888,7 +13897,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14034,7 +14043,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14180,7 +14189,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14326,7 +14335,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14472,7 +14481,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14618,7 +14627,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14764,7 +14773,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14910,7 +14919,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15056,7 +15065,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -15202,7 +15211,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15348,7 +15357,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15494,7 +15503,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -15640,7 +15649,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15786,7 +15795,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15932,7 +15941,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16078,7 +16087,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16224,7 +16233,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16370,7 +16379,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16516,7 +16525,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16718,7 +16727,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16817,18 +16826,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AX1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AY1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16983,7 +16992,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17138,7 +17147,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17177,7 +17186,7 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="O4" t="s">
         <v>84</v>
@@ -17293,7 +17302,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17448,7 +17457,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17603,7 +17612,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17758,7 +17767,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17913,7 +17922,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18068,7 +18077,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18223,7 +18232,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18378,7 +18387,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18533,7 +18542,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18688,7 +18697,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18843,7 +18852,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -18998,7 +19007,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19153,7 +19162,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19308,7 +19317,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19463,7 +19472,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19641,7 +19650,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19653,7 +19662,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19695,7 +19704,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19728,7 +19737,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19761,7 +19770,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AT1" t="s">
         <v>134</v>
@@ -19785,7 +19794,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19795,11 +19804,20 @@
       </c>
       <c r="BD1" t="s">
         <v>63</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19965,11 +19983,20 @@
       </c>
       <c r="BD2" t="s">
         <v>84</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20135,11 +20162,20 @@
       </c>
       <c r="BD3" t="s">
         <v>85</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20305,11 +20341,20 @@
       </c>
       <c r="BD4" t="s">
         <v>85</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20475,11 +20520,20 @@
       </c>
       <c r="BD5" t="s">
         <v>86</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20644,12 +20698,21 @@
         <v>84</v>
       </c>
       <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20814,12 +20877,21 @@
         <v>84</v>
       </c>
       <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -20984,12 +21056,21 @@
         <v>87</v>
       </c>
       <c r="BD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21154,12 +21235,21 @@
         <v>84</v>
       </c>
       <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BG9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21325,11 +21415,20 @@
       </c>
       <c r="BD10" t="s">
         <v>92</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21495,11 +21594,20 @@
       </c>
       <c r="BD11" t="s">
         <v>85</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21665,11 +21773,20 @@
       </c>
       <c r="BD12" t="s">
         <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21834,12 +21951,21 @@
         <v>85</v>
       </c>
       <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22005,11 +22131,20 @@
       </c>
       <c r="BD14" t="s">
         <v>86</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22175,11 +22310,20 @@
       </c>
       <c r="BD15" t="s">
         <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22344,12 +22488,21 @@
         <v>84</v>
       </c>
       <c r="BD16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22514,12 +22667,21 @@
         <v>86</v>
       </c>
       <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BG17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22684,12 +22846,21 @@
         <v>85</v>
       </c>
       <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -22855,6 +23026,15 @@
       </c>
       <c r="BD19" t="s">
         <v>89</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BG19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -22930,7 +23110,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -22972,7 +23152,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -22990,7 +23170,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -22998,7 +23178,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23126,7 +23306,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -23254,7 +23434,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -23382,7 +23562,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23510,7 +23690,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23638,7 +23818,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23766,7 +23946,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -23894,7 +24074,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24022,7 +24202,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24150,7 +24330,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -24278,7 +24458,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24406,7 +24586,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -24551,7 +24731,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24563,7 +24743,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24581,7 +24761,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24596,7 +24776,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24605,7 +24785,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24630,11 +24810,14 @@
       </c>
       <c r="AC1" t="s">
         <v>64</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24719,11 +24902,14 @@
       </c>
       <c r="AC2" t="s">
         <v>86</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24808,11 +24994,14 @@
       </c>
       <c r="AC3" t="s">
         <v>86</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -24897,11 +25086,14 @@
       </c>
       <c r="AC4" t="s">
         <v>87</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -24986,11 +25178,14 @@
       </c>
       <c r="AC5" t="s">
         <v>87</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25074,12 +25269,15 @@
         <v>88</v>
       </c>
       <c r="AC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25164,11 +25362,14 @@
       </c>
       <c r="AC7" t="s">
         <v>88</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -25253,11 +25454,14 @@
       </c>
       <c r="AC8" t="s">
         <v>84</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25341,12 +25545,15 @@
         <v>86</v>
       </c>
       <c r="AC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25430,12 +25637,15 @@
         <v>86</v>
       </c>
       <c r="AC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AD10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -25520,6 +25730,9 @@
       </c>
       <c r="AC11" t="s">
         <v>88</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -25556,7 +25769,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25586,7 +25799,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25595,7 +25808,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25604,15 +25817,18 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -25685,11 +25901,14 @@
       </c>
       <c r="Y2" t="s">
         <v>85</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -25762,11 +25981,14 @@
       </c>
       <c r="Y3" t="s">
         <v>87</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -25839,11 +26061,14 @@
       </c>
       <c r="Y4" t="s">
         <v>85</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -25916,11 +26141,14 @@
       </c>
       <c r="Y5" t="s">
         <v>88</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25992,12 +26220,15 @@
         <v>84</v>
       </c>
       <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26070,11 +26301,14 @@
       </c>
       <c r="Y7" t="s">
         <v>89</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26147,11 +26381,14 @@
       </c>
       <c r="Y8" t="s">
         <v>88</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26223,12 +26460,15 @@
         <v>86</v>
       </c>
       <c r="Y9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26300,12 +26540,15 @@
         <v>88</v>
       </c>
       <c r="Y10" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26378,6 +26621,9 @@
       </c>
       <c r="Y11" t="s">
         <v>84</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -26417,7 +26663,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26453,19 +26699,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="V1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="W1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26483,10 +26729,10 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AF1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
@@ -26494,7 +26740,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26595,7 +26841,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -26696,7 +26942,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -26797,7 +27043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -26898,7 +27144,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -26999,7 +27245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27100,7 +27346,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27201,7 +27447,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27302,7 +27548,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27403,7 +27649,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -30426,7 +30672,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30468,10 +30714,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="T1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30516,16 +30762,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AJ1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AK1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AL1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30555,7 +30801,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30567,7 +30813,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BA1" t="s">
         <v>135</v>
@@ -30594,7 +30840,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30606,18 +30852,18 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BN1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BO1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -30820,7 +31066,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31023,7 +31269,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31226,7 +31472,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31429,7 +31675,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31632,7 +31878,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -31835,7 +32081,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32038,7 +32284,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32241,7 +32487,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32444,7 +32690,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -32647,7 +32893,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -32850,7 +33096,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33053,7 +33299,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33256,7 +33502,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33459,7 +33705,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33662,7 +33908,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -33865,7 +34111,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34068,7 +34314,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34271,7 +34517,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34474,7 +34720,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34700,7 +34946,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34724,19 +34970,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="N1" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="O1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P1" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="Q1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -34760,7 +35006,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -34784,19 +35030,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="AH1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AI1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AJ1" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AK1" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -34808,13 +35054,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AP1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AQ1" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -34826,7 +35072,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -34841,13 +35087,13 @@
         <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="BA1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="BB1" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -34859,19 +35105,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="BG1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="BH1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="BI1" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="BJ1" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -34883,7 +35129,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -34895,7 +35141,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -34919,7 +35165,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -34933,7 +35179,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35178,7 +35424,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35423,7 +35669,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35668,7 +35914,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -35913,7 +36159,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36158,7 +36404,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -36403,7 +36649,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36648,7 +36894,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -36893,7 +37139,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37138,7 +37384,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -37383,7 +37629,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37628,7 +37874,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -37873,7 +38119,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38118,7 +38364,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38363,7 +38609,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38608,7 +38854,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -38853,7 +39099,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39098,7 +39344,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39343,7 +39589,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39588,7 +39834,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -39833,7 +40079,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40078,7 +40324,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -40346,7 +40592,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40388,7 +40634,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40439,7 +40685,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40469,7 +40715,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40481,7 +40727,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40505,7 +40751,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40517,16 +40763,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="BK1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="BL1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="BM1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40537,7 +40783,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40740,7 +40986,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -40943,7 +41189,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41146,7 +41392,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41349,7 +41595,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41552,7 +41798,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -41755,7 +42001,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -41958,7 +42204,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42161,7 +42407,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42364,7 +42610,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42567,7 +42813,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -42770,7 +43016,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -42973,7 +43219,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43176,7 +43422,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43379,7 +43625,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43582,7 +43828,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -43785,7 +44031,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -43988,7 +44234,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44191,7 +44437,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44394,7 +44640,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -47947,10 +48193,19 @@
       <c r="AZ1" t="s">
         <v>65</v>
       </c>
+      <c r="BA1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -48103,12 +48358,21 @@
         <v>86</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48261,12 +48525,21 @@
         <v>87</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -48419,12 +48692,21 @@
         <v>88</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48577,12 +48859,21 @@
         <v>86</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -48736,11 +49027,20 @@
       </c>
       <c r="AZ6" t="s">
         <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -48893,12 +49193,21 @@
         <v>85</v>
       </c>
       <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49051,12 +49360,21 @@
         <v>87</v>
       </c>
       <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49209,12 +49527,21 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49367,12 +49694,21 @@
         <v>84</v>
       </c>
       <c r="AZ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49525,12 +49861,21 @@
         <v>91</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -49683,12 +50028,21 @@
         <v>84</v>
       </c>
       <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -49841,12 +50195,21 @@
         <v>87</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BC13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -49999,12 +50362,21 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50158,11 +50530,20 @@
       </c>
       <c r="AZ15" t="s">
         <v>85</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50315,12 +50696,21 @@
         <v>90</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50473,12 +50863,21 @@
         <v>88</v>
       </c>
       <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -50631,12 +51030,21 @@
         <v>86</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -50789,12 +51197,21 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -50947,12 +51364,21 @@
         <v>87</v>
       </c>
       <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51105,6 +51531,15 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -51136,10 +51571,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51160,10 +51595,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="O1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51175,10 +51610,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="T1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51196,10 +51631,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="AA1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51214,10 +51649,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AG1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51232,7 +51667,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -51247,7 +51682,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51268,18 +51703,24 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
       </c>
       <c r="AZ1" t="s">
         <v>65</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51432,12 +51873,18 @@
         <v>84</v>
       </c>
       <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -51590,12 +52037,18 @@
         <v>84</v>
       </c>
       <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -51748,12 +52201,18 @@
         <v>84</v>
       </c>
       <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -51906,12 +52365,18 @@
         <v>87</v>
       </c>
       <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -52064,12 +52529,18 @@
         <v>84</v>
       </c>
       <c r="AZ6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52223,11 +52694,17 @@
       </c>
       <c r="AZ7" t="s">
         <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52381,11 +52858,17 @@
       </c>
       <c r="AZ8" t="s">
         <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -52538,12 +53021,18 @@
         <v>84</v>
       </c>
       <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -52697,11 +53186,17 @@
       </c>
       <c r="AZ10" t="s">
         <v>86</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -52854,12 +53349,18 @@
         <v>84</v>
       </c>
       <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53013,11 +53514,17 @@
       </c>
       <c r="AZ12" t="s">
         <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53170,12 +53677,18 @@
         <v>84</v>
       </c>
       <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53328,12 +53841,18 @@
         <v>84</v>
       </c>
       <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -53486,12 +54005,18 @@
         <v>86</v>
       </c>
       <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -53644,12 +54169,18 @@
         <v>84</v>
       </c>
       <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -53803,11 +54334,17 @@
       </c>
       <c r="AZ17" t="s">
         <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -53960,12 +54497,18 @@
         <v>84</v>
       </c>
       <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54118,12 +54661,18 @@
         <v>84</v>
       </c>
       <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54276,12 +54825,18 @@
         <v>84</v>
       </c>
       <c r="AZ20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54434,12 +54989,18 @@
         <v>84</v>
       </c>
       <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -54592,12 +55153,18 @@
         <v>84</v>
       </c>
       <c r="AZ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -54751,11 +55318,17 @@
       </c>
       <c r="AZ23" t="s">
         <v>84</v>
+      </c>
+      <c r="BA23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -54908,12 +55481,18 @@
         <v>84</v>
       </c>
       <c r="AZ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -55067,6 +55646,12 @@
       </c>
       <c r="AZ25" t="s">
         <v>85</v>
+      </c>
+      <c r="BA25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB25" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -55091,7 +55676,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55103,34 +55688,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55139,31 +55724,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Y1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55175,10 +55760,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55191,11 +55776,17 @@
       </c>
       <c r="AK1" t="s">
         <v>65</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -55303,12 +55894,18 @@
         <v>86</v>
       </c>
       <c r="AK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -55416,12 +56013,18 @@
         <v>84</v>
       </c>
       <c r="AK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -55529,12 +56132,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -55642,12 +56251,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -55755,12 +56370,18 @@
         <v>84</v>
       </c>
       <c r="AK6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -55868,12 +56489,18 @@
         <v>84</v>
       </c>
       <c r="AK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -55981,12 +56608,18 @@
         <v>88</v>
       </c>
       <c r="AK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56094,12 +56727,18 @@
         <v>84</v>
       </c>
       <c r="AK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -56208,11 +56847,17 @@
       </c>
       <c r="AK10" t="s">
         <v>87</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -56320,12 +56965,18 @@
         <v>87</v>
       </c>
       <c r="AK11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -56433,12 +57084,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -56546,12 +57203,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -56659,12 +57322,18 @@
         <v>87</v>
       </c>
       <c r="AK14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -56772,12 +57441,18 @@
         <v>88</v>
       </c>
       <c r="AK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -56885,12 +57560,18 @@
         <v>84</v>
       </c>
       <c r="AK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>88</v>
+      </c>
+      <c r="AM16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -56998,12 +57679,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -57111,12 +57798,18 @@
         <v>86</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -57224,12 +57917,18 @@
         <v>84</v>
       </c>
       <c r="AK19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -57337,12 +58036,18 @@
         <v>85</v>
       </c>
       <c r="AK20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -57451,11 +58156,17 @@
       </c>
       <c r="AK21" t="s">
         <v>84</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -57563,12 +58274,18 @@
         <v>86</v>
       </c>
       <c r="AK22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -57676,12 +58393,18 @@
         <v>84</v>
       </c>
       <c r="AK23" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -57789,12 +58512,18 @@
         <v>84</v>
       </c>
       <c r="AK24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -57902,6 +58631,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -57927,13 +58662,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -57942,7 +58677,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -57951,13 +58686,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -57969,37 +58704,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="S1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Z1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58008,10 +58743,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58021,11 +58756,14 @@
       </c>
       <c r="AI1" t="s">
         <v>64</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -58128,11 +58866,14 @@
       </c>
       <c r="AI2" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -58234,12 +58975,15 @@
         <v>84</v>
       </c>
       <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -58341,12 +59085,15 @@
         <v>84</v>
       </c>
       <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -58448,12 +59195,15 @@
         <v>84</v>
       </c>
       <c r="AI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -58555,12 +59305,15 @@
         <v>84</v>
       </c>
       <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -58662,12 +59415,15 @@
         <v>84</v>
       </c>
       <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -58769,12 +59525,15 @@
         <v>84</v>
       </c>
       <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -58876,12 +59635,15 @@
         <v>84</v>
       </c>
       <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -58983,12 +59745,15 @@
         <v>85</v>
       </c>
       <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -59091,11 +59856,14 @@
       </c>
       <c r="AI11" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59197,12 +59965,15 @@
         <v>85</v>
       </c>
       <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -59305,11 +60076,14 @@
       </c>
       <c r="AI13" t="s">
         <v>88</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -59411,12 +60185,15 @@
         <v>87</v>
       </c>
       <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -59518,12 +60295,15 @@
         <v>84</v>
       </c>
       <c r="AI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -59626,11 +60406,14 @@
       </c>
       <c r="AI16" t="s">
         <v>87</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -59732,12 +60515,15 @@
         <v>84</v>
       </c>
       <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -59839,12 +60625,15 @@
         <v>86</v>
       </c>
       <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -59946,12 +60735,15 @@
         <v>86</v>
       </c>
       <c r="AI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60054,11 +60846,14 @@
       </c>
       <c r="AI20" t="s">
         <v>85</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -60161,11 +60956,14 @@
       </c>
       <c r="AI21" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -60267,12 +61065,15 @@
         <v>86</v>
       </c>
       <c r="AI22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -60375,11 +61176,14 @@
       </c>
       <c r="AI23" t="s">
         <v>84</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -60482,11 +61286,14 @@
       </c>
       <c r="AI24" t="s">
         <v>86</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -60588,6 +61395,9 @@
         <v>84</v>
       </c>
       <c r="AI25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -60613,61 +61423,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="V1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -60676,7 +61486,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -60688,7 +61498,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -60698,11 +61508,14 @@
       </c>
       <c r="AF1" t="s">
         <v>64</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -60795,12 +61608,15 @@
         <v>84</v>
       </c>
       <c r="AF2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG2" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -60894,11 +61710,14 @@
       </c>
       <c r="AF3" t="s">
         <v>90</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -60991,12 +61810,15 @@
         <v>84</v>
       </c>
       <c r="AF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -61089,12 +61911,15 @@
         <v>84</v>
       </c>
       <c r="AF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -61187,12 +62012,15 @@
         <v>84</v>
       </c>
       <c r="AF6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AG6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -61286,11 +62114,14 @@
       </c>
       <c r="AF7" t="s">
         <v>84</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -61383,12 +62214,15 @@
         <v>84</v>
       </c>
       <c r="AF8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AG8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -61482,11 +62316,14 @@
       </c>
       <c r="AF9" t="s">
         <v>88</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -61580,11 +62417,14 @@
       </c>
       <c r="AF10" t="s">
         <v>84</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -61677,12 +62517,15 @@
         <v>84</v>
       </c>
       <c r="AF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -61776,11 +62619,14 @@
       </c>
       <c r="AF12" t="s">
         <v>84</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -61873,12 +62719,15 @@
         <v>88</v>
       </c>
       <c r="AF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -61972,11 +62821,14 @@
       </c>
       <c r="AF14" t="s">
         <v>84</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -62069,12 +62921,15 @@
         <v>84</v>
       </c>
       <c r="AF15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -62168,11 +63023,14 @@
       </c>
       <c r="AF16" t="s">
         <v>84</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -62266,11 +63124,14 @@
       </c>
       <c r="AF17" t="s">
         <v>85</v>
+      </c>
+      <c r="AG17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -62364,11 +63225,14 @@
       </c>
       <c r="AF18" t="s">
         <v>85</v>
+      </c>
+      <c r="AG18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -62462,11 +63326,14 @@
       </c>
       <c r="AF19" t="s">
         <v>86</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -62559,12 +63426,15 @@
         <v>84</v>
       </c>
       <c r="AF20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -62657,12 +63527,15 @@
         <v>84</v>
       </c>
       <c r="AF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -62756,11 +63629,14 @@
       </c>
       <c r="AF22" t="s">
         <v>85</v>
+      </c>
+      <c r="AG22" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -62854,11 +63730,14 @@
       </c>
       <c r="AF23" t="s">
         <v>84</v>
+      </c>
+      <c r="AG23" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -62952,6 +63831,9 @@
       </c>
       <c r="AF24" t="s">
         <v>87</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -63060,7 +63942,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63117,12 +63999,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -63277,7 +64159,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -63432,7 +64314,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -63587,7 +64469,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -63742,7 +64624,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63897,7 +64779,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64052,7 +64934,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -64207,7 +65089,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -64362,7 +65244,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -64517,7 +65399,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -64672,7 +65554,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -64827,7 +65709,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -64982,7 +65864,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -65137,7 +66019,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -65292,7 +66174,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -65447,7 +66329,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -65602,7 +66484,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -65757,7 +66639,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -65912,7 +66794,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66067,7 +66949,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21411" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="551">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -456,6 +456,15 @@
   </si>
   <si>
     <t>X2021.12.30</t>
+  </si>
+  <si>
+    <t>X2022.01.01</t>
+  </si>
+  <si>
+    <t>X2022.01.02</t>
+  </si>
+  <si>
+    <t>X2022.01.03</t>
   </si>
   <si>
     <t>Arsenal</t>
@@ -1457,6 +1466,9 @@
     <t>Stranraer</t>
   </si>
   <si>
+    <t>X2021.12.31</t>
+  </si>
+  <si>
     <t>Alaves</t>
   </si>
   <si>
@@ -5598,28 +5610,28 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
@@ -5628,7 +5640,7 @@
         <v>130</v>
       </c>
       <c r="M1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5640,13 +5652,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5670,7 +5682,7 @@
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
@@ -5685,7 +5697,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5700,15 +5712,15 @@
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AL1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -5824,7 +5836,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -5940,7 +5952,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6056,7 +6068,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6172,7 +6184,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6288,7 +6300,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6404,7 +6416,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6520,7 +6532,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -6636,7 +6648,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -6752,7 +6764,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6868,7 +6880,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6984,7 +6996,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7100,7 +7112,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -7216,7 +7228,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7332,7 +7344,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7448,7 +7460,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7564,7 +7576,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -7680,7 +7692,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7796,7 +7808,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -7912,7 +7924,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -8114,7 +8126,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8153,12 +8165,12 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8277,7 +8289,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -8396,7 +8408,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8515,7 +8527,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -8634,7 +8646,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8753,7 +8765,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8872,7 +8884,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8991,7 +9003,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9110,7 +9122,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9229,7 +9241,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9348,7 +9360,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9467,7 +9479,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9586,7 +9598,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9705,7 +9717,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9874,10 +9886,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9922,13 +9934,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AE1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AF1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9955,7 +9967,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9994,7 +10006,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10006,15 +10018,15 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BG1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10193,7 +10205,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10372,7 +10384,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10551,7 +10563,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10730,7 +10742,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10909,7 +10921,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -11088,7 +11100,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11267,7 +11279,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11446,7 +11458,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11625,7 +11637,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11804,7 +11816,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11983,7 +11995,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12162,7 +12174,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12341,7 +12353,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12520,7 +12532,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12699,7 +12711,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12878,7 +12890,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -13057,7 +13069,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13236,7 +13248,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13415,7 +13427,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13644,10 +13656,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="O1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13683,10 +13695,10 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AB1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AC1" t="s">
         <v>133</v>
@@ -13716,7 +13728,7 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AM1" t="s">
         <v>134</v>
@@ -13751,7 +13763,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13897,7 +13909,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14043,7 +14055,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14189,7 +14201,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14335,7 +14347,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14481,7 +14493,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14627,7 +14639,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14773,7 +14785,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14919,7 +14931,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15065,7 +15077,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -15211,7 +15223,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15357,7 +15369,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15503,7 +15515,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -15649,7 +15661,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15795,7 +15807,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15941,7 +15953,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16087,7 +16099,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16233,7 +16245,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16379,7 +16391,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16525,7 +16537,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16727,7 +16739,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16826,18 +16838,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AX1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AY1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -16992,7 +17004,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17147,7 +17159,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17186,7 +17198,7 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="O4" t="s">
         <v>84</v>
@@ -17302,7 +17314,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17457,7 +17469,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17612,7 +17624,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17767,7 +17779,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17922,7 +17934,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18077,7 +18089,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18232,7 +18244,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18387,7 +18399,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18542,7 +18554,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18697,7 +18709,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18852,7 +18864,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19007,7 +19019,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19162,7 +19174,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19317,7 +19329,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19472,7 +19484,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19650,7 +19662,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19662,7 +19674,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19704,7 +19716,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19737,7 +19749,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19770,7 +19782,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AT1" t="s">
         <v>134</v>
@@ -19794,7 +19806,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19813,11 +19825,17 @@
       </c>
       <c r="BG1" t="s">
         <v>140</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -19992,11 +20010,17 @@
       </c>
       <c r="BG2" t="s">
         <v>91</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20170,12 +20194,18 @@
         <v>84</v>
       </c>
       <c r="BG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20350,11 +20380,17 @@
       </c>
       <c r="BG4" t="s">
         <v>87</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20528,12 +20564,18 @@
         <v>85</v>
       </c>
       <c r="BG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20707,12 +20749,18 @@
         <v>84</v>
       </c>
       <c r="BG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20886,12 +20934,18 @@
         <v>84</v>
       </c>
       <c r="BG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21065,12 +21119,18 @@
         <v>84</v>
       </c>
       <c r="BG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21244,12 +21304,18 @@
         <v>85</v>
       </c>
       <c r="BG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21423,12 +21489,18 @@
         <v>84</v>
       </c>
       <c r="BG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21603,11 +21675,17 @@
       </c>
       <c r="BG11" t="s">
         <v>84</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21782,11 +21860,17 @@
       </c>
       <c r="BG12" t="s">
         <v>85</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -21960,12 +22044,18 @@
         <v>87</v>
       </c>
       <c r="BG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22140,11 +22230,17 @@
       </c>
       <c r="BG14" t="s">
         <v>85</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22319,11 +22415,17 @@
       </c>
       <c r="BG15" t="s">
         <v>88</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22498,11 +22600,17 @@
       </c>
       <c r="BG16" t="s">
         <v>86</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22676,12 +22784,18 @@
         <v>88</v>
       </c>
       <c r="BG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22856,11 +22970,17 @@
       </c>
       <c r="BG18" t="s">
         <v>84</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -23034,6 +23154,12 @@
         <v>84</v>
       </c>
       <c r="BG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>86</v>
+      </c>
+      <c r="BI19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23110,7 +23236,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23152,7 +23278,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23170,7 +23296,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23178,7 +23304,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23306,7 +23432,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -23434,7 +23560,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -23562,7 +23688,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23690,7 +23816,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23818,7 +23944,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -23946,7 +24072,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -24074,7 +24200,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24202,7 +24328,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24330,7 +24456,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -24458,7 +24584,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24586,7 +24712,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -24731,7 +24857,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24743,7 +24869,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24761,7 +24887,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24776,7 +24902,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24785,7 +24911,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24813,11 +24939,14 @@
       </c>
       <c r="AD1" t="s">
         <v>139</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -24905,11 +25034,14 @@
       </c>
       <c r="AD2" t="s">
         <v>84</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -24996,12 +25128,15 @@
         <v>86</v>
       </c>
       <c r="AD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -25089,11 +25224,14 @@
       </c>
       <c r="AD4" t="s">
         <v>84</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -25181,11 +25319,14 @@
       </c>
       <c r="AD5" t="s">
         <v>84</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25273,11 +25414,14 @@
       </c>
       <c r="AD6" t="s">
         <v>84</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25365,11 +25509,14 @@
       </c>
       <c r="AD7" t="s">
         <v>85</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -25457,11 +25604,14 @@
       </c>
       <c r="AD8" t="s">
         <v>85</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25548,12 +25698,15 @@
         <v>84</v>
       </c>
       <c r="AD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25641,11 +25794,14 @@
       </c>
       <c r="AD10" t="s">
         <v>84</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -25733,6 +25889,9 @@
       </c>
       <c r="AD11" t="s">
         <v>84</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -25769,7 +25928,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25799,7 +25958,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25808,7 +25967,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25817,18 +25976,21 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
         <v>139</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -25903,12 +26065,15 @@
         <v>85</v>
       </c>
       <c r="Z2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -25983,12 +26148,15 @@
         <v>87</v>
       </c>
       <c r="Z3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -26063,12 +26231,15 @@
         <v>85</v>
       </c>
       <c r="Z4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26144,11 +26315,14 @@
       </c>
       <c r="Z5" t="s">
         <v>84</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26224,11 +26398,14 @@
       </c>
       <c r="Z6" t="s">
         <v>84</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26304,11 +26481,14 @@
       </c>
       <c r="Z7" t="s">
         <v>84</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26383,12 +26563,15 @@
         <v>88</v>
       </c>
       <c r="Z8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26464,11 +26647,14 @@
       </c>
       <c r="Z9" t="s">
         <v>84</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26544,11 +26730,14 @@
       </c>
       <c r="Z10" t="s">
         <v>84</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26624,6 +26813,9 @@
       </c>
       <c r="Z11" t="s">
         <v>85</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -26663,7 +26855,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26699,19 +26891,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="W1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26729,18 +26921,21 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -26837,11 +27032,14 @@
       </c>
       <c r="AG2" t="s">
         <v>88</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -26937,12 +27135,15 @@
         <v>84</v>
       </c>
       <c r="AG3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -27038,12 +27239,15 @@
         <v>88</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -27139,12 +27343,15 @@
         <v>85</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27241,11 +27448,14 @@
       </c>
       <c r="AG6" t="s">
         <v>84</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27342,11 +27552,14 @@
       </c>
       <c r="AG7" t="s">
         <v>89</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27443,11 +27656,14 @@
       </c>
       <c r="AG8" t="s">
         <v>90</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27544,11 +27760,14 @@
       </c>
       <c r="AG9" t="s">
         <v>87</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27645,11 +27864,14 @@
       </c>
       <c r="AG10" t="s">
         <v>84</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27746,6 +27968,9 @@
       </c>
       <c r="AG11" t="s">
         <v>87</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30672,7 +30897,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30714,10 +30939,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="T1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30762,16 +30987,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AJ1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AK1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AL1" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -30801,7 +31026,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -30813,7 +31038,7 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BA1" t="s">
         <v>135</v>
@@ -30840,7 +31065,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -30852,18 +31077,27 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BN1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BO1" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>477</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31061,12 +31295,21 @@
         <v>90</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31265,11 +31508,20 @@
       </c>
       <c r="BO3" t="s">
         <v>88</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31468,11 +31720,20 @@
       </c>
       <c r="BO4" t="s">
         <v>88</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31670,12 +31931,21 @@
         <v>85</v>
       </c>
       <c r="BO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -31873,12 +32143,21 @@
         <v>84</v>
       </c>
       <c r="BO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32077,11 +32356,20 @@
       </c>
       <c r="BO7" t="s">
         <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32279,12 +32567,21 @@
         <v>84</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32482,12 +32779,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -32685,12 +32991,21 @@
         <v>84</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -32888,12 +33203,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33092,11 +33416,20 @@
       </c>
       <c r="BO12" t="s">
         <v>85</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33295,11 +33628,20 @@
       </c>
       <c r="BO13" t="s">
         <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR13" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33497,12 +33839,21 @@
         <v>84</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -33701,11 +34052,20 @@
       </c>
       <c r="BO15" t="s">
         <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR15" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -33904,11 +34264,20 @@
       </c>
       <c r="BO16" t="s">
         <v>85</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34107,11 +34476,20 @@
       </c>
       <c r="BO17" t="s">
         <v>84</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34309,12 +34687,21 @@
         <v>84</v>
       </c>
       <c r="BO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34512,12 +34899,21 @@
         <v>84</v>
       </c>
       <c r="BO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -34715,12 +35111,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -34919,6 +35324,15 @@
       </c>
       <c r="BO21" t="s">
         <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -34946,7 +35360,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -34970,19 +35384,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="N1" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="O1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P1" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="Q1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35006,7 +35420,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35030,19 +35444,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AH1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AI1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AJ1" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AK1" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35054,13 +35468,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AP1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AQ1" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35072,7 +35486,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35087,13 +35501,13 @@
         <v>133</v>
       </c>
       <c r="AZ1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="BA1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="BB1" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35105,19 +35519,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="BG1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="BH1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="BI1" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="BJ1" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35129,7 +35543,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35141,7 +35555,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35165,7 +35579,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35175,11 +35589,20 @@
       </c>
       <c r="CC1" t="s">
         <v>63</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>477</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35420,11 +35843,20 @@
       </c>
       <c r="CC2" t="s">
         <v>86</v>
+      </c>
+      <c r="CD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -35664,12 +36096,21 @@
         <v>84</v>
       </c>
       <c r="CC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -35910,11 +36351,20 @@
       </c>
       <c r="CC4" t="s">
         <v>85</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36154,12 +36604,21 @@
         <v>84</v>
       </c>
       <c r="CC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36400,11 +36859,20 @@
       </c>
       <c r="CC6" t="s">
         <v>86</v>
+      </c>
+      <c r="CD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE6" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -36644,12 +37112,21 @@
         <v>86</v>
       </c>
       <c r="CC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -36890,11 +37367,20 @@
       </c>
       <c r="CC8" t="s">
         <v>86</v>
+      </c>
+      <c r="CD8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE8" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37134,12 +37620,21 @@
         <v>84</v>
       </c>
       <c r="CC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE9" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37380,11 +37875,20 @@
       </c>
       <c r="CC10" t="s">
         <v>86</v>
+      </c>
+      <c r="CD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -37624,12 +38128,21 @@
         <v>88</v>
       </c>
       <c r="CC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE11" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -37869,12 +38382,21 @@
         <v>85</v>
       </c>
       <c r="CC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE12" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38114,12 +38636,21 @@
         <v>86</v>
       </c>
       <c r="CC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38359,12 +38890,21 @@
         <v>84</v>
       </c>
       <c r="CC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE14" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -38605,11 +39145,20 @@
       </c>
       <c r="CC15" t="s">
         <v>84</v>
+      </c>
+      <c r="CD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -38850,11 +39399,20 @@
       </c>
       <c r="CC16" t="s">
         <v>87</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39095,11 +39653,20 @@
       </c>
       <c r="CC17" t="s">
         <v>86</v>
+      </c>
+      <c r="CD17" t="s">
+        <v>86</v>
+      </c>
+      <c r="CE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39340,11 +39907,20 @@
       </c>
       <c r="CC18" t="s">
         <v>85</v>
+      </c>
+      <c r="CD18" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -39585,11 +40161,20 @@
       </c>
       <c r="CC19" t="s">
         <v>88</v>
+      </c>
+      <c r="CD19" t="s">
+        <v>87</v>
+      </c>
+      <c r="CE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CF19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -39829,12 +40414,21 @@
         <v>86</v>
       </c>
       <c r="CC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CD20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE20" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40075,11 +40669,20 @@
       </c>
       <c r="CC21" t="s">
         <v>86</v>
+      </c>
+      <c r="CD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CF21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40320,11 +40923,20 @@
       </c>
       <c r="CC22" t="s">
         <v>86</v>
+      </c>
+      <c r="CD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CF22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -40565,6 +41177,15 @@
       </c>
       <c r="CC23" t="s">
         <v>88</v>
+      </c>
+      <c r="CD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CE23" t="s">
+        <v>88</v>
+      </c>
+      <c r="CF23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -40592,7 +41213,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -40634,7 +41255,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -40685,7 +41306,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -40715,7 +41336,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -40727,7 +41348,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -40751,7 +41372,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -40763,16 +41384,16 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="BK1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="BL1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="BM1" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
@@ -40783,7 +41404,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -40986,7 +41607,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41189,7 +41810,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -41392,7 +42013,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -41595,7 +42216,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -41798,7 +42419,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42001,7 +42622,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42204,7 +42825,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -42407,7 +43028,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -42610,7 +43231,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -42813,7 +43434,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43016,7 +43637,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43219,7 +43840,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -43422,7 +44043,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -43625,7 +44246,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -43828,7 +44449,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44031,7 +44652,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -44234,7 +44855,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -44437,7 +45058,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -44640,7 +45261,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -48202,10 +48823,19 @@
       <c r="BC1" t="s">
         <v>140</v>
       </c>
+      <c r="BD1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -48367,12 +48997,21 @@
         <v>84</v>
       </c>
       <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -48534,12 +49173,21 @@
         <v>84</v>
       </c>
       <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -48701,12 +49349,21 @@
         <v>85</v>
       </c>
       <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -48868,12 +49525,21 @@
         <v>85</v>
       </c>
       <c r="BC5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49036,11 +49702,20 @@
       </c>
       <c r="BC6" t="s">
         <v>87</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49202,12 +49877,21 @@
         <v>85</v>
       </c>
       <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -49369,12 +50053,21 @@
         <v>84</v>
       </c>
       <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -49536,12 +50229,21 @@
         <v>84</v>
       </c>
       <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
+        <v>87</v>
+      </c>
+      <c r="BF9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -49703,12 +50405,21 @@
         <v>84</v>
       </c>
       <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BF10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -49870,12 +50581,21 @@
         <v>84</v>
       </c>
       <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50037,12 +50757,21 @@
         <v>84</v>
       </c>
       <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>88</v>
+      </c>
+      <c r="BF12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50204,12 +50933,21 @@
         <v>86</v>
       </c>
       <c r="BC13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -50371,12 +51109,21 @@
         <v>84</v>
       </c>
       <c r="BC14" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -50538,12 +51285,21 @@
         <v>84</v>
       </c>
       <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -50705,12 +51461,21 @@
         <v>84</v>
       </c>
       <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -50872,12 +51637,21 @@
         <v>84</v>
       </c>
       <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51039,12 +51813,21 @@
         <v>84</v>
       </c>
       <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -51206,12 +51989,21 @@
         <v>84</v>
       </c>
       <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -51373,12 +52165,21 @@
         <v>84</v>
       </c>
       <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -51541,6 +52342,15 @@
       </c>
       <c r="BC21" t="s">
         <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BF21" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -51571,10 +52381,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="G1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -51595,10 +52405,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="O1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -51610,10 +52420,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="T1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -51631,10 +52441,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AA1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -51649,10 +52459,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AG1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -51667,7 +52477,7 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AM1" t="s">
         <v>111</v>
@@ -51682,7 +52492,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -51703,7 +52513,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -51716,11 +52526,20 @@
       </c>
       <c r="BB1" t="s">
         <v>140</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -51879,12 +52698,21 @@
         <v>88</v>
       </c>
       <c r="BB2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52043,12 +52871,21 @@
         <v>84</v>
       </c>
       <c r="BB3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -52207,12 +53044,21 @@
         <v>85</v>
       </c>
       <c r="BB4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -52371,12 +53217,21 @@
         <v>88</v>
       </c>
       <c r="BB5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>86</v>
+      </c>
+      <c r="BD5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -52536,11 +53391,20 @@
       </c>
       <c r="BB6" t="s">
         <v>86</v>
+      </c>
+      <c r="BC6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -52700,11 +53564,20 @@
       </c>
       <c r="BB7" t="s">
         <v>88</v>
+      </c>
+      <c r="BC7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD7" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -52864,11 +53737,20 @@
       </c>
       <c r="BB8" t="s">
         <v>87</v>
+      </c>
+      <c r="BC8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53027,12 +53909,21 @@
         <v>85</v>
       </c>
       <c r="BB9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -53192,11 +54083,20 @@
       </c>
       <c r="BB10" t="s">
         <v>85</v>
+      </c>
+      <c r="BC10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -53355,12 +54255,21 @@
         <v>84</v>
       </c>
       <c r="BB11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -53520,11 +54429,20 @@
       </c>
       <c r="BB12" t="s">
         <v>86</v>
+      </c>
+      <c r="BC12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD12" t="s">
+        <v>86</v>
+      </c>
+      <c r="BE12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -53683,12 +54601,21 @@
         <v>84</v>
       </c>
       <c r="BB13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BD13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -53847,12 +54774,21 @@
         <v>84</v>
       </c>
       <c r="BB14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54011,12 +54947,21 @@
         <v>85</v>
       </c>
       <c r="BB15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -54175,12 +55120,21 @@
         <v>86</v>
       </c>
       <c r="BB16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BE16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -54340,11 +55294,20 @@
       </c>
       <c r="BB17" t="s">
         <v>85</v>
+      </c>
+      <c r="BC17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -54503,12 +55466,21 @@
         <v>84</v>
       </c>
       <c r="BB18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -54668,11 +55640,20 @@
       </c>
       <c r="BB19" t="s">
         <v>84</v>
+      </c>
+      <c r="BC19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -54832,11 +55813,20 @@
       </c>
       <c r="BB20" t="s">
         <v>85</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD20" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -54996,11 +55986,20 @@
       </c>
       <c r="BB21" t="s">
         <v>84</v>
+      </c>
+      <c r="BC21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -55159,12 +56158,21 @@
         <v>84</v>
       </c>
       <c r="BB22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD22" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -55323,12 +56331,21 @@
         <v>84</v>
       </c>
       <c r="BB23" t="s">
+        <v>88</v>
+      </c>
+      <c r="BC23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD23" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE23" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -55487,12 +56504,21 @@
         <v>84</v>
       </c>
       <c r="BB24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD24" t="s">
+        <v>84</v>
+      </c>
+      <c r="BE24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -55651,6 +56677,15 @@
         <v>84</v>
       </c>
       <c r="BB25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BC25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BD25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BE25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -55676,7 +56711,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -55688,34 +56723,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -55724,31 +56759,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Y1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -55760,10 +56795,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AG1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -55782,11 +56817,20 @@
       </c>
       <c r="AM1" t="s">
         <v>140</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -55900,12 +56944,21 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -56019,12 +57072,21 @@
         <v>87</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -56138,12 +57200,21 @@
         <v>84</v>
       </c>
       <c r="AM4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -56257,12 +57328,21 @@
         <v>84</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -56377,11 +57457,20 @@
       </c>
       <c r="AM6" t="s">
         <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -56495,12 +57584,21 @@
         <v>84</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -56614,12 +57712,21 @@
         <v>84</v>
       </c>
       <c r="AM8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -56733,12 +57840,21 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -56852,12 +57968,21 @@
         <v>84</v>
       </c>
       <c r="AM10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -56971,12 +58096,21 @@
         <v>84</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -57090,12 +58224,21 @@
         <v>84</v>
       </c>
       <c r="AM12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -57209,12 +58352,21 @@
         <v>86</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -57328,12 +58480,21 @@
         <v>84</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -57447,12 +58608,21 @@
         <v>84</v>
       </c>
       <c r="AM15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -57566,12 +58736,21 @@
         <v>88</v>
       </c>
       <c r="AM16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -57685,12 +58864,21 @@
         <v>86</v>
       </c>
       <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -57804,12 +58992,21 @@
         <v>84</v>
       </c>
       <c r="AM18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -57924,11 +59121,20 @@
       </c>
       <c r="AM19" t="s">
         <v>84</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -58042,12 +59248,21 @@
         <v>84</v>
       </c>
       <c r="AM20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -58162,11 +59377,20 @@
       </c>
       <c r="AM21" t="s">
         <v>90</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -58280,12 +59504,21 @@
         <v>86</v>
       </c>
       <c r="AM22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -58400,11 +59633,20 @@
       </c>
       <c r="AM23" t="s">
         <v>86</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -58518,12 +59760,21 @@
         <v>84</v>
       </c>
       <c r="AM24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -58637,6 +59888,15 @@
         <v>85</v>
       </c>
       <c r="AM25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP25" t="s">
         <v>84</v>
       </c>
     </row>
@@ -58662,13 +59922,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -58677,7 +59937,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -58686,13 +59946,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -58704,37 +59964,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="S1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Z1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -58743,10 +60003,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -58759,11 +60019,14 @@
       </c>
       <c r="AJ1" t="s">
         <v>139</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -58869,11 +60132,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>86</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -58979,11 +60245,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -59088,12 +60357,15 @@
         <v>84</v>
       </c>
       <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -59199,11 +60471,14 @@
       </c>
       <c r="AJ5" t="s">
         <v>84</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -59309,11 +60584,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -59419,11 +60697,14 @@
       </c>
       <c r="AJ7" t="s">
         <v>84</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -59529,11 +60810,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -59639,11 +60923,14 @@
       </c>
       <c r="AJ9" t="s">
         <v>84</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -59748,12 +61035,15 @@
         <v>84</v>
       </c>
       <c r="AJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -59859,11 +61149,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>84</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -59968,12 +61261,15 @@
         <v>84</v>
       </c>
       <c r="AJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -60078,12 +61374,15 @@
         <v>88</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -60189,11 +61488,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -60299,11 +61601,14 @@
       </c>
       <c r="AJ15" t="s">
         <v>84</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -60408,12 +61713,15 @@
         <v>87</v>
       </c>
       <c r="AJ16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -60518,12 +61826,15 @@
         <v>84</v>
       </c>
       <c r="AJ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -60628,12 +61939,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -60738,12 +62052,15 @@
         <v>84</v>
       </c>
       <c r="AJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -60849,11 +62166,14 @@
       </c>
       <c r="AJ20" t="s">
         <v>84</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -60959,11 +62279,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>86</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -61069,11 +62392,14 @@
       </c>
       <c r="AJ22" t="s">
         <v>84</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -61179,11 +62505,14 @@
       </c>
       <c r="AJ23" t="s">
         <v>86</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -61288,12 +62617,15 @@
         <v>86</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -61399,6 +62731,9 @@
       </c>
       <c r="AJ25" t="s">
         <v>84</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -61423,61 +62758,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="V1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -61486,7 +62821,7 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
@@ -61498,7 +62833,7 @@
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -61511,11 +62846,20 @@
       </c>
       <c r="AG1" t="s">
         <v>138</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -61612,11 +62956,20 @@
       </c>
       <c r="AG2" t="s">
         <v>85</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -61713,11 +63066,20 @@
       </c>
       <c r="AG3" t="s">
         <v>88</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -61813,12 +63175,21 @@
         <v>84</v>
       </c>
       <c r="AG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -61914,12 +63285,21 @@
         <v>84</v>
       </c>
       <c r="AG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -62016,11 +63396,20 @@
       </c>
       <c r="AG6" t="s">
         <v>85</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -62117,11 +63506,20 @@
       </c>
       <c r="AG7" t="s">
         <v>85</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -62218,11 +63616,20 @@
       </c>
       <c r="AG8" t="s">
         <v>86</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -62319,11 +63726,20 @@
       </c>
       <c r="AG9" t="s">
         <v>87</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -62420,11 +63836,20 @@
       </c>
       <c r="AG10" t="s">
         <v>85</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -62521,11 +63946,20 @@
       </c>
       <c r="AG11" t="s">
         <v>84</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -62621,12 +64055,21 @@
         <v>84</v>
       </c>
       <c r="AG12" t="s">
+        <v>85</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -62722,12 +64165,21 @@
         <v>84</v>
       </c>
       <c r="AG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -62824,11 +64276,20 @@
       </c>
       <c r="AG14" t="s">
         <v>86</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -62924,12 +64385,21 @@
         <v>84</v>
       </c>
       <c r="AG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -63026,11 +64496,20 @@
       </c>
       <c r="AG16" t="s">
         <v>85</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -63126,12 +64605,21 @@
         <v>85</v>
       </c>
       <c r="AG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -63228,11 +64716,20 @@
       </c>
       <c r="AG18" t="s">
         <v>86</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -63329,11 +64826,20 @@
       </c>
       <c r="AG19" t="s">
         <v>88</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>85</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -63429,12 +64935,21 @@
         <v>84</v>
       </c>
       <c r="AG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -63530,12 +65045,21 @@
         <v>84</v>
       </c>
       <c r="AG21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -63632,11 +65156,20 @@
       </c>
       <c r="AG22" t="s">
         <v>88</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -63733,11 +65266,20 @@
       </c>
       <c r="AG23" t="s">
         <v>86</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -63833,6 +65375,15 @@
         <v>87</v>
       </c>
       <c r="AG24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -63942,7 +65493,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -63999,12 +65550,12 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -64159,7 +65710,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -64314,7 +65865,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -64469,7 +66020,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -64624,7 +66175,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -64779,7 +66330,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -64934,7 +66485,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -65089,7 +66640,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -65244,7 +66795,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -65399,7 +66950,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -65554,7 +67105,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -65709,7 +67260,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -65864,7 +67415,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -66019,7 +67570,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -66174,7 +67725,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -66329,7 +67880,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -66484,7 +68035,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -66639,7 +68190,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -66794,7 +68345,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -66949,7 +68500,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>

--- a/GCmatrix.xlsx
+++ b/GCmatrix.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21924" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22541" uniqueCount="557">
   <si>
     <t>X2021.07.23</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>7</t>
+  </si>
+  <si>
+    <t>X2022.01.07</t>
+  </si>
+  <si>
+    <t>X2022.01.08</t>
+  </si>
+  <si>
+    <t>X2022.01.09</t>
   </si>
   <si>
     <t>Augsburg</t>
@@ -743,6 +752,9 @@
     <t>X2021.10.08</t>
   </si>
   <si>
+    <t>X2022.01.04</t>
+  </si>
+  <si>
     <t>Barrow</t>
   </si>
   <si>
@@ -1052,6 +1064,9 @@
     <t>Valenciennes</t>
   </si>
   <si>
+    <t>X2022.01.05</t>
+  </si>
+  <si>
     <t>AEK</t>
   </si>
   <si>
@@ -1098,6 +1113,9 @@
   </si>
   <si>
     <t>X2021.10.28</t>
+  </si>
+  <si>
+    <t>X2022.01.06</t>
   </si>
   <si>
     <t>Atalanta</t>
@@ -5610,37 +5628,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="H1" t="s">
         <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K1" t="s">
         <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M1" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N1" t="s">
         <v>17</v>
@@ -5652,13 +5670,13 @@
         <v>22</v>
       </c>
       <c r="Q1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="R1" t="s">
         <v>24</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T1" t="s">
         <v>28</v>
@@ -5667,7 +5685,7 @@
         <v>29</v>
       </c>
       <c r="V1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="W1" t="s">
         <v>32</v>
@@ -5676,19 +5694,19 @@
         <v>35</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Z1" t="s">
         <v>38</v>
       </c>
       <c r="AA1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AB1" t="s">
         <v>41</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>44</v>
@@ -5697,7 +5715,7 @@
         <v>47</v>
       </c>
       <c r="AF1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AG1" t="s">
         <v>52</v>
@@ -5706,21 +5724,24 @@
         <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
       </c>
       <c r="AK1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AL1" t="s">
-        <v>318</v>
+        <v>322</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -5832,11 +5853,14 @@
       </c>
       <c r="AL2" t="s">
         <v>86</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -5948,11 +5972,14 @@
       </c>
       <c r="AL3" t="s">
         <v>85</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
@@ -6064,11 +6091,14 @@
       </c>
       <c r="AL4" t="s">
         <v>87</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -6179,12 +6209,15 @@
         <v>84</v>
       </c>
       <c r="AL5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -6296,11 +6329,14 @@
       </c>
       <c r="AL6" t="s">
         <v>88</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -6412,11 +6448,14 @@
       </c>
       <c r="AL7" t="s">
         <v>86</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -6528,11 +6567,14 @@
       </c>
       <c r="AL8" t="s">
         <v>88</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
@@ -6643,12 +6685,15 @@
         <v>84</v>
       </c>
       <c r="AL9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -6759,12 +6804,15 @@
         <v>84</v>
       </c>
       <c r="AL10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM10" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -6876,11 +6924,14 @@
       </c>
       <c r="AL11" t="s">
         <v>88</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -6992,11 +7043,14 @@
       </c>
       <c r="AL12" t="s">
         <v>87</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -7108,11 +7162,14 @@
       </c>
       <c r="AL13" t="s">
         <v>88</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -7224,11 +7281,14 @@
       </c>
       <c r="AL14" t="s">
         <v>86</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -7340,11 +7400,14 @@
       </c>
       <c r="AL15" t="s">
         <v>86</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -7456,11 +7519,14 @@
       </c>
       <c r="AL16" t="s">
         <v>87</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -7572,11 +7638,14 @@
       </c>
       <c r="AL17" t="s">
         <v>88</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>89</v>
@@ -7688,11 +7757,14 @@
       </c>
       <c r="AL18" t="s">
         <v>86</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -7804,11 +7876,14 @@
       </c>
       <c r="AL19" t="s">
         <v>85</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -7920,11 +7995,14 @@
       </c>
       <c r="AL20" t="s">
         <v>85</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -8035,6 +8113,9 @@
         <v>84</v>
       </c>
       <c r="AL21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AM21" t="s">
         <v>85</v>
       </c>
     </row>
@@ -8081,7 +8162,7 @@
         <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L1" t="s">
         <v>32</v>
@@ -8096,7 +8177,7 @@
         <v>36</v>
       </c>
       <c r="P1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
@@ -8111,7 +8192,7 @@
         <v>42</v>
       </c>
       <c r="U1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="V1" t="s">
         <v>44</v>
@@ -8126,7 +8207,7 @@
         <v>48</v>
       </c>
       <c r="Z1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AA1" t="s">
         <v>50</v>
@@ -8141,7 +8222,7 @@
         <v>54</v>
       </c>
       <c r="AE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AF1" t="s">
         <v>56</v>
@@ -8165,12 +8246,24 @@
         <v>63</v>
       </c>
       <c r="AM1" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -8285,11 +8378,23 @@
       </c>
       <c r="AM2" t="s">
         <v>88</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
@@ -8403,12 +8508,24 @@
         <v>84</v>
       </c>
       <c r="AM3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -8523,11 +8640,23 @@
       </c>
       <c r="AM4" t="s">
         <v>86</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -8641,12 +8770,24 @@
         <v>87</v>
       </c>
       <c r="AM5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -8760,12 +8901,24 @@
         <v>84</v>
       </c>
       <c r="AM6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -8879,12 +9032,24 @@
         <v>88</v>
       </c>
       <c r="AM7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>86</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -8999,11 +9164,23 @@
       </c>
       <c r="AM8" t="s">
         <v>85</v>
+      </c>
+      <c r="AN8" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -9117,12 +9294,24 @@
         <v>85</v>
       </c>
       <c r="AM9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -9237,11 +9426,23 @@
       </c>
       <c r="AM10" t="s">
         <v>85</v>
+      </c>
+      <c r="AN10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -9355,12 +9556,24 @@
         <v>86</v>
       </c>
       <c r="AM11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -9475,11 +9688,23 @@
       </c>
       <c r="AM12" t="s">
         <v>84</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>86</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
         <v>86</v>
@@ -9593,12 +9818,24 @@
         <v>84</v>
       </c>
       <c r="AM13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -9712,12 +9949,24 @@
         <v>88</v>
       </c>
       <c r="AM14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -9832,6 +10081,18 @@
       </c>
       <c r="AM15" t="s">
         <v>84</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -9856,7 +10117,7 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
@@ -9886,10 +10147,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -9904,7 +10165,7 @@
         <v>30</v>
       </c>
       <c r="T1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -9922,7 +10183,7 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AA1" t="s">
         <v>37</v>
@@ -9934,13 +10195,13 @@
         <v>39</v>
       </c>
       <c r="AD1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AE1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AF1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AG1" t="s">
         <v>41</v>
@@ -9949,7 +10210,7 @@
         <v>42</v>
       </c>
       <c r="AI1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AJ1" t="s">
         <v>43</v>
@@ -9967,7 +10228,7 @@
         <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AP1" t="s">
         <v>49</v>
@@ -9979,13 +10240,13 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AT1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AU1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AV1" t="s">
         <v>53</v>
@@ -9994,7 +10255,7 @@
         <v>54</v>
       </c>
       <c r="AX1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AY1" t="s">
         <v>55</v>
@@ -10006,7 +10267,7 @@
         <v>57</v>
       </c>
       <c r="BB1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BC1" t="s">
         <v>61</v>
@@ -10018,15 +10279,21 @@
         <v>63</v>
       </c>
       <c r="BF1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BG1" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -10201,11 +10468,17 @@
       </c>
       <c r="BG2" t="s">
         <v>84</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -10380,11 +10653,17 @@
       </c>
       <c r="BG3" t="s">
         <v>86</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -10558,12 +10837,18 @@
         <v>88</v>
       </c>
       <c r="BG4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
@@ -10738,11 +11023,17 @@
       </c>
       <c r="BG5" t="s">
         <v>89</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -10917,11 +11208,17 @@
       </c>
       <c r="BG6" t="s">
         <v>85</v>
+      </c>
+      <c r="BH6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s">
         <v>89</v>
@@ -11096,11 +11393,17 @@
       </c>
       <c r="BG7" t="s">
         <v>84</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -11275,11 +11578,17 @@
       </c>
       <c r="BG8" t="s">
         <v>86</v>
+      </c>
+      <c r="BH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -11454,11 +11763,17 @@
       </c>
       <c r="BG9" t="s">
         <v>84</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI9" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
@@ -11633,11 +11948,17 @@
       </c>
       <c r="BG10" t="s">
         <v>85</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -11812,11 +12133,17 @@
       </c>
       <c r="BG11" t="s">
         <v>88</v>
+      </c>
+      <c r="BH11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -11991,11 +12318,17 @@
       </c>
       <c r="BG12" t="s">
         <v>85</v>
+      </c>
+      <c r="BH12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -12170,11 +12503,17 @@
       </c>
       <c r="BG13" t="s">
         <v>85</v>
+      </c>
+      <c r="BH13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BI13" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -12349,11 +12688,17 @@
       </c>
       <c r="BG14" t="s">
         <v>84</v>
+      </c>
+      <c r="BH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -12527,12 +12872,18 @@
         <v>84</v>
       </c>
       <c r="BG15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI15" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -12707,11 +13058,17 @@
       </c>
       <c r="BG16" t="s">
         <v>87</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -12885,12 +13242,18 @@
         <v>84</v>
       </c>
       <c r="BG17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BH17" t="s">
+        <v>88</v>
+      </c>
+      <c r="BI17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -13065,11 +13428,17 @@
       </c>
       <c r="BG18" t="s">
         <v>85</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -13244,11 +13613,17 @@
       </c>
       <c r="BG19" t="s">
         <v>84</v>
+      </c>
+      <c r="BH19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI19" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -13422,12 +13797,18 @@
         <v>84</v>
       </c>
       <c r="BG20" t="s">
+        <v>87</v>
+      </c>
+      <c r="BH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BI20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B21" t="s">
         <v>87</v>
@@ -13602,6 +13983,12 @@
       </c>
       <c r="BG21" t="s">
         <v>85</v>
+      </c>
+      <c r="BH21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BI21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -13656,10 +14043,10 @@
         <v>25</v>
       </c>
       <c r="N1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P1" t="s">
         <v>26</v>
@@ -13695,13 +14082,13 @@
         <v>39</v>
       </c>
       <c r="AA1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -13728,13 +14115,13 @@
         <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AM1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AN1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -13763,7 +14150,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -13909,7 +14296,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -14055,7 +14442,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -14201,7 +14588,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -14347,7 +14734,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -14493,7 +14880,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -14639,7 +15026,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -14785,7 +15172,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -14931,7 +15318,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -15077,7 +15464,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B11" t="s">
         <v>88</v>
@@ -15223,7 +15610,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -15369,7 +15756,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -15515,7 +15902,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B14" t="s">
         <v>88</v>
@@ -15661,7 +16048,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -15807,7 +16194,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -15953,7 +16340,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -16099,7 +16486,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -16245,7 +16632,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -16391,7 +16778,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -16537,7 +16924,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -16739,7 +17126,7 @@
         <v>25</v>
       </c>
       <c r="P1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q1" t="s">
         <v>26</v>
@@ -16808,10 +17195,10 @@
         <v>51</v>
       </c>
       <c r="AM1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AN1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AO1" t="s">
         <v>52</v>
@@ -16838,18 +17225,18 @@
         <v>63</v>
       </c>
       <c r="AW1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AX1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AY1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -17004,7 +17391,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -17159,7 +17546,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -17198,7 +17585,7 @@
         <v>84</v>
       </c>
       <c r="N4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="O4" t="s">
         <v>84</v>
@@ -17314,7 +17701,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -17469,7 +17856,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -17624,7 +18011,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -17779,7 +18166,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -17934,7 +18321,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -18089,7 +18476,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -18244,7 +18631,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -18399,7 +18786,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -18554,7 +18941,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -18709,7 +19096,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -18864,7 +19251,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -19019,7 +19406,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -19174,7 +19561,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -19329,7 +19716,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -19484,7 +19871,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -19662,7 +20049,7 @@
         <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F1" t="s">
         <v>10</v>
@@ -19674,7 +20061,7 @@
         <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="J1" t="s">
         <v>13</v>
@@ -19686,7 +20073,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N1" t="s">
         <v>16</v>
@@ -19716,7 +20103,7 @@
         <v>25</v>
       </c>
       <c r="W1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="X1" t="s">
         <v>28</v>
@@ -19728,7 +20115,7 @@
         <v>30</v>
       </c>
       <c r="AA1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AB1" t="s">
         <v>31</v>
@@ -19749,7 +20136,7 @@
         <v>39</v>
       </c>
       <c r="AH1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AI1" t="s">
         <v>40</v>
@@ -19761,7 +20148,7 @@
         <v>42</v>
       </c>
       <c r="AL1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AM1" t="s">
         <v>43</v>
@@ -19782,10 +20169,10 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AT1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AU1" t="s">
         <v>52</v>
@@ -19806,7 +20193,7 @@
         <v>57</v>
       </c>
       <c r="BA1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BB1" t="s">
         <v>61</v>
@@ -19818,24 +20205,33 @@
         <v>63</v>
       </c>
       <c r="BE1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BF1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BG1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BH1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BI1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -20016,11 +20412,20 @@
       </c>
       <c r="BI2" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -20201,11 +20606,20 @@
       </c>
       <c r="BI3" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -20386,11 +20800,20 @@
       </c>
       <c r="BI4" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -20570,12 +20993,21 @@
         <v>84</v>
       </c>
       <c r="BI5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -20755,12 +21187,21 @@
         <v>84</v>
       </c>
       <c r="BI6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK6" t="s">
+        <v>87</v>
+      </c>
+      <c r="BL6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -20941,11 +21382,20 @@
       </c>
       <c r="BI7" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -21125,12 +21575,21 @@
         <v>84</v>
       </c>
       <c r="BI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -21310,12 +21769,21 @@
         <v>84</v>
       </c>
       <c r="BI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -21496,11 +21964,20 @@
       </c>
       <c r="BI10" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -21681,11 +22158,20 @@
       </c>
       <c r="BI11" t="s">
         <v>88</v>
+      </c>
+      <c r="BJ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BL11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -21866,11 +22352,20 @@
       </c>
       <c r="BI12" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -22051,11 +22546,20 @@
       </c>
       <c r="BI13" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL13" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -22235,12 +22739,21 @@
         <v>84</v>
       </c>
       <c r="BI14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BL14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -22420,12 +22933,21 @@
         <v>84</v>
       </c>
       <c r="BI15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>88</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -22606,11 +23128,20 @@
       </c>
       <c r="BI16" t="s">
         <v>84</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -22790,12 +23321,21 @@
         <v>84</v>
       </c>
       <c r="BI17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ17" t="s">
+        <v>87</v>
+      </c>
+      <c r="BK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BL17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -22976,11 +23516,20 @@
       </c>
       <c r="BI18" t="s">
         <v>85</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -23160,6 +23709,15 @@
         <v>86</v>
       </c>
       <c r="BI19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BJ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BK19" t="s">
+        <v>85</v>
+      </c>
+      <c r="BL19" t="s">
         <v>84</v>
       </c>
     </row>
@@ -23236,7 +23794,7 @@
         <v>39</v>
       </c>
       <c r="U1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="V1" t="s">
         <v>41</v>
@@ -23254,7 +23812,7 @@
         <v>47</v>
       </c>
       <c r="AA1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AB1" t="s">
         <v>50</v>
@@ -23263,13 +23821,13 @@
         <v>51</v>
       </c>
       <c r="AD1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AE1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AF1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AG1" t="s">
         <v>53</v>
@@ -23278,7 +23836,7 @@
         <v>54</v>
       </c>
       <c r="AI1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AJ1" t="s">
         <v>56</v>
@@ -23296,7 +23854,7 @@
         <v>62</v>
       </c>
       <c r="AO1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AP1" t="s">
         <v>64</v>
@@ -23304,7 +23862,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -23432,7 +23990,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -23560,7 +24118,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -23688,7 +24246,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -23816,7 +24374,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -23944,7 +24502,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -24072,7 +24630,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s">
         <v>87</v>
@@ -24200,7 +24758,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -24328,7 +24886,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -24456,7 +25014,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -24584,7 +25142,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B12" t="s">
         <v>86</v>
@@ -24712,7 +25270,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -24857,7 +25415,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -24869,7 +25427,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="H1" t="s">
         <v>20</v>
@@ -24887,7 +25445,7 @@
         <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N1" t="s">
         <v>32</v>
@@ -24902,7 +25460,7 @@
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
@@ -24911,7 +25469,7 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="V1" t="s">
         <v>46</v>
@@ -24938,15 +25496,18 @@
         <v>64</v>
       </c>
       <c r="AD1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AE1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -25037,11 +25598,14 @@
       </c>
       <c r="AE2" t="s">
         <v>86</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -25132,11 +25696,14 @@
       </c>
       <c r="AE3" t="s">
         <v>84</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -25227,11 +25794,14 @@
       </c>
       <c r="AE4" t="s">
         <v>86</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
@@ -25322,11 +25892,14 @@
       </c>
       <c r="AE5" t="s">
         <v>86</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -25417,11 +25990,14 @@
       </c>
       <c r="AE6" t="s">
         <v>86</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -25512,11 +26088,14 @@
       </c>
       <c r="AE7" t="s">
         <v>84</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B8" t="s">
         <v>88</v>
@@ -25607,11 +26186,14 @@
       </c>
       <c r="AE8" t="s">
         <v>84</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s">
         <v>88</v>
@@ -25702,11 +26284,14 @@
       </c>
       <c r="AE9" t="s">
         <v>84</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
         <v>87</v>
@@ -25797,11 +26382,14 @@
       </c>
       <c r="AE10" t="s">
         <v>87</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s">
         <v>89</v>
@@ -25892,6 +26480,9 @@
       </c>
       <c r="AE11" t="s">
         <v>86</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -25928,7 +26519,7 @@
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
@@ -25958,7 +26549,7 @@
         <v>44</v>
       </c>
       <c r="R1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="S1" t="s">
         <v>47</v>
@@ -25967,7 +26558,7 @@
         <v>53</v>
       </c>
       <c r="U1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="V1" t="s">
         <v>56</v>
@@ -25976,21 +26567,24 @@
         <v>62</v>
       </c>
       <c r="X1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Y1" t="s">
         <v>64</v>
       </c>
       <c r="Z1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AA1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>87</v>
@@ -26068,12 +26662,15 @@
         <v>86</v>
       </c>
       <c r="AA2" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -26152,11 +26749,14 @@
       </c>
       <c r="AA3" t="s">
         <v>84</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -26235,11 +26835,14 @@
       </c>
       <c r="AA4" t="s">
         <v>84</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>85</v>
@@ -26317,12 +26920,15 @@
         <v>84</v>
       </c>
       <c r="AA5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -26401,11 +27007,14 @@
       </c>
       <c r="AA6" t="s">
         <v>85</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -26484,11 +27093,14 @@
       </c>
       <c r="AA7" t="s">
         <v>88</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -26567,11 +27179,14 @@
       </c>
       <c r="AA8" t="s">
         <v>84</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s">
         <v>86</v>
@@ -26650,11 +27265,14 @@
       </c>
       <c r="AA9" t="s">
         <v>86</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -26733,11 +27351,14 @@
       </c>
       <c r="AA10" t="s">
         <v>85</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -26815,6 +27436,9 @@
         <v>85</v>
       </c>
       <c r="AA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB11" t="s">
         <v>84</v>
       </c>
     </row>
@@ -26855,7 +27479,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
@@ -26891,19 +27515,19 @@
         <v>44</v>
       </c>
       <c r="U1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="V1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="W1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="X1" t="s">
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
         <v>52</v>
@@ -26921,21 +27545,27 @@
         <v>62</v>
       </c>
       <c r="AE1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AF1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AG1" t="s">
         <v>64</v>
       </c>
       <c r="AH1" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B2" t="s">
         <v>86</v>
@@ -27035,11 +27665,17 @@
       </c>
       <c r="AH2" t="s">
         <v>84</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B3" t="s">
         <v>88</v>
@@ -27138,12 +27774,18 @@
         <v>85</v>
       </c>
       <c r="AH3" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -27243,11 +27885,17 @@
       </c>
       <c r="AH4" t="s">
         <v>84</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s">
         <v>88</v>
@@ -27346,12 +27994,18 @@
         <v>84</v>
       </c>
       <c r="AH5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -27451,11 +28105,17 @@
       </c>
       <c r="AH6" t="s">
         <v>86</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -27555,11 +28215,17 @@
       </c>
       <c r="AH7" t="s">
         <v>85</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -27659,11 +28325,17 @@
       </c>
       <c r="AH8" t="s">
         <v>84</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -27763,11 +28435,17 @@
       </c>
       <c r="AH9" t="s">
         <v>88</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -27867,11 +28545,17 @@
       </c>
       <c r="AH10" t="s">
         <v>85</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -27971,6 +28655,12 @@
       </c>
       <c r="AH11" t="s">
         <v>85</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -28135,10 +28825,19 @@
       <c r="AX1" t="s">
         <v>63</v>
       </c>
+      <c r="AY1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -28285,12 +28984,21 @@
         <v>86</v>
       </c>
       <c r="AX2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -28437,12 +29145,21 @@
         <v>84</v>
       </c>
       <c r="AX3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -28589,12 +29306,21 @@
         <v>86</v>
       </c>
       <c r="AX4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -28742,11 +29468,20 @@
       </c>
       <c r="AX5" t="s">
         <v>84</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -28893,12 +29628,21 @@
         <v>87</v>
       </c>
       <c r="AX6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -29045,12 +29789,21 @@
         <v>86</v>
       </c>
       <c r="AX7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>87</v>
+      </c>
+      <c r="BA7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -29198,11 +29951,20 @@
       </c>
       <c r="AX8" t="s">
         <v>86</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -29350,11 +30112,20 @@
       </c>
       <c r="AX9" t="s">
         <v>85</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -29501,12 +30272,21 @@
         <v>86</v>
       </c>
       <c r="AX10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -29654,11 +30434,20 @@
       </c>
       <c r="AX11" t="s">
         <v>84</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -29805,12 +30594,21 @@
         <v>85</v>
       </c>
       <c r="AX12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -29958,11 +30756,20 @@
       </c>
       <c r="AX13" t="s">
         <v>88</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -30109,12 +30916,21 @@
         <v>85</v>
       </c>
       <c r="AX14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -30261,12 +31077,21 @@
         <v>85</v>
       </c>
       <c r="AX15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -30413,12 +31238,21 @@
         <v>88</v>
       </c>
       <c r="AX16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -30566,11 +31400,20 @@
       </c>
       <c r="AX17" t="s">
         <v>85</v>
+      </c>
+      <c r="AY17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -30717,12 +31560,21 @@
         <v>86</v>
       </c>
       <c r="AX18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>88</v>
+      </c>
+      <c r="BA18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -30870,6 +31722,15 @@
       </c>
       <c r="AX19" t="s">
         <v>84</v>
+      </c>
+      <c r="AY19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -30897,7 +31758,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -30909,7 +31770,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -30939,10 +31800,10 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="T1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="U1" t="s">
         <v>26</v>
@@ -30957,7 +31818,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -30975,7 +31836,7 @@
         <v>36</v>
       </c>
       <c r="AE1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AF1" t="s">
         <v>37</v>
@@ -30987,16 +31848,16 @@
         <v>39</v>
       </c>
       <c r="AI1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AJ1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AK1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AL1" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="AM1" t="s">
         <v>41</v>
@@ -31005,7 +31866,7 @@
         <v>42</v>
       </c>
       <c r="AO1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AP1" t="s">
         <v>43</v>
@@ -31026,7 +31887,7 @@
         <v>48</v>
       </c>
       <c r="AV1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AW1" t="s">
         <v>49</v>
@@ -31038,10 +31899,10 @@
         <v>51</v>
       </c>
       <c r="AZ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BA1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="BB1" t="s">
         <v>52</v>
@@ -31053,7 +31914,7 @@
         <v>54</v>
       </c>
       <c r="BE1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BF1" t="s">
         <v>55</v>
@@ -31065,7 +31926,7 @@
         <v>57</v>
       </c>
       <c r="BI1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BJ1" t="s">
         <v>61</v>
@@ -31077,27 +31938,33 @@
         <v>63</v>
       </c>
       <c r="BM1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="BN1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BO1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="BP1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="BQ1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BR1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -31305,11 +32172,17 @@
       </c>
       <c r="BR2" t="s">
         <v>84</v>
+      </c>
+      <c r="BS2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT2" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -31517,11 +32390,17 @@
       </c>
       <c r="BR3" t="s">
         <v>85</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -31729,11 +32608,17 @@
       </c>
       <c r="BR4" t="s">
         <v>84</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -31940,12 +32825,18 @@
         <v>86</v>
       </c>
       <c r="BR5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -32153,11 +33044,17 @@
       </c>
       <c r="BR6" t="s">
         <v>84</v>
+      </c>
+      <c r="BS6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -32365,11 +33262,17 @@
       </c>
       <c r="BR7" t="s">
         <v>85</v>
+      </c>
+      <c r="BS7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT7" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -32576,12 +33479,18 @@
         <v>86</v>
       </c>
       <c r="BR8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS8" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -32788,12 +33697,18 @@
         <v>86</v>
       </c>
       <c r="BR9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -33000,12 +33915,18 @@
         <v>84</v>
       </c>
       <c r="BR10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -33213,11 +34134,17 @@
       </c>
       <c r="BR11" t="s">
         <v>84</v>
+      </c>
+      <c r="BS11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT11" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -33424,12 +34351,18 @@
         <v>86</v>
       </c>
       <c r="BR12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS12" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -33637,11 +34570,17 @@
       </c>
       <c r="BR13" t="s">
         <v>90</v>
+      </c>
+      <c r="BS13" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -33848,12 +34787,18 @@
         <v>85</v>
       </c>
       <c r="BR14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS14" t="s">
+        <v>88</v>
+      </c>
+      <c r="BT14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -34061,11 +35006,17 @@
       </c>
       <c r="BR15" t="s">
         <v>87</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -34272,12 +35223,18 @@
         <v>85</v>
       </c>
       <c r="BR16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>85</v>
+      </c>
+      <c r="BT16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -34484,12 +35441,18 @@
         <v>84</v>
       </c>
       <c r="BR17" t="s">
+        <v>86</v>
+      </c>
+      <c r="BS17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT17" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -34696,12 +35659,18 @@
         <v>85</v>
       </c>
       <c r="BR18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS18" t="s">
+        <v>86</v>
+      </c>
+      <c r="BT18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -34908,12 +35877,18 @@
         <v>84</v>
       </c>
       <c r="BR19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BS19" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -35121,11 +36096,17 @@
       </c>
       <c r="BR20" t="s">
         <v>84</v>
+      </c>
+      <c r="BS20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -35333,6 +36314,12 @@
       </c>
       <c r="BR21" t="s">
         <v>86</v>
+      </c>
+      <c r="BS21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT21" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -35360,7 +36347,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -35372,7 +36359,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -35384,19 +36371,19 @@
         <v>18</v>
       </c>
       <c r="M1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="N1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="O1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="Q1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="R1" t="s">
         <v>19</v>
@@ -35420,7 +36407,7 @@
         <v>25</v>
       </c>
       <c r="Y1" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Z1" t="s">
         <v>28</v>
@@ -35432,7 +36419,7 @@
         <v>30</v>
       </c>
       <c r="AC1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AD1" t="s">
         <v>31</v>
@@ -35444,19 +36431,19 @@
         <v>33</v>
       </c>
       <c r="AG1" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="AH1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AI1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AJ1" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AK1" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="AL1" t="s">
         <v>34</v>
@@ -35468,13 +36455,13 @@
         <v>36</v>
       </c>
       <c r="AO1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AP1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AQ1" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="AR1" t="s">
         <v>37</v>
@@ -35486,7 +36473,7 @@
         <v>39</v>
       </c>
       <c r="AU1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AV1" t="s">
         <v>40</v>
@@ -35498,16 +36485,16 @@
         <v>42</v>
       </c>
       <c r="AY1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AZ1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="BA1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="BB1" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="BC1" t="s">
         <v>43</v>
@@ -35519,19 +36506,19 @@
         <v>45</v>
       </c>
       <c r="BF1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="BG1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="BH1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="BI1" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="BJ1" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="BK1" t="s">
         <v>46</v>
@@ -35543,7 +36530,7 @@
         <v>48</v>
       </c>
       <c r="BN1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="BO1" t="s">
         <v>49</v>
@@ -35555,7 +36542,7 @@
         <v>51</v>
       </c>
       <c r="BR1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="BS1" t="s">
         <v>52</v>
@@ -35567,7 +36554,7 @@
         <v>54</v>
       </c>
       <c r="BV1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BW1" t="s">
         <v>55</v>
@@ -35579,7 +36566,7 @@
         <v>57</v>
       </c>
       <c r="BZ1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="CA1" t="s">
         <v>61</v>
@@ -35591,18 +36578,27 @@
         <v>63</v>
       </c>
       <c r="CD1" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="CE1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="CF1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CH1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -35852,11 +36848,20 @@
       </c>
       <c r="CF2" t="s">
         <v>85</v>
+      </c>
+      <c r="CG2" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -36106,11 +37111,20 @@
       </c>
       <c r="CF3" t="s">
         <v>84</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -36359,12 +37373,21 @@
         <v>84</v>
       </c>
       <c r="CF4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -36613,12 +37636,21 @@
         <v>84</v>
       </c>
       <c r="CF5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH5" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -36867,12 +37899,21 @@
         <v>86</v>
       </c>
       <c r="CF6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG6" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH6" t="s">
+        <v>87</v>
+      </c>
+      <c r="CI6" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s">
         <v>88</v>
@@ -37121,12 +38162,21 @@
         <v>84</v>
       </c>
       <c r="CF7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH7" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -37376,11 +38426,20 @@
       </c>
       <c r="CF8" t="s">
         <v>84</v>
+      </c>
+      <c r="CG8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH8" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -37630,11 +38689,20 @@
       </c>
       <c r="CF9" t="s">
         <v>84</v>
+      </c>
+      <c r="CG9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH9" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
         <v>86</v>
@@ -37883,12 +38951,21 @@
         <v>85</v>
       </c>
       <c r="CF10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG10" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH10" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -38137,12 +39214,21 @@
         <v>85</v>
       </c>
       <c r="CF11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG11" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH11" t="s">
+        <v>88</v>
+      </c>
+      <c r="CI11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -38392,11 +39478,20 @@
       </c>
       <c r="CF12" t="s">
         <v>84</v>
+      </c>
+      <c r="CG12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH12" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI12" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -38645,12 +39740,21 @@
         <v>85</v>
       </c>
       <c r="CF13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG13" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH13" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -38900,11 +40004,20 @@
       </c>
       <c r="CF14" t="s">
         <v>84</v>
+      </c>
+      <c r="CG14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH14" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -39154,11 +40267,20 @@
       </c>
       <c r="CF15" t="s">
         <v>86</v>
+      </c>
+      <c r="CG15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH15" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI15" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -39408,11 +40530,20 @@
       </c>
       <c r="CF16" t="s">
         <v>84</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -39661,12 +40792,21 @@
         <v>84</v>
       </c>
       <c r="CF17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH17" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -39916,11 +41056,20 @@
       </c>
       <c r="CF18" t="s">
         <v>84</v>
+      </c>
+      <c r="CG18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH18" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI18" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -40169,12 +41318,21 @@
         <v>84</v>
       </c>
       <c r="CF19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG19" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH19" t="s">
+        <v>85</v>
+      </c>
+      <c r="CI19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -40424,11 +41582,20 @@
       </c>
       <c r="CF20" t="s">
         <v>84</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -40677,12 +41844,21 @@
         <v>85</v>
       </c>
       <c r="CF21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG21" t="s">
+        <v>85</v>
+      </c>
+      <c r="CH21" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -40931,12 +42107,21 @@
         <v>86</v>
       </c>
       <c r="CF22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CG22" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH22" t="s">
+        <v>86</v>
+      </c>
+      <c r="CI22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B23" t="s">
         <v>86</v>
@@ -41186,6 +42371,15 @@
       </c>
       <c r="CF23" t="s">
         <v>84</v>
+      </c>
+      <c r="CG23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CH23" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI23" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -41213,7 +42407,7 @@
         <v>12</v>
       </c>
       <c r="E1" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>13</v>
@@ -41225,7 +42419,7 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
         <v>16</v>
@@ -41255,7 +42449,7 @@
         <v>25</v>
       </c>
       <c r="S1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="T1" t="s">
         <v>26</v>
@@ -41273,7 +42467,7 @@
         <v>30</v>
       </c>
       <c r="Y1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Z1" t="s">
         <v>31</v>
@@ -41294,7 +42488,7 @@
         <v>36</v>
       </c>
       <c r="AF1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="AG1" t="s">
         <v>37</v>
@@ -41306,7 +42500,7 @@
         <v>39</v>
       </c>
       <c r="AJ1" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AK1" t="s">
         <v>40</v>
@@ -41318,7 +42512,7 @@
         <v>42</v>
       </c>
       <c r="AN1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AO1" t="s">
         <v>43</v>
@@ -41336,7 +42530,7 @@
         <v>48</v>
       </c>
       <c r="AT1" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AU1" t="s">
         <v>49</v>
@@ -41348,7 +42542,7 @@
         <v>51</v>
       </c>
       <c r="AX1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AY1" t="s">
         <v>52</v>
@@ -41360,7 +42554,7 @@
         <v>54</v>
       </c>
       <c r="BB1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="BC1" t="s">
         <v>55</v>
@@ -41372,7 +42566,7 @@
         <v>57</v>
       </c>
       <c r="BF1" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="BG1" t="s">
         <v>61</v>
@@ -41384,27 +42578,36 @@
         <v>63</v>
       </c>
       <c r="BJ1" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="BK1" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="BL1" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="BM1" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="BN1" t="s">
         <v>64</v>
       </c>
       <c r="BO1" t="s">
         <v>65</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -41602,12 +42805,21 @@
         <v>85</v>
       </c>
       <c r="BO2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -41805,12 +43017,21 @@
         <v>85</v>
       </c>
       <c r="BO3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -42009,11 +43230,20 @@
       </c>
       <c r="BO4" t="s">
         <v>84</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -42212,11 +43442,20 @@
       </c>
       <c r="BO5" t="s">
         <v>84</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -42415,11 +43654,20 @@
       </c>
       <c r="BO6" t="s">
         <v>85</v>
+      </c>
+      <c r="BP6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -42617,12 +43865,21 @@
         <v>84</v>
       </c>
       <c r="BO7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -42820,12 +44077,21 @@
         <v>86</v>
       </c>
       <c r="BO8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -43023,12 +44289,21 @@
         <v>84</v>
       </c>
       <c r="BO9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ9" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -43226,12 +44501,21 @@
         <v>86</v>
       </c>
       <c r="BO10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -43429,12 +44713,21 @@
         <v>84</v>
       </c>
       <c r="BO11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ11" t="s">
+        <v>86</v>
+      </c>
+      <c r="BR11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -43633,11 +44926,20 @@
       </c>
       <c r="BO12" t="s">
         <v>84</v>
+      </c>
+      <c r="BP12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -43835,12 +45137,21 @@
         <v>84</v>
       </c>
       <c r="BO13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ13" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -44038,12 +45349,21 @@
         <v>85</v>
       </c>
       <c r="BO14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ14" t="s">
+        <v>87</v>
+      </c>
+      <c r="BR14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -44241,12 +45561,21 @@
         <v>84</v>
       </c>
       <c r="BO15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ15" t="s">
+        <v>85</v>
+      </c>
+      <c r="BR15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -44444,12 +45773,21 @@
         <v>84</v>
       </c>
       <c r="BO16" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR16" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -44648,11 +45986,20 @@
       </c>
       <c r="BO17" t="s">
         <v>86</v>
+      </c>
+      <c r="BP17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR17" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -44851,11 +46198,20 @@
       </c>
       <c r="BO18" t="s">
         <v>84</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR18" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -45054,11 +46410,20 @@
       </c>
       <c r="BO19" t="s">
         <v>87</v>
+      </c>
+      <c r="BP19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BQ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -45256,12 +46621,21 @@
         <v>84</v>
       </c>
       <c r="BO20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP20" t="s">
+        <v>86</v>
+      </c>
+      <c r="BQ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -45459,6 +46833,15 @@
         <v>88</v>
       </c>
       <c r="BO21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BP21" t="s">
+        <v>85</v>
+      </c>
+      <c r="BQ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BR21" t="s">
         <v>84</v>
       </c>
     </row>
@@ -45601,7 +46984,7 @@
         <v>48</v>
       </c>
       <c r="AQ1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AR1" t="s">
         <v>49</v>
@@ -45642,7 +47025,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -45809,7 +47192,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -45976,7 +47359,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -46143,7 +47526,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -46310,7 +47693,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -46477,7 +47860,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -46644,7 +48027,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -46811,7 +48194,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -46978,7 +48361,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -47145,7 +48528,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -47312,7 +48695,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -47479,7 +48862,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -47646,7 +49029,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -47813,7 +49196,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -47980,7 +49363,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -48147,7 +49530,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B17" t="s">
         <v>87</v>
@@ -48314,7 +49697,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -48481,7 +49864,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -48677,7 +50060,7 @@
         <v>15</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="H1" t="s">
         <v>17</v>
@@ -48710,7 +50093,7 @@
         <v>30</v>
       </c>
       <c r="R1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="S1" t="s">
         <v>32</v>
@@ -48725,7 +50108,7 @@
         <v>36</v>
       </c>
       <c r="W1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X1" t="s">
         <v>37</v>
@@ -48743,7 +50126,7 @@
         <v>42</v>
       </c>
       <c r="AC1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="AD1" t="s">
         <v>43</v>
@@ -48767,13 +50150,13 @@
         <v>51</v>
       </c>
       <c r="AK1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AL1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AM1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AN1" t="s">
         <v>53</v>
@@ -48782,7 +50165,7 @@
         <v>54</v>
       </c>
       <c r="AP1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AQ1" t="s">
         <v>55</v>
@@ -48815,27 +50198,27 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="BB1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BC1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BD1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BE1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BF1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -49011,7 +50394,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -49187,7 +50570,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
         <v>86</v>
@@ -49363,7 +50746,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -49539,7 +50922,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -49715,7 +51098,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -49891,7 +51274,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -50067,7 +51450,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -50243,7 +51626,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -50419,7 +51802,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -50595,7 +51978,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -50771,7 +52154,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -50947,7 +52330,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -51123,7 +52506,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -51299,7 +52682,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -51475,7 +52858,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -51651,7 +53034,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -51827,7 +53210,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -52003,7 +53386,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -52179,7 +53562,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -52381,10 +53764,10 @@
         <v>11</v>
       </c>
       <c r="F1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="G1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="H1" t="s">
         <v>13</v>
@@ -52405,10 +53788,10 @@
         <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P1" t="s">
         <v>24</v>
@@ -52420,10 +53803,10 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="T1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="U1" t="s">
         <v>31</v>
@@ -52441,10 +53824,10 @@
         <v>36</v>
       </c>
       <c r="Z1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB1" t="s">
         <v>38</v>
@@ -52459,10 +53842,10 @@
         <v>41</v>
       </c>
       <c r="AF1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="AG1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AH1" t="s">
         <v>44</v>
@@ -52477,10 +53860,10 @@
         <v>48</v>
       </c>
       <c r="AL1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AM1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="AN1" t="s">
         <v>49</v>
@@ -52492,7 +53875,7 @@
         <v>51</v>
       </c>
       <c r="AQ1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AR1" t="s">
         <v>52</v>
@@ -52513,7 +53896,7 @@
         <v>62</v>
       </c>
       <c r="AX1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="AY1" t="s">
         <v>64</v>
@@ -52522,24 +53905,24 @@
         <v>65</v>
       </c>
       <c r="BA1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="BB1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="BC1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="BD1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="BE1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -52712,7 +54095,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -52885,7 +54268,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -53058,7 +54441,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -53231,7 +54614,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
         <v>88</v>
@@ -53404,7 +54787,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -53577,7 +54960,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -53750,7 +55133,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -53923,7 +55306,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -54096,7 +55479,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -54269,7 +55652,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s">
         <v>84</v>
@@ -54442,7 +55825,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -54615,7 +55998,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s">
         <v>84</v>
@@ -54788,7 +56171,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -54961,7 +56344,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -55134,7 +56517,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -55307,7 +56690,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -55480,7 +56863,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -55653,7 +57036,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -55826,7 +57209,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -55999,7 +57382,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>84</v>
@@ -56172,7 +57555,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>84</v>
@@ -56345,7 +57728,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -56518,7 +57901,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>88</v>
@@ -56711,7 +58094,7 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
@@ -56723,34 +58106,34 @@
         <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="J1" t="s">
         <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
       </c>
       <c r="M1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P1" t="s">
         <v>32</v>
       </c>
       <c r="Q1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="R1" t="s">
         <v>34</v>
@@ -56759,31 +58142,31 @@
         <v>35</v>
       </c>
       <c r="T1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="U1" t="s">
         <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="W1" t="s">
         <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Y1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Z1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>50</v>
@@ -56795,10 +58178,10 @@
         <v>53</v>
       </c>
       <c r="AF1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AG1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AH1" t="s">
         <v>56</v>
@@ -56813,24 +58196,27 @@
         <v>65</v>
       </c>
       <c r="AL1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AM1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AN1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AO1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AP1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -56954,11 +58340,14 @@
       </c>
       <c r="AP2" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -57081,12 +58470,15 @@
         <v>84</v>
       </c>
       <c r="AP3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B4" t="s">
         <v>87</v>
@@ -57209,12 +58601,15 @@
         <v>84</v>
       </c>
       <c r="AP4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -57338,11 +58733,14 @@
       </c>
       <c r="AP5" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
@@ -57466,11 +58864,14 @@
       </c>
       <c r="AP6" t="s">
         <v>86</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -57593,12 +58994,15 @@
         <v>84</v>
       </c>
       <c r="AP7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -57722,11 +59126,14 @@
       </c>
       <c r="AP8" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -57849,12 +59256,15 @@
         <v>84</v>
       </c>
       <c r="AP9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -57978,11 +59388,14 @@
       </c>
       <c r="AP10" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ10" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s">
         <v>85</v>
@@ -58106,11 +59519,14 @@
       </c>
       <c r="AP11" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -58234,11 +59650,14 @@
       </c>
       <c r="AP12" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>88</v>
@@ -58362,11 +59781,14 @@
       </c>
       <c r="AP13" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -58490,11 +59912,14 @@
       </c>
       <c r="AP14" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
         <v>87</v>
@@ -58618,11 +60043,14 @@
       </c>
       <c r="AP15" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -58745,12 +60173,15 @@
         <v>87</v>
       </c>
       <c r="AP16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -58874,11 +60305,14 @@
       </c>
       <c r="AP17" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B18" t="s">
         <v>88</v>
@@ -59001,12 +60435,15 @@
         <v>84</v>
       </c>
       <c r="AP18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>86</v>
@@ -59130,11 +60567,14 @@
       </c>
       <c r="AP19" t="s">
         <v>86</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s">
         <v>86</v>
@@ -59257,12 +60697,15 @@
         <v>84</v>
       </c>
       <c r="AP20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -59385,12 +60828,15 @@
         <v>85</v>
       </c>
       <c r="AP21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -59513,12 +60959,15 @@
         <v>86</v>
       </c>
       <c r="AP22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -59642,11 +61091,14 @@
       </c>
       <c r="AP23" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
@@ -59769,12 +61221,15 @@
         <v>84</v>
       </c>
       <c r="AP24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ24" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -59898,6 +61353,9 @@
       </c>
       <c r="AP25" t="s">
         <v>84</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -59922,13 +61380,13 @@
         <v>11</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
         <v>14</v>
       </c>
       <c r="F1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="G1" t="s">
         <v>16</v>
@@ -59937,7 +61395,7 @@
         <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s">
         <v>19</v>
@@ -59946,13 +61404,13 @@
         <v>20</v>
       </c>
       <c r="L1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M1" t="s">
         <v>24</v>
       </c>
       <c r="N1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="O1" t="s">
         <v>28</v>
@@ -59964,37 +61422,37 @@
         <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="S1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="T1" t="s">
         <v>35</v>
       </c>
       <c r="U1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="V1" t="s">
         <v>38</v>
       </c>
       <c r="W1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="X1" t="s">
         <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Z1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AA1" t="s">
         <v>47</v>
       </c>
       <c r="AB1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="AC1" t="s">
         <v>49</v>
@@ -60003,10 +61461,10 @@
         <v>50</v>
       </c>
       <c r="AE1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AG1" t="s">
         <v>56</v>
@@ -60018,15 +61476,21 @@
         <v>64</v>
       </c>
       <c r="AJ1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AK1" t="s">
-        <v>141</v>
+        <v>144</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
@@ -60135,11 +61599,17 @@
       </c>
       <c r="AK2" t="s">
         <v>88</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
@@ -60248,11 +61718,17 @@
       </c>
       <c r="AK3" t="s">
         <v>85</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s">
         <v>88</v>
@@ -60360,12 +61836,18 @@
         <v>84</v>
       </c>
       <c r="AK4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -60473,12 +61955,18 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B6" t="s">
         <v>86</v>
@@ -60587,11 +62075,17 @@
       </c>
       <c r="AK6" t="s">
         <v>87</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
         <v>85</v>
@@ -60700,11 +62194,17 @@
       </c>
       <c r="AK7" t="s">
         <v>85</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B8" t="s">
         <v>86</v>
@@ -60813,11 +62313,17 @@
       </c>
       <c r="AK8" t="s">
         <v>88</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
@@ -60926,11 +62432,17 @@
       </c>
       <c r="AK9" t="s">
         <v>86</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B10" t="s">
         <v>88</v>
@@ -61038,12 +62550,18 @@
         <v>84</v>
       </c>
       <c r="AK10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM10" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B11" t="s">
         <v>86</v>
@@ -61152,11 +62670,17 @@
       </c>
       <c r="AK11" t="s">
         <v>86</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -61264,12 +62788,18 @@
         <v>84</v>
       </c>
       <c r="AK12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -61377,12 +62907,18 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B14" t="s">
         <v>86</v>
@@ -61491,11 +63027,17 @@
       </c>
       <c r="AK14" t="s">
         <v>87</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -61604,11 +63146,17 @@
       </c>
       <c r="AK15" t="s">
         <v>90</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
@@ -61717,11 +63265,17 @@
       </c>
       <c r="AK16" t="s">
         <v>86</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B17" t="s">
         <v>85</v>
@@ -61829,12 +63383,18 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -61942,12 +63502,18 @@
         <v>84</v>
       </c>
       <c r="AK18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B19" t="s">
         <v>85</v>
@@ -62056,11 +63622,17 @@
       </c>
       <c r="AK19" t="s">
         <v>84</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B20" t="s">
         <v>87</v>
@@ -62169,11 +63741,17 @@
       </c>
       <c r="AK20" t="s">
         <v>85</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
@@ -62282,11 +63860,17 @@
       </c>
       <c r="AK21" t="s">
         <v>88</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B22" t="s">
         <v>88</v>
@@ -62395,11 +63979,17 @@
       </c>
       <c r="AK22" t="s">
         <v>85</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s">
         <v>85</v>
@@ -62508,11 +64098,17 @@
       </c>
       <c r="AK23" t="s">
         <v>88</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B24" t="s">
         <v>86</v>
@@ -62621,11 +64217,17 @@
       </c>
       <c r="AK24" t="s">
         <v>84</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B25" t="s">
         <v>85</v>
@@ -62733,6 +64335,12 @@
         <v>84</v>
       </c>
       <c r="AK25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
         <v>87</v>
       </c>
     </row>
@@ -62758,61 +64366,61 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="F1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="G1" t="s">
         <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="I1" t="s">
         <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K1" t="s">
         <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M1" t="s">
         <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="P1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q1" t="s">
         <v>38</v>
       </c>
       <c r="R1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S1" t="s">
         <v>41</v>
       </c>
       <c r="T1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="U1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="V1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="W1" t="s">
         <v>46</v>
@@ -62821,19 +64429,19 @@
         <v>47</v>
       </c>
       <c r="Y1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Z1" t="s">
         <v>50</v>
       </c>
       <c r="AA1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AB1" t="s">
         <v>53</v>
       </c>
       <c r="AC1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AD1" t="s">
         <v>56</v>
@@ -62845,21 +64453,24 @@
         <v>64</v>
       </c>
       <c r="AG1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AI1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AJ1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
@@ -62965,11 +64576,14 @@
       </c>
       <c r="AJ2" t="s">
         <v>84</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
@@ -63075,11 +64689,14 @@
       </c>
       <c r="AJ3" t="s">
         <v>84</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
@@ -63185,11 +64802,14 @@
       </c>
       <c r="AJ4" t="s">
         <v>84</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s">
         <v>86</v>
@@ -63294,12 +64914,15 @@
         <v>86</v>
       </c>
       <c r="AJ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -63405,11 +65028,14 @@
       </c>
       <c r="AJ6" t="s">
         <v>84</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B7" t="s">
         <v>86</v>
@@ -63514,12 +65140,15 @@
         <v>84</v>
       </c>
       <c r="AJ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B8" t="s">
         <v>85</v>
@@ -63625,11 +65254,14 @@
       </c>
       <c r="AJ8" t="s">
         <v>84</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -63734,12 +65366,15 @@
         <v>87</v>
       </c>
       <c r="AJ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK9" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -63845,11 +65480,14 @@
       </c>
       <c r="AJ10" t="s">
         <v>84</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -63955,11 +65593,14 @@
       </c>
       <c r="AJ11" t="s">
         <v>85</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -64065,11 +65706,14 @@
       </c>
       <c r="AJ12" t="s">
         <v>85</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
@@ -64174,12 +65818,15 @@
         <v>84</v>
       </c>
       <c r="AJ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -64285,11 +65932,14 @@
       </c>
       <c r="AJ14" t="s">
         <v>84</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B15" t="s">
         <v>86</v>
@@ -64394,12 +66044,15 @@
         <v>85</v>
       </c>
       <c r="AJ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK15" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B16" t="s">
         <v>88</v>
@@ -64505,11 +66158,14 @@
       </c>
       <c r="AJ16" t="s">
         <v>84</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B17" t="s">
         <v>86</v>
@@ -64615,11 +66271,14 @@
       </c>
       <c r="AJ17" t="s">
         <v>84</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B18" t="s">
         <v>87</v>
@@ -64724,12 +66383,15 @@
         <v>84</v>
       </c>
       <c r="AJ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK18" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B19" t="s">
         <v>87</v>
@@ -64835,11 +66497,14 @@
       </c>
       <c r="AJ19" t="s">
         <v>84</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B20" t="s">
         <v>88</v>
@@ -64944,12 +66609,15 @@
         <v>84</v>
       </c>
       <c r="AJ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK20" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B21" t="s">
         <v>88</v>
@@ -65055,11 +66723,14 @@
       </c>
       <c r="AJ21" t="s">
         <v>84</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B22" t="s">
         <v>85</v>
@@ -65164,12 +66835,15 @@
         <v>87</v>
       </c>
       <c r="AJ22" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B23" t="s">
         <v>88</v>
@@ -65274,12 +66948,15 @@
         <v>87</v>
       </c>
       <c r="AJ23" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
@@ -65384,6 +67061,9 @@
         <v>88</v>
       </c>
       <c r="AJ24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK24" t="s">
         <v>84</v>
       </c>
     </row>
@@ -65493,7 +67173,7 @@
         <v>39</v>
       </c>
       <c r="AF1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s">
         <v>40</v>
@@ -65532,7 +67212,7 @@
         <v>51</v>
       </c>
       <c r="AS1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AT1" t="s">
         <v>53</v>
@@ -65550,12 +67230,21 @@
         <v>57</v>
       </c>
       <c r="AY1" t="s">
-        <v>289</v>
+        <v>293</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>94</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s">
         <v>84</v>
@@ -65706,11 +67395,20 @@
       </c>
       <c r="AY2" t="s">
         <v>89</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>84</v>
@@ -65861,11 +67559,20 @@
       </c>
       <c r="AY3" t="s">
         <v>87</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>85</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>84</v>
@@ -66016,11 +67723,20 @@
       </c>
       <c r="AY4" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>84</v>
@@ -66171,11 +67887,20 @@
       </c>
       <c r="AY5" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B6" t="s">
         <v>84</v>
@@ -66326,11 +68051,20 @@
       </c>
       <c r="AY6" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>86</v>
+      </c>
+      <c r="BB6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B7" t="s">
         <v>84</v>
@@ -66481,11 +68215,20 @@
       </c>
       <c r="AY7" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB7" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B8" t="s">
         <v>84</v>
@@ -66636,11 +68379,20 @@
       </c>
       <c r="AY8" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B9" t="s">
         <v>84</v>
@@ -66790,12 +68542,21 @@
         <v>86</v>
       </c>
       <c r="AY9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB9" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B10" t="s">
         <v>84</v>
@@ -66946,11 +68707,20 @@
       </c>
       <c r="AY10" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>86</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB10" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B11" t="s">
         <v>84</v>
@@ -67101,11 +68871,20 @@
       </c>
       <c r="AY11" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B12" t="s">
         <v>85</v>
@@ -67256,11 +69035,20 @@
       </c>
       <c r="AY12" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B13" t="s">
         <v>84</v>
@@ -67411,11 +69199,20 @@
       </c>
       <c r="AY13" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB13" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
@@ -67565,12 +69362,21 @@
         <v>84</v>
       </c>
       <c r="AY14" t="s">
+        <v>86</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA14" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B15" t="s">
         <v>84</v>
@@ -67721,11 +69527,20 @@
       </c>
       <c r="AY15" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B16" t="s">
         <v>84</v>
@@ -67875,12 +69690,21 @@
         <v>86</v>
       </c>
       <c r="AY16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB16" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B17" t="s">
         <v>84</v>
@@ -68031,11 +69855,20 @@
       </c>
       <c r="AY17" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA17" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB17" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B18" t="s">
         <v>84</v>
@@ -68186,11 +70019,20 @@
       </c>
       <c r="AY18" t="s">
         <v>88</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
@@ -68341,11 +70183,20 @@
       </c>
       <c r="AY19" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA19" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB19" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B20" t="s">
         <v>84</v>
@@ -68496,11 +70347,20 @@
       </c>
       <c r="AY20" t="s">
         <v>84</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB20" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
         <v>84</v>
@@ -68651,6 +70511,15 @@
       </c>
       <c r="AY21" t="s">
         <v>85</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BA21" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB21" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
